--- a/sales.xlsx
+++ b/sales.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S1007"/>
+  <dimension ref="B2:S1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70605,25 +70605,1157 @@
       </c>
     </row>
     <row r="1007">
-      <c r="B1007" t="inlineStr">
+      <c r="B1007" s="0" t="inlineStr">
         <is>
           <t>311-11-1111</t>
         </is>
       </c>
-      <c r="C1007" t="inlineStr">
+      <c r="C1007" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D1007" t="inlineStr">
+      <c r="D1007" s="0" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="E1007" t="inlineStr">
+      <c r="E1007" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="B1008" s="0" t="inlineStr">
+        <is>
+          <t>311-11-1111</t>
+        </is>
+      </c>
+      <c r="C1008" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1008" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1008" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="B1009" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1009" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1009" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1009" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1009" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1009" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1009" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1009" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1009" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1009" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1009" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1009" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1009" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1009" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1009" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1009" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1009" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1009" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="B1010" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1010" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1010" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1010" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1010" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1010" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1010" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1010" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1010" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1010" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1010" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1010" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1010" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1010" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1010" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1010" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1010" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1010" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="B1011" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1011" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1011" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1011" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1011" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1011" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1011" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1011" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1011" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1011" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1011" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1011" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1011" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1011" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1011" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1011" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1011" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1011" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="B1012" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1012" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1012" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1012" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1012" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1012" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1012" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1012" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1012" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1012" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1012" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1012" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1012" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1012" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1012" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1012" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1012" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1012" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="B1013" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1013" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1013" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1013" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1013" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1013" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1013" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1013" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1013" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1013" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1013" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1013" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1013" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1013" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1013" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1013" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1013" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1013" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="B1014" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1014" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1014" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1014" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1014" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1014" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1014" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1014" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1014" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1014" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1014" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1014" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1014" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1014" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1014" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1014" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1014" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1014" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="B1015" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1015" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1015" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1015" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1015" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1015" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1015" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1015" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1015" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1015" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1015" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1015" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1015" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1015" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1015" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1015" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1015" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1015" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="B1016" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1016" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1016" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1016" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1016" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1016" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1016" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1016" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1016" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1016" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1016" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1016" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1016" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1016" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1016" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1016" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1016" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1016" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="B1017" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1017" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1017" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1017" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1017" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1017" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1017" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1017" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1017" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1017" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1017" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1017" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1017" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1017" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1017" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1017" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1017" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1017" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="B1018" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1018" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1018" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1018" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1018" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1018" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1018" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1018" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1018" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1018" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1018" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1018" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1018" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1018" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1018" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1018" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1018" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1018" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="B1019" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1019" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1019" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1019" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1019" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1019" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1019" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1019" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1019" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1019" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1019" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1019" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1019" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1019" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1019" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1019" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1019" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1019" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="B1020" s="0" t="inlineStr">
+        <is>
+          <t>411-11-1111</t>
+        </is>
+      </c>
+      <c r="C1020" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1020" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1020" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1020" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1020" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1020" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1020" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1020" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1020" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1020" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1020" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1020" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1020" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1020" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1020" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1020" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1020" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="B1021" s="0" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1021" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1021" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1021" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1021" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1021" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1021" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1021" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1021" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1021" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1021" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1021" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1021" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1021" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1021" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1021" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1021" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1021" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="B1022" s="0" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1022" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1022" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1022" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1022" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1022" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1022" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1022" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1022" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1022" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1022" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1022" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1022" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1022" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1022" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1022" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1022" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1022" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1023" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1023" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1023" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1023" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1023" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1023" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -12,9 +12,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -124,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -154,6 +156,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S1023"/>
+  <dimension ref="B2:S1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71685,77 +71689,443 @@
       </c>
     </row>
     <row r="1023">
-      <c r="B1023" t="inlineStr">
+      <c r="B1023" s="0" t="inlineStr">
         <is>
           <t>911-11-1111</t>
         </is>
       </c>
-      <c r="C1023" t="inlineStr">
+      <c r="C1023" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D1023" t="inlineStr">
+      <c r="D1023" s="0" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="E1023" t="inlineStr">
+      <c r="E1023" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="F1023" t="inlineStr">
+      <c r="F1023" s="0" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G1023" t="inlineStr">
+      <c r="G1023" s="0" t="inlineStr">
         <is>
           <t>Health and beauty</t>
         </is>
       </c>
-      <c r="H1023" t="n">
+      <c r="H1023" s="0" t="n">
         <v>35.56</v>
       </c>
-      <c r="I1023" t="n">
+      <c r="I1023" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J1023" t="n">
+      <c r="J1023" s="0" t="n">
         <v>3.24</v>
       </c>
-      <c r="K1023" t="n">
+      <c r="K1023" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="L1023" t="inlineStr">
+      <c r="L1023" s="0" t="inlineStr">
         <is>
           <t>26/04/2024</t>
         </is>
       </c>
-      <c r="M1023" t="inlineStr">
+      <c r="M1023" s="0" t="inlineStr">
         <is>
           <t>13:08</t>
         </is>
       </c>
-      <c r="N1023" t="inlineStr">
+      <c r="N1023" s="0" t="inlineStr">
         <is>
           <t>Cash</t>
         </is>
       </c>
-      <c r="O1023" t="n">
+      <c r="O1023" s="0" t="n">
         <v>13.15</v>
       </c>
-      <c r="P1023" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1023" t="n">
+      <c r="P1023" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1023" s="0" t="n">
         <v>26.8</v>
       </c>
-      <c r="R1023" t="n">
+      <c r="R1023" s="0" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="S1023" t="n">
+      <c r="S1023" s="0" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="B1024" s="0" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1024" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1024" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1024" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1024" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1024" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1024" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1024" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1024" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1024" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1024" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1024" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1024" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1024" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1024" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1024" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1024" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1024" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="B1025" s="0" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1025" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1025" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1025" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1025" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1025" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1025" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1025" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1025" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1025" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1025" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1025" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1025" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1025" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1025" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1025" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1025" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1025" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="B1026" s="0" t="inlineStr">
+        <is>
+          <t>911-11-1111</t>
+        </is>
+      </c>
+      <c r="C1026" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1026" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1026" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1026" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1026" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1026" s="0" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I1026" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1026" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K1026" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L1026" s="0" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="M1026" s="0" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="N1026" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1026" s="0" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="P1026" s="0" t="n">
+        <v>4.761904762</v>
+      </c>
+      <c r="Q1026" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="R1026" s="0" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S1026" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="B1027" s="0" t="inlineStr">
+        <is>
+          <t>333-22-4444</t>
+        </is>
+      </c>
+      <c r="C1027" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1027" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1027" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1027" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1027" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1027" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1027" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="J1027" s="0" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="K1027" s="14" t="n">
+        <v>45797</v>
+      </c>
+      <c r="L1027" s="0" t="inlineStr">
+        <is>
+          <t>05:05:00</t>
+        </is>
+      </c>
+      <c r="M1027" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1027" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1027" s="0" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="P1027" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Q1027" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="R1027" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="S1027" s="0" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>222-11-3333</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1028" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="L1028" s="14" t="n">
+        <v>45797</v>
+      </c>
+      <c r="M1028" t="inlineStr">
+        <is>
+          <t>21:04:00</t>
+        </is>
+      </c>
+      <c r="N1028" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1028" t="n">
+        <v>250</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="S1028" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S1028"/>
+  <dimension ref="B2:S1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70567,12 +70567,12 @@
     <row r="1005">
       <c r="B1005" s="0" t="inlineStr">
         <is>
-          <t>211-11-1111</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1005" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D1005" s="0" t="inlineStr">
@@ -70585,1547 +70585,127 @@
           <t>Member</t>
         </is>
       </c>
+      <c r="F1005" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1005" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1005" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="I1005" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1005" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1005" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="L1005" s="14" t="n">
+        <v>45798</v>
+      </c>
+      <c r="M1005" s="0" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="N1005" s="0" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1005" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="P1005" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1005" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R1005" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S1005" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="1006">
-      <c r="B1006" s="0" t="inlineStr">
-        <is>
-          <t>111-11-1111</t>
-        </is>
-      </c>
-      <c r="C1006" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1006" s="0" t="inlineStr">
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="E1006" s="0" t="inlineStr">
+      <c r="E1006" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-    </row>
-    <row r="1007">
-      <c r="B1007" s="0" t="inlineStr">
-        <is>
-          <t>311-11-1111</t>
-        </is>
-      </c>
-      <c r="C1007" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1007" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1007" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="B1008" s="0" t="inlineStr">
-        <is>
-          <t>311-11-1111</t>
-        </is>
-      </c>
-      <c r="C1008" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1008" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1008" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="B1009" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1009" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1009" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1009" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1009" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1009" s="0" t="inlineStr">
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
         <is>
           <t>Health and beauty</t>
         </is>
       </c>
-      <c r="H1009" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1009" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1009" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1009" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1009" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1009" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1009" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1009" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1009" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1009" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1009" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1009" s="0" t="n">
+      <c r="H1006" t="n">
+        <v>55</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>231</v>
+      </c>
+      <c r="L1006" s="14" t="n">
+        <v>45798</v>
+      </c>
+      <c r="M1006" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="N1006" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1006" t="n">
+        <v>220</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>11</v>
+      </c>
+      <c r="R1006" t="n">
+        <v>9</v>
+      </c>
+      <c r="S1006" t="n">
         <v>23</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="B1010" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1010" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1010" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1010" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1010" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1010" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1010" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1010" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1010" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1010" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1010" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1010" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1010" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1010" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1010" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1010" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1010" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1010" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="B1011" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1011" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1011" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1011" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1011" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1011" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1011" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1011" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1011" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1011" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1011" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1011" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1011" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1011" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1011" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1011" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1011" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1011" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="B1012" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1012" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1012" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1012" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1012" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1012" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1012" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1012" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1012" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1012" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1012" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1012" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1012" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1012" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1012" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1012" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1012" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1012" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="B1013" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1013" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1013" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1013" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1013" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1013" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1013" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1013" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1013" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1013" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1013" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1013" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1013" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1013" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1013" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1013" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1013" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1013" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="B1014" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1014" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1014" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1014" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1014" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1014" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1014" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1014" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1014" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1014" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1014" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1014" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1014" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1014" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1014" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1014" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1014" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1014" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="B1015" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1015" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1015" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1015" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1015" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1015" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1015" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1015" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1015" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1015" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1015" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1015" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1015" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1015" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1015" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1015" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1015" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1015" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="B1016" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1016" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1016" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1016" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1016" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1016" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1016" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1016" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1016" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1016" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1016" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1016" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1016" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1016" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1016" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1016" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1016" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1016" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="B1017" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1017" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1017" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1017" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1017" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1017" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1017" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1017" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1017" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1017" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1017" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1017" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1017" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1017" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1017" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1017" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1017" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1017" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="B1018" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1018" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1018" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1018" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1018" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1018" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1018" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1018" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1018" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1018" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1018" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1018" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1018" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1018" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1018" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1018" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1018" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1018" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="B1019" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1019" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1019" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1019" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1019" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1019" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1019" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1019" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1019" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1019" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1019" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1019" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1019" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1019" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1019" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1019" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1019" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1019" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="B1020" s="0" t="inlineStr">
-        <is>
-          <t>411-11-1111</t>
-        </is>
-      </c>
-      <c r="C1020" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1020" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1020" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1020" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1020" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1020" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1020" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1020" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1020" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1020" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1020" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1020" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1020" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1020" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1020" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1020" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1020" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="B1021" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1021" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1021" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1021" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1021" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1021" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1021" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1021" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1021" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1021" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1021" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1021" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1021" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1021" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1021" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1021" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1021" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1021" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="B1022" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1022" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1022" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1022" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1022" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1022" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1022" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1022" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1022" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1022" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1022" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1022" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1022" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1022" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1022" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1022" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1022" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1022" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="B1023" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1023" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1023" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1023" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1023" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1023" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1023" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1023" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1023" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1023" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1023" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1023" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1023" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1023" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1023" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1023" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1023" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1023" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="B1024" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1024" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1024" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1024" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1024" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1024" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1024" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1024" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1024" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1024" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1024" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1024" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1024" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1024" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1024" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1024" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1024" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1024" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="B1025" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1025" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1025" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1025" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1025" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1025" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1025" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1025" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1025" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1025" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1025" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1025" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1025" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1025" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1025" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1025" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1025" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1025" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="B1026" s="0" t="inlineStr">
-        <is>
-          <t>911-11-1111</t>
-        </is>
-      </c>
-      <c r="C1026" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1026" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1026" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1026" s="0" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="G1026" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1026" s="0" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="I1026" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1026" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="K1026" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L1026" s="0" t="inlineStr">
-        <is>
-          <t>26/04/2024</t>
-        </is>
-      </c>
-      <c r="M1026" s="0" t="inlineStr">
-        <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="N1026" s="0" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1026" s="0" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="P1026" s="0" t="n">
-        <v>4.761904762</v>
-      </c>
-      <c r="Q1026" s="0" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="R1026" s="0" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S1026" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="B1027" s="0" t="inlineStr">
-        <is>
-          <t>333-22-4444</t>
-        </is>
-      </c>
-      <c r="C1027" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D1027" s="0" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E1027" s="0" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1027" s="0" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G1027" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H1027" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I1027" s="0" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="J1027" s="0" t="inlineStr">
-        <is>
-          <t>Ewallet</t>
-        </is>
-      </c>
-      <c r="K1027" s="14" t="n">
-        <v>45797</v>
-      </c>
-      <c r="L1027" s="0" t="inlineStr">
-        <is>
-          <t>05:05:00</t>
-        </is>
-      </c>
-      <c r="M1027" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N1027" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="O1027" s="0" t="n">
-        <v>346.5</v>
-      </c>
-      <c r="P1027" s="0" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Q1027" s="0" t="n">
-        <v>330</v>
-      </c>
-      <c r="R1027" s="0" t="n">
-        <v>4.7619</v>
-      </c>
-      <c r="S1027" s="0" t="n">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>222-11-3333</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr">
-        <is>
-          <t>Member</t>
-        </is>
-      </c>
-      <c r="F1028" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>Health and beauty</t>
-        </is>
-      </c>
-      <c r="H1028" t="n">
-        <v>25</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>10</v>
-      </c>
-      <c r="J1028" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K1028" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="L1028" s="14" t="n">
-        <v>45797</v>
-      </c>
-      <c r="M1028" t="inlineStr">
-        <is>
-          <t>21:04:00</t>
-        </is>
-      </c>
-      <c r="N1028" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="O1028" t="n">
-        <v>250</v>
-      </c>
-      <c r="P1028" t="n">
-        <v>4.7619</v>
-      </c>
-      <c r="Q1028" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="R1028" t="n">
-        <v>9</v>
-      </c>
-      <c r="S1028" t="n">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S1006"/>
+  <dimension ref="B2:S1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70637,74 +70637,146 @@
       </c>
     </row>
     <row r="1006">
-      <c r="B1006" t="inlineStr">
+      <c r="B1006" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C1006" t="inlineStr">
+      <c r="C1006" s="0" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D1006" t="inlineStr">
+      <c r="D1006" s="0" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="E1006" t="inlineStr">
+      <c r="E1006" s="0" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="F1006" t="inlineStr">
+      <c r="F1006" s="0" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="G1006" t="inlineStr">
+      <c r="G1006" s="0" t="inlineStr">
         <is>
           <t>Health and beauty</t>
         </is>
       </c>
-      <c r="H1006" t="n">
+      <c r="H1006" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="I1006" t="n">
+      <c r="I1006" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J1006" t="n">
+      <c r="J1006" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K1006" t="n">
+      <c r="K1006" s="0" t="n">
         <v>231</v>
       </c>
       <c r="L1006" s="14" t="n">
         <v>45798</v>
       </c>
-      <c r="M1006" t="inlineStr">
+      <c r="M1006" s="0" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="N1006" t="inlineStr">
+      <c r="N1006" s="0" t="inlineStr">
         <is>
           <t>Ewallet</t>
         </is>
       </c>
-      <c r="O1006" t="n">
+      <c r="O1006" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="P1006" t="n">
+      <c r="P1006" s="0" t="n">
         <v>4.7619</v>
       </c>
-      <c r="Q1006" t="n">
+      <c r="Q1006" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="R1006" t="n">
+      <c r="R1006" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S1006" t="n">
+      <c r="S1006" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>1111-11-111</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1007" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="L1007" s="14" t="n">
+        <v>45801</v>
+      </c>
+      <c r="M1007" t="inlineStr">
+        <is>
+          <t>15:03:00</t>
+        </is>
+      </c>
+      <c r="N1007" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1007" t="n">
+        <v>165</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="R1007" t="n">
+        <v>10</v>
+      </c>
+      <c r="S1007" t="n">
         <v>23</v>
       </c>
     </row>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -158,6 +158,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T1004"/>
+  <dimension ref="B2:T1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4017,7 +4018,7 @@
     <row r="51" ht="12.75" customHeight="1" s="11">
       <c r="B51" s="10" t="inlineStr">
         <is>
-          <t>318-81-2368</t>
+          <t>801-88-0346</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr">
@@ -4027,7 +4028,7 @@
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr">
@@ -4042,57 +4043,57 @@
       </c>
       <c r="G51" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H51" s="10" t="n">
-        <v>46.2</v>
+        <v>76.06</v>
       </c>
       <c r="I51" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="K51" s="10" t="n">
-        <v>48.51</v>
+        <v>239.589</v>
       </c>
       <c r="L51" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M51" s="9" t="inlineStr">
         <is>
-          <t>12:16:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="N51" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O51" s="10" t="n">
-        <v>46.2</v>
+        <v>228.18</v>
       </c>
       <c r="P51" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q51" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="R51" s="10" t="n">
-        <v>6.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S51" s="7" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1" s="11">
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>867-47-1948</t>
+          <t>318-81-2368</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -4102,7 +4103,7 @@
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E52" s="10" t="inlineStr">
@@ -4117,27 +4118,27 @@
       </c>
       <c r="G52" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H52" s="10" t="n">
-        <v>15.8</v>
+        <v>46.2</v>
       </c>
       <c r="I52" s="10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J52" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="K52" s="10" t="n">
-        <v>165.9</v>
+        <v>48.51</v>
       </c>
       <c r="L52" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M52" s="9" t="inlineStr">
         <is>
-          <t>12:07:00</t>
+          <t>12:16:00</t>
         </is>
       </c>
       <c r="N52" s="10" t="inlineStr">
@@ -4146,19 +4147,19 @@
         </is>
       </c>
       <c r="O52" s="10" t="n">
-        <v>158</v>
+        <v>46.2</v>
       </c>
       <c r="P52" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q52" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="R52" s="10" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="S52" s="7" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T52" s="0" t="n">
         <v>12</v>
@@ -4167,7 +4168,7 @@
     <row r="53" ht="12.75" customHeight="1" s="11">
       <c r="B53" s="10" t="inlineStr">
         <is>
-          <t>801-88-0346</t>
+          <t>867-47-1948</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr">
@@ -4177,7 +4178,7 @@
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E53" s="10" t="inlineStr">
@@ -4192,51 +4193,51 @@
       </c>
       <c r="G53" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H53" s="10" t="n">
-        <v>76.06</v>
+        <v>15.8</v>
       </c>
       <c r="I53" s="10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J53" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="K53" s="10" t="n">
-        <v>239.589</v>
+        <v>165.9</v>
       </c>
       <c r="L53" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M53" s="9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:07:00</t>
         </is>
       </c>
       <c r="N53" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O53" s="10" t="n">
-        <v>228.18</v>
+        <v>158</v>
       </c>
       <c r="P53" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q53" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="R53" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="S53" s="7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1" s="11">
@@ -5142,22 +5143,22 @@
     <row r="66" ht="12.75" customHeight="1" s="11">
       <c r="B66" s="10" t="inlineStr">
         <is>
-          <t>471-41-2823</t>
+          <t>132-23-6451</t>
         </is>
       </c>
       <c r="C66" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D66" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F66" s="10" t="inlineStr">
@@ -5167,72 +5168,72 @@
       </c>
       <c r="G66" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H66" s="10" t="n">
-        <v>99.79000000000001</v>
+        <v>20.97</v>
       </c>
       <c r="I66" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J66" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="K66" s="10" t="n">
-        <v>209.559</v>
+        <v>110.0925</v>
       </c>
       <c r="L66" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M66" s="9" t="inlineStr">
         <is>
-          <t>20:37:00</t>
+          <t>13:21:00</t>
         </is>
       </c>
       <c r="N66" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O66" s="10" t="n">
-        <v>199.58</v>
+        <v>104.85</v>
       </c>
       <c r="P66" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q66" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="R66" s="10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S66" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T66" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1" s="11">
       <c r="B67" s="10" t="inlineStr">
         <is>
-          <t>132-23-6451</t>
+          <t>471-41-2823</t>
         </is>
       </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E67" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F67" s="10" t="inlineStr">
@@ -5242,51 +5243,51 @@
       </c>
       <c r="G67" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H67" s="10" t="n">
-        <v>20.97</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I67" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J67" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="K67" s="10" t="n">
-        <v>110.0925</v>
+        <v>209.559</v>
       </c>
       <c r="L67" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M67" s="9" t="inlineStr">
         <is>
-          <t>13:21:00</t>
+          <t>20:37:00</t>
         </is>
       </c>
       <c r="N67" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O67" s="10" t="n">
-        <v>104.85</v>
+        <v>199.58</v>
       </c>
       <c r="P67" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q67" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="R67" s="10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="S67" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="11">
@@ -15567,17 +15568,17 @@
     <row r="205" ht="12.75" customHeight="1" s="11">
       <c r="B205" s="10" t="inlineStr">
         <is>
-          <t>790-29-1172</t>
+          <t>597-78-7908</t>
         </is>
       </c>
       <c r="C205" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D205" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E205" s="10" t="inlineStr">
@@ -15587,56 +15588,56 @@
       </c>
       <c r="F205" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G205" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H205" s="10" t="n">
-        <v>57.34</v>
+        <v>90.22</v>
       </c>
       <c r="I205" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J205" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="K205" s="10" t="n">
-        <v>180.621</v>
+        <v>284.193</v>
       </c>
       <c r="L205" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M205" s="9" t="inlineStr">
         <is>
-          <t>18:59:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N205" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O205" s="10" t="n">
-        <v>172.02</v>
+        <v>270.66</v>
       </c>
       <c r="P205" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q205" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="R205" s="10" t="n">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="S205" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T205" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1" s="11">
@@ -15717,17 +15718,17 @@
     <row r="207" ht="12.75" customHeight="1" s="11">
       <c r="B207" s="10" t="inlineStr">
         <is>
-          <t>597-78-7908</t>
+          <t>790-29-1172</t>
         </is>
       </c>
       <c r="C207" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D207" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E207" s="10" t="inlineStr">
@@ -15737,56 +15738,56 @@
       </c>
       <c r="F207" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G207" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H207" s="10" t="n">
-        <v>90.22</v>
+        <v>57.34</v>
       </c>
       <c r="I207" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J207" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="K207" s="10" t="n">
-        <v>284.193</v>
+        <v>180.621</v>
       </c>
       <c r="L207" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M207" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>18:59:00</t>
         </is>
       </c>
       <c r="N207" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O207" s="10" t="n">
-        <v>270.66</v>
+        <v>172.02</v>
       </c>
       <c r="P207" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q207" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="R207" s="10" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="S207" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T207" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="11">
@@ -16767,22 +16768,22 @@
     <row r="221" ht="12.75" customHeight="1" s="11">
       <c r="B221" s="10" t="inlineStr">
         <is>
-          <t>529-56-3974</t>
+          <t>512-91-0811</t>
         </is>
       </c>
       <c r="C221" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D221" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E221" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F221" s="10" t="inlineStr">
@@ -16792,57 +16793,57 @@
       </c>
       <c r="G221" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H221" s="10" t="n">
-        <v>25.51</v>
+        <v>89.75</v>
       </c>
       <c r="I221" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="K221" s="10" t="n">
-        <v>107.142</v>
+        <v>94.2375</v>
       </c>
       <c r="L221" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M221" s="9" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="N221" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O221" s="10" t="n">
-        <v>102.04</v>
+        <v>89.75</v>
       </c>
       <c r="P221" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q221" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="R221" s="10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="S221" s="7" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="T221" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="11">
       <c r="B222" s="10" t="inlineStr">
         <is>
-          <t>746-04-1077</t>
+          <t>529-56-3974</t>
         </is>
       </c>
       <c r="C222" s="10" t="inlineStr">
@@ -16852,7 +16853,7 @@
       </c>
       <c r="D222" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E222" s="10" t="inlineStr">
@@ -16862,67 +16863,67 @@
       </c>
       <c r="F222" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G222" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H222" s="10" t="n">
-        <v>84.63</v>
+        <v>25.51</v>
       </c>
       <c r="I222" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J222" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="K222" s="10" t="n">
-        <v>888.615</v>
+        <v>107.142</v>
       </c>
       <c r="L222" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M222" s="9" t="inlineStr">
         <is>
-          <t>11:36:00</t>
+          <t>17:03:00</t>
         </is>
       </c>
       <c r="N222" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O222" s="10" t="n">
-        <v>846.3</v>
+        <v>102.04</v>
       </c>
       <c r="P222" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q222" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="R222" s="10" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="S222" s="7" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="T222" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="11">
       <c r="B223" s="10" t="inlineStr">
         <is>
-          <t>512-91-0811</t>
+          <t>746-04-1077</t>
         </is>
       </c>
       <c r="C223" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D223" s="7" t="inlineStr">
@@ -16932,37 +16933,37 @@
       </c>
       <c r="E223" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F223" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G223" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H223" s="10" t="n">
-        <v>89.75</v>
+        <v>84.63</v>
       </c>
       <c r="I223" s="10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J223" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="K223" s="10" t="n">
-        <v>94.2375</v>
+        <v>888.615</v>
       </c>
       <c r="L223" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M223" s="9" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>11:36:00</t>
         </is>
       </c>
       <c r="N223" s="10" t="inlineStr">
@@ -16971,22 +16972,22 @@
         </is>
       </c>
       <c r="O223" s="10" t="n">
-        <v>89.75</v>
+        <v>846.3</v>
       </c>
       <c r="P223" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q223" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="R223" s="10" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="S223" s="7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T223" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="11">
@@ -17817,22 +17818,22 @@
     <row r="235" ht="12.75" customHeight="1" s="11">
       <c r="B235" s="10" t="inlineStr">
         <is>
-          <t>779-06-0012</t>
+          <t>448-61-3783</t>
         </is>
       </c>
       <c r="C235" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D235" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E235" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F235" s="10" t="inlineStr">
@@ -17842,72 +17843,72 @@
       </c>
       <c r="G235" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H235" s="10" t="n">
-        <v>88.61</v>
+        <v>90.02</v>
       </c>
       <c r="I235" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J235" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="K235" s="10" t="n">
-        <v>93.04049999999999</v>
+        <v>756.168</v>
       </c>
       <c r="L235" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M235" s="9" t="inlineStr">
         <is>
-          <t>10:21:00</t>
+          <t>16:08:00</t>
         </is>
       </c>
       <c r="N235" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O235" s="10" t="n">
-        <v>88.61</v>
+        <v>720.16</v>
       </c>
       <c r="P235" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q235" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="R235" s="10" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="S235" s="7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T235" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="11">
       <c r="B236" s="10" t="inlineStr">
         <is>
-          <t>448-61-3783</t>
+          <t>779-06-0012</t>
         </is>
       </c>
       <c r="C236" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D236" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E236" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F236" s="10" t="inlineStr">
@@ -17917,51 +17918,51 @@
       </c>
       <c r="G236" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H236" s="10" t="n">
-        <v>90.02</v>
+        <v>88.61</v>
       </c>
       <c r="I236" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J236" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="K236" s="10" t="n">
-        <v>756.168</v>
+        <v>93.04049999999999</v>
       </c>
       <c r="L236" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M236" s="9" t="inlineStr">
         <is>
-          <t>16:08:00</t>
+          <t>10:21:00</t>
         </is>
       </c>
       <c r="N236" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O236" s="10" t="n">
-        <v>720.16</v>
+        <v>88.61</v>
       </c>
       <c r="P236" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q236" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="R236" s="10" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="S236" s="7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T236" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="11">
@@ -19092,148 +19093,148 @@
     <row r="252" ht="12.75" customHeight="1" s="11">
       <c r="B252" s="10" t="inlineStr">
         <is>
-          <t>891-58-8335</t>
+          <t>127-47-6963</t>
         </is>
       </c>
       <c r="C252" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D252" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E252" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F252" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G252" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H252" s="10" t="n">
-        <v>29.61</v>
+        <v>51.71</v>
       </c>
       <c r="I252" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J252" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="K252" s="10" t="n">
-        <v>217.6335</v>
+        <v>217.182</v>
       </c>
       <c r="L252" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M252" s="9" t="inlineStr">
         <is>
-          <t>15:53:00</t>
+          <t>13:53:00</t>
         </is>
       </c>
       <c r="N252" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O252" s="10" t="n">
-        <v>207.27</v>
+        <v>206.84</v>
       </c>
       <c r="P252" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q252" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="R252" s="10" t="n">
-        <v>6.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S252" s="7" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T252" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1" s="11">
       <c r="B253" s="10" t="inlineStr">
         <is>
-          <t>127-47-6963</t>
+          <t>347-34-2234</t>
         </is>
       </c>
       <c r="C253" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D253" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E253" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F253" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G253" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H253" s="10" t="n">
-        <v>51.71</v>
+        <v>55.07</v>
       </c>
       <c r="I253" s="10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J253" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="K253" s="10" t="n">
-        <v>217.182</v>
+        <v>520.4115</v>
       </c>
       <c r="L253" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M253" s="9" t="inlineStr">
         <is>
-          <t>13:53:00</t>
+          <t>13:40:00</t>
         </is>
       </c>
       <c r="N253" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O253" s="10" t="n">
-        <v>206.84</v>
+        <v>495.63</v>
       </c>
       <c r="P253" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q253" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="R253" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S253" s="7" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T253" s="0" t="n">
         <v>13</v>
@@ -19242,7 +19243,7 @@
     <row r="254" ht="12.75" customHeight="1" s="11">
       <c r="B254" s="10" t="inlineStr">
         <is>
-          <t>347-34-2234</t>
+          <t>891-58-8335</t>
         </is>
       </c>
       <c r="C254" s="10" t="inlineStr">
@@ -19252,7 +19253,7 @@
       </c>
       <c r="D254" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E254" s="10" t="inlineStr">
@@ -19271,47 +19272,47 @@
         </is>
       </c>
       <c r="H254" s="10" t="n">
-        <v>55.07</v>
+        <v>29.61</v>
       </c>
       <c r="I254" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J254" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="K254" s="10" t="n">
-        <v>520.4115</v>
+        <v>217.6335</v>
       </c>
       <c r="L254" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M254" s="9" t="inlineStr">
         <is>
-          <t>13:40:00</t>
+          <t>15:53:00</t>
         </is>
       </c>
       <c r="N254" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O254" s="10" t="n">
-        <v>495.63</v>
+        <v>207.27</v>
       </c>
       <c r="P254" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q254" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="R254" s="10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="S254" s="7" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="T254" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1" s="11">
@@ -20292,7 +20293,7 @@
     <row r="268" ht="12.75" customHeight="1" s="11">
       <c r="B268" s="10" t="inlineStr">
         <is>
-          <t>364-33-8584</t>
+          <t>692-92-5582</t>
         </is>
       </c>
       <c r="C268" s="10" t="inlineStr">
@@ -20302,7 +20303,7 @@
       </c>
       <c r="D268" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E268" s="10" t="inlineStr">
@@ -20321,53 +20322,53 @@
         </is>
       </c>
       <c r="H268" s="10" t="n">
-        <v>17.63</v>
+        <v>54.84</v>
       </c>
       <c r="I268" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J268" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="K268" s="10" t="n">
-        <v>92.5575</v>
+        <v>172.746</v>
       </c>
       <c r="L268" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M268" s="9" t="inlineStr">
         <is>
-          <t>15:27:00</t>
+          <t>13:27:00</t>
         </is>
       </c>
       <c r="N268" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O268" s="10" t="n">
-        <v>88.15000000000001</v>
+        <v>164.52</v>
       </c>
       <c r="P268" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q268" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="R268" s="10" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="S268" s="7" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="T268" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="11">
       <c r="B269" s="10" t="inlineStr">
         <is>
-          <t>692-92-5582</t>
+          <t>364-33-8584</t>
         </is>
       </c>
       <c r="C269" s="10" t="inlineStr">
@@ -20377,7 +20378,7 @@
       </c>
       <c r="D269" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E269" s="10" t="inlineStr">
@@ -20396,47 +20397,47 @@
         </is>
       </c>
       <c r="H269" s="10" t="n">
-        <v>54.84</v>
+        <v>17.63</v>
       </c>
       <c r="I269" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J269" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="K269" s="10" t="n">
-        <v>172.746</v>
+        <v>92.5575</v>
       </c>
       <c r="L269" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M269" s="9" t="inlineStr">
         <is>
-          <t>13:27:00</t>
+          <t>15:27:00</t>
         </is>
       </c>
       <c r="N269" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O269" s="10" t="n">
-        <v>164.52</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="P269" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q269" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="R269" s="10" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="S269" s="7" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T269" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="11">
@@ -21342,17 +21343,17 @@
     <row r="282" ht="12.75" customHeight="1" s="11">
       <c r="B282" s="10" t="inlineStr">
         <is>
-          <t>595-94-9924</t>
+          <t>549-96-4200</t>
         </is>
       </c>
       <c r="C282" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D282" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E282" s="10" t="inlineStr">
@@ -21362,53 +21363,53 @@
       </c>
       <c r="F282" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G282" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H282" s="10" t="n">
-        <v>27.73</v>
+        <v>17.04</v>
       </c>
       <c r="I282" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J282" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="K282" s="10" t="n">
-        <v>145.5825</v>
+        <v>71.568</v>
       </c>
       <c r="L282" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M282" s="9" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="N282" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O282" s="10" t="n">
-        <v>138.65</v>
+        <v>68.16</v>
       </c>
       <c r="P282" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q282" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="R282" s="10" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="S282" s="7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T282" s="0" t="n">
         <v>20</v>
@@ -21417,17 +21418,17 @@
     <row r="283" ht="12.75" customHeight="1" s="11">
       <c r="B283" s="10" t="inlineStr">
         <is>
-          <t>137-74-8729</t>
+          <t>366-43-6862</t>
         </is>
       </c>
       <c r="C283" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D283" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E283" s="10" t="inlineStr">
@@ -21437,32 +21438,32 @@
       </c>
       <c r="F283" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G283" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H283" s="10" t="n">
-        <v>12.19</v>
+        <v>52.89</v>
       </c>
       <c r="I283" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J283" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="K283" s="10" t="n">
-        <v>102.396</v>
+        <v>222.138</v>
       </c>
       <c r="L283" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M283" s="9" t="inlineStr">
         <is>
-          <t>12:47:00</t>
+          <t>16:32:00</t>
         </is>
       </c>
       <c r="N283" s="10" t="inlineStr">
@@ -21471,103 +21472,103 @@
         </is>
       </c>
       <c r="O283" s="10" t="n">
-        <v>97.52</v>
+        <v>211.56</v>
       </c>
       <c r="P283" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q283" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="R283" s="10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="S283" s="7" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="T283" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1" s="11">
       <c r="B284" s="10" t="inlineStr">
         <is>
-          <t>366-43-6862</t>
+          <t>595-94-9924</t>
         </is>
       </c>
       <c r="C284" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D284" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E284" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F284" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G284" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H284" s="10" t="n">
-        <v>52.89</v>
+        <v>27.73</v>
       </c>
       <c r="I284" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J284" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="K284" s="10" t="n">
-        <v>222.138</v>
+        <v>145.5825</v>
       </c>
       <c r="L284" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M284" s="9" t="inlineStr">
         <is>
-          <t>16:32:00</t>
+          <t>20:21:00</t>
         </is>
       </c>
       <c r="N284" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O284" s="10" t="n">
-        <v>211.56</v>
+        <v>138.65</v>
       </c>
       <c r="P284" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q284" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="R284" s="10" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="S284" s="7" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="T284" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1" s="11">
       <c r="B285" s="10" t="inlineStr">
         <is>
-          <t>549-96-4200</t>
+          <t>137-74-8729</t>
         </is>
       </c>
       <c r="C285" s="10" t="inlineStr">
@@ -21577,42 +21578,42 @@
       </c>
       <c r="D285" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E285" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F285" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G285" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H285" s="10" t="n">
-        <v>17.04</v>
+        <v>12.19</v>
       </c>
       <c r="I285" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J285" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="K285" s="10" t="n">
-        <v>71.568</v>
+        <v>102.396</v>
       </c>
       <c r="L285" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M285" s="9" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>12:47:00</t>
         </is>
       </c>
       <c r="N285" s="10" t="inlineStr">
@@ -21621,22 +21622,22 @@
         </is>
       </c>
       <c r="O285" s="10" t="n">
-        <v>68.16</v>
+        <v>97.52</v>
       </c>
       <c r="P285" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q285" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="R285" s="10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="S285" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T285" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="11">
@@ -22617,151 +22618,151 @@
     <row r="299" ht="12.75" customHeight="1" s="11">
       <c r="B299" s="10" t="inlineStr">
         <is>
-          <t>420-97-3340</t>
+          <t>593-95-4461</t>
         </is>
       </c>
       <c r="C299" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D299" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E299" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F299" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G299" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H299" s="10" t="n">
-        <v>71.68000000000001</v>
+        <v>74.86</v>
       </c>
       <c r="I299" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J299" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="K299" s="10" t="n">
-        <v>225.792</v>
+        <v>78.60299999999999</v>
       </c>
       <c r="L299" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M299" s="9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:49:00</t>
         </is>
       </c>
       <c r="N299" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O299" s="10" t="n">
-        <v>215.04</v>
+        <v>74.86</v>
       </c>
       <c r="P299" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q299" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="R299" s="10" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="S299" s="7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T299" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="11">
       <c r="B300" s="10" t="inlineStr">
         <is>
-          <t>593-95-4461</t>
+          <t>420-97-3340</t>
         </is>
       </c>
       <c r="C300" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D300" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E300" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F300" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G300" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H300" s="10" t="n">
-        <v>74.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="I300" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J300" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="K300" s="10" t="n">
-        <v>78.60299999999999</v>
+        <v>225.792</v>
       </c>
       <c r="L300" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M300" s="9" t="inlineStr">
         <is>
-          <t>14:49:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="N300" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O300" s="10" t="n">
-        <v>74.86</v>
+        <v>215.04</v>
       </c>
       <c r="P300" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q300" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="R300" s="10" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S300" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T300" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="11">
@@ -24942,17 +24943,17 @@
     <row r="330" ht="12.75" customHeight="1" s="11">
       <c r="B330" s="10" t="inlineStr">
         <is>
-          <t>563-47-4072</t>
+          <t>233-67-5758</t>
         </is>
       </c>
       <c r="C330" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D330" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E330" s="10" t="inlineStr">
@@ -24962,7 +24963,7 @@
       </c>
       <c r="F330" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G330" s="10" t="inlineStr">
@@ -24971,63 +24972,63 @@
         </is>
       </c>
       <c r="H330" s="10" t="n">
-        <v>55.81</v>
+        <v>40.35</v>
       </c>
       <c r="I330" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J330" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="K330" s="10" t="n">
-        <v>351.603</v>
+        <v>42.3675</v>
       </c>
       <c r="L330" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M330" s="9" t="inlineStr">
         <is>
-          <t>11:52:00</t>
+          <t>13:46:00</t>
         </is>
       </c>
       <c r="N330" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O330" s="10" t="n">
-        <v>334.86</v>
+        <v>40.35</v>
       </c>
       <c r="P330" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q330" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="R330" s="10" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="S330" s="7" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T330" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="11">
       <c r="B331" s="10" t="inlineStr">
         <is>
-          <t>233-67-5758</t>
+          <t>563-47-4072</t>
         </is>
       </c>
       <c r="C331" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D331" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E331" s="10" t="inlineStr">
@@ -25037,7 +25038,7 @@
       </c>
       <c r="F331" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G331" s="10" t="inlineStr">
@@ -25046,47 +25047,47 @@
         </is>
       </c>
       <c r="H331" s="10" t="n">
-        <v>40.35</v>
+        <v>55.81</v>
       </c>
       <c r="I331" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J331" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="K331" s="10" t="n">
-        <v>42.3675</v>
+        <v>351.603</v>
       </c>
       <c r="L331" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M331" s="9" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>11:52:00</t>
         </is>
       </c>
       <c r="N331" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O331" s="10" t="n">
-        <v>40.35</v>
+        <v>334.86</v>
       </c>
       <c r="P331" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q331" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="R331" s="10" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="S331" s="7" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T331" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="11">
@@ -26067,7 +26068,7 @@
     <row r="345" ht="12.75" customHeight="1" s="11">
       <c r="B345" s="10" t="inlineStr">
         <is>
-          <t>460-35-4390</t>
+          <t>422-29-8786</t>
         </is>
       </c>
       <c r="C345" s="10" t="inlineStr">
@@ -26077,7 +26078,7 @@
       </c>
       <c r="D345" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E345" s="10" t="inlineStr">
@@ -26087,7 +26088,7 @@
       </c>
       <c r="F345" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G345" s="10" t="inlineStr">
@@ -26096,38 +26097,38 @@
         </is>
       </c>
       <c r="H345" s="10" t="n">
-        <v>30.68</v>
+        <v>67.09</v>
       </c>
       <c r="I345" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J345" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="K345" s="10" t="n">
-        <v>96.642</v>
+        <v>352.2225</v>
       </c>
       <c r="L345" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M345" s="9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:47:00</t>
         </is>
       </c>
       <c r="N345" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O345" s="10" t="n">
-        <v>92.04000000000001</v>
+        <v>335.45</v>
       </c>
       <c r="P345" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q345" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="R345" s="10" t="n">
         <v>9.1</v>
@@ -26136,28 +26137,28 @@
         <v>23</v>
       </c>
       <c r="T345" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="11">
       <c r="B346" s="10" t="inlineStr">
         <is>
-          <t>422-29-8786</t>
+          <t>727-46-3608</t>
         </is>
       </c>
       <c r="C346" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D346" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E346" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F346" s="10" t="inlineStr">
@@ -26167,102 +26168,102 @@
       </c>
       <c r="G346" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H346" s="10" t="n">
-        <v>67.09</v>
+        <v>20.01</v>
       </c>
       <c r="I346" s="10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J346" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="K346" s="10" t="n">
-        <v>352.2225</v>
+        <v>189.0945</v>
       </c>
       <c r="L346" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M346" s="9" t="inlineStr">
         <is>
-          <t>16:47:00</t>
+          <t>15:47:00</t>
         </is>
       </c>
       <c r="N346" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O346" s="10" t="n">
-        <v>335.45</v>
+        <v>180.09</v>
       </c>
       <c r="P346" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q346" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="R346" s="10" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="S346" s="7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="T346" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1" s="11">
       <c r="B347" s="10" t="inlineStr">
         <is>
-          <t>727-46-3608</t>
+          <t>460-35-4390</t>
         </is>
       </c>
       <c r="C347" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D347" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E347" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F347" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G347" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H347" s="10" t="n">
-        <v>20.01</v>
+        <v>30.68</v>
       </c>
       <c r="I347" s="10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J347" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="K347" s="10" t="n">
-        <v>189.0945</v>
+        <v>96.642</v>
       </c>
       <c r="L347" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M347" s="9" t="inlineStr">
         <is>
-          <t>15:47:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="N347" s="10" t="inlineStr">
@@ -26271,22 +26272,22 @@
         </is>
       </c>
       <c r="O347" s="10" t="n">
-        <v>180.09</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="P347" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q347" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="R347" s="10" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="S347" s="7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="T347" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="11">
@@ -27192,7 +27193,7 @@
     <row r="360" ht="12.75" customHeight="1" s="11">
       <c r="B360" s="10" t="inlineStr">
         <is>
-          <t>655-85-5130</t>
+          <t>365-16-4334</t>
         </is>
       </c>
       <c r="C360" s="10" t="inlineStr">
@@ -27207,7 +27208,7 @@
       </c>
       <c r="E360" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F360" s="10" t="inlineStr">
@@ -27217,57 +27218,57 @@
       </c>
       <c r="G360" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H360" s="10" t="n">
-        <v>38.3</v>
+        <v>26.43</v>
       </c>
       <c r="I360" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J360" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="K360" s="10" t="n">
-        <v>160.86</v>
+        <v>222.012</v>
       </c>
       <c r="L360" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M360" s="9" t="inlineStr">
         <is>
-          <t>19:22:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N360" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O360" s="10" t="n">
-        <v>153.2</v>
+        <v>211.44</v>
       </c>
       <c r="P360" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q360" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="R360" s="10" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="S360" s="7" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T360" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="11">
       <c r="B361" s="10" t="inlineStr">
         <is>
-          <t>365-16-4334</t>
+          <t>655-85-5130</t>
         </is>
       </c>
       <c r="C361" s="10" t="inlineStr">
@@ -27282,7 +27283,7 @@
       </c>
       <c r="E361" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F361" s="10" t="inlineStr">
@@ -27292,67 +27293,67 @@
       </c>
       <c r="G361" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H361" s="10" t="n">
-        <v>26.43</v>
+        <v>38.3</v>
       </c>
       <c r="I361" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J361" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="K361" s="10" t="n">
-        <v>222.012</v>
+        <v>160.86</v>
       </c>
       <c r="L361" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M361" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>19:22:00</t>
         </is>
       </c>
       <c r="N361" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O361" s="10" t="n">
-        <v>211.44</v>
+        <v>153.2</v>
       </c>
       <c r="P361" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q361" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="R361" s="10" t="n">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="S361" s="7" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="T361" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="11">
       <c r="B362" s="10" t="inlineStr">
         <is>
-          <t>704-10-4056</t>
+          <t>411-77-0180</t>
         </is>
       </c>
       <c r="C362" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D362" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E362" s="10" t="inlineStr">
@@ -27367,67 +27368,67 @@
       </c>
       <c r="G362" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H362" s="10" t="n">
-        <v>60.47</v>
+        <v>72.2</v>
       </c>
       <c r="I362" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J362" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="K362" s="10" t="n">
-        <v>190.4805</v>
+        <v>530.67</v>
       </c>
       <c r="L362" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M362" s="9" t="inlineStr">
         <is>
-          <t>10:55:00</t>
+          <t>20:14:00</t>
         </is>
       </c>
       <c r="N362" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O362" s="10" t="n">
-        <v>181.41</v>
+        <v>505.4</v>
       </c>
       <c r="P362" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q362" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="R362" s="10" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="S362" s="7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T362" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="11">
       <c r="B363" s="10" t="inlineStr">
         <is>
-          <t>411-77-0180</t>
+          <t>704-10-4056</t>
         </is>
       </c>
       <c r="C363" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D363" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E363" s="10" t="inlineStr">
@@ -27442,51 +27443,51 @@
       </c>
       <c r="G363" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H363" s="10" t="n">
-        <v>72.2</v>
+        <v>60.47</v>
       </c>
       <c r="I363" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J363" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="K363" s="10" t="n">
-        <v>530.67</v>
+        <v>190.4805</v>
       </c>
       <c r="L363" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M363" s="9" t="inlineStr">
         <is>
-          <t>20:14:00</t>
+          <t>10:55:00</t>
         </is>
       </c>
       <c r="N363" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O363" s="10" t="n">
-        <v>505.4</v>
+        <v>181.41</v>
       </c>
       <c r="P363" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q363" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="R363" s="10" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="S363" s="7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T363" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="11">
@@ -28392,22 +28393,22 @@
     <row r="376" ht="12.75" customHeight="1" s="11">
       <c r="B376" s="10" t="inlineStr">
         <is>
-          <t>301-11-9629</t>
+          <t>271-77-8740</t>
         </is>
       </c>
       <c r="C376" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D376" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E376" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F376" s="10" t="inlineStr">
@@ -28421,68 +28422,68 @@
         </is>
       </c>
       <c r="H376" s="10" t="n">
-        <v>19.1</v>
+        <v>29.22</v>
       </c>
       <c r="I376" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J376" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="K376" s="10" t="n">
-        <v>140.385</v>
+        <v>184.086</v>
       </c>
       <c r="L376" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M376" s="9" t="inlineStr">
         <is>
-          <t>10:43:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="N376" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O376" s="10" t="n">
-        <v>133.7</v>
+        <v>175.32</v>
       </c>
       <c r="P376" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q376" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="R376" s="10" t="n">
-        <v>9.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="S376" s="7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="T376" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" ht="12.75" customHeight="1" s="11">
       <c r="B377" s="10" t="inlineStr">
         <is>
-          <t>271-77-8740</t>
+          <t>301-11-9629</t>
         </is>
       </c>
       <c r="C377" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D377" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E377" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F377" s="10" t="inlineStr">
@@ -28496,63 +28497,63 @@
         </is>
       </c>
       <c r="H377" s="10" t="n">
-        <v>29.22</v>
+        <v>19.1</v>
       </c>
       <c r="I377" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J377" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="K377" s="10" t="n">
-        <v>184.086</v>
+        <v>140.385</v>
       </c>
       <c r="L377" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M377" s="9" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>10:43:00</t>
         </is>
       </c>
       <c r="N377" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O377" s="10" t="n">
-        <v>175.32</v>
+        <v>133.7</v>
       </c>
       <c r="P377" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q377" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="R377" s="10" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S377" s="7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="T377" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1" s="11">
       <c r="B378" s="10" t="inlineStr">
         <is>
-          <t>266-20-6657</t>
+          <t>397-25-8725</t>
         </is>
       </c>
       <c r="C378" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D378" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E378" s="10" t="inlineStr">
@@ -28562,72 +28563,72 @@
       </c>
       <c r="F378" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G378" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H378" s="10" t="n">
-        <v>55.04</v>
+        <v>39.62</v>
       </c>
       <c r="I378" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J378" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="K378" s="10" t="n">
-        <v>404.544</v>
+        <v>374.409</v>
       </c>
       <c r="L378" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M378" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>17:54:00</t>
         </is>
       </c>
       <c r="N378" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O378" s="10" t="n">
-        <v>385.28</v>
+        <v>356.58</v>
       </c>
       <c r="P378" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q378" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="R378" s="10" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="S378" s="7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="T378" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" ht="12.75" customHeight="1" s="11">
       <c r="B379" s="10" t="inlineStr">
         <is>
-          <t>397-25-8725</t>
+          <t>266-20-6657</t>
         </is>
       </c>
       <c r="C379" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D379" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E379" s="10" t="inlineStr">
@@ -28637,56 +28638,56 @@
       </c>
       <c r="F379" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G379" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H379" s="10" t="n">
-        <v>39.62</v>
+        <v>55.04</v>
       </c>
       <c r="I379" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J379" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="K379" s="10" t="n">
-        <v>374.409</v>
+        <v>404.544</v>
       </c>
       <c r="L379" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M379" s="9" t="inlineStr">
         <is>
-          <t>17:54:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N379" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O379" s="10" t="n">
-        <v>356.58</v>
+        <v>385.28</v>
       </c>
       <c r="P379" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q379" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="R379" s="10" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="S379" s="7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="T379" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" ht="12.75" customHeight="1" s="11">
@@ -29742,17 +29743,17 @@
     <row r="394" ht="12.75" customHeight="1" s="11">
       <c r="B394" s="10" t="inlineStr">
         <is>
-          <t>105-31-1824</t>
+          <t>176-78-1170</t>
         </is>
       </c>
       <c r="C394" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D394" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E394" s="10" t="inlineStr">
@@ -29767,48 +29768,48 @@
       </c>
       <c r="G394" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H394" s="10" t="n">
-        <v>69.52</v>
+        <v>33.81</v>
       </c>
       <c r="I394" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J394" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="K394" s="10" t="n">
-        <v>510.972</v>
+        <v>106.5015</v>
       </c>
       <c r="L394" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M394" s="9" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:11:00</t>
         </is>
       </c>
       <c r="N394" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O394" s="10" t="n">
-        <v>486.64</v>
+        <v>101.43</v>
       </c>
       <c r="P394" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q394" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="R394" s="10" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="S394" s="7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T394" s="0" t="n">
         <v>15</v>
@@ -29817,17 +29818,17 @@
     <row r="395" ht="12.75" customHeight="1" s="11">
       <c r="B395" s="10" t="inlineStr">
         <is>
-          <t>176-78-1170</t>
+          <t>105-31-1824</t>
         </is>
       </c>
       <c r="C395" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D395" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E395" s="10" t="inlineStr">
@@ -29842,48 +29843,48 @@
       </c>
       <c r="G395" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H395" s="10" t="n">
-        <v>33.81</v>
+        <v>69.52</v>
       </c>
       <c r="I395" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J395" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="K395" s="10" t="n">
-        <v>106.5015</v>
+        <v>510.972</v>
       </c>
       <c r="L395" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M395" s="9" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="N395" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O395" s="10" t="n">
-        <v>101.43</v>
+        <v>486.64</v>
       </c>
       <c r="P395" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q395" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="R395" s="10" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="S395" s="7" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T395" s="0" t="n">
         <v>15</v>
@@ -31917,7 +31918,7 @@
     <row r="423" ht="12.75" customHeight="1" s="11">
       <c r="B423" s="10" t="inlineStr">
         <is>
-          <t>283-79-9594</t>
+          <t>346-12-3257</t>
         </is>
       </c>
       <c r="C423" s="10" t="inlineStr">
@@ -31927,72 +31928,72 @@
       </c>
       <c r="D423" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E423" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F423" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G423" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H423" s="10" t="n">
-        <v>48.51</v>
+        <v>19.24</v>
       </c>
       <c r="I423" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J423" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="K423" s="10" t="n">
-        <v>356.5485</v>
+        <v>181.818</v>
       </c>
       <c r="L423" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M423" s="9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:28:00</t>
         </is>
       </c>
       <c r="N423" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O423" s="10" t="n">
-        <v>339.57</v>
+        <v>173.16</v>
       </c>
       <c r="P423" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q423" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="R423" s="10" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="S423" s="7" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T423" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424" ht="12.75" customHeight="1" s="11">
       <c r="B424" s="10" t="inlineStr">
         <is>
-          <t>346-12-3257</t>
+          <t>891-01-7034</t>
         </is>
       </c>
       <c r="C424" s="10" t="inlineStr">
@@ -32002,17 +32003,17 @@
       </c>
       <c r="D424" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E424" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F424" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G424" s="10" t="inlineStr">
@@ -32021,23 +32022,23 @@
         </is>
       </c>
       <c r="H424" s="10" t="n">
-        <v>19.24</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="I424" s="10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J424" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="K424" s="10" t="n">
-        <v>181.818</v>
+        <v>470.673</v>
       </c>
       <c r="L424" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M424" s="9" t="inlineStr">
         <is>
-          <t>16:28:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N424" s="10" t="inlineStr">
@@ -32046,28 +32047,28 @@
         </is>
       </c>
       <c r="O424" s="10" t="n">
-        <v>173.16</v>
+        <v>448.26</v>
       </c>
       <c r="P424" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q424" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="R424" s="10" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="S424" s="7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T424" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="425" ht="12.75" customHeight="1" s="11">
       <c r="B425" s="10" t="inlineStr">
         <is>
-          <t>891-01-7034</t>
+          <t>283-79-9594</t>
         </is>
       </c>
       <c r="C425" s="10" t="inlineStr">
@@ -32077,7 +32078,7 @@
       </c>
       <c r="D425" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E425" s="10" t="inlineStr">
@@ -32092,51 +32093,51 @@
       </c>
       <c r="G425" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H425" s="10" t="n">
-        <v>74.70999999999999</v>
+        <v>48.51</v>
       </c>
       <c r="I425" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J425" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="K425" s="10" t="n">
-        <v>470.673</v>
+        <v>356.5485</v>
       </c>
       <c r="L425" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M425" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="N425" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O425" s="10" t="n">
-        <v>448.26</v>
+        <v>339.57</v>
       </c>
       <c r="P425" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q425" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="R425" s="10" t="n">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="S425" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T425" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" ht="12.75" customHeight="1" s="11">
@@ -33042,17 +33043,17 @@
     <row r="438" ht="12.75" customHeight="1" s="11">
       <c r="B438" s="10" t="inlineStr">
         <is>
-          <t>742-04-5161</t>
+          <t>875-46-5808</t>
         </is>
       </c>
       <c r="C438" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D438" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E438" s="10" t="inlineStr">
@@ -33067,67 +33068,67 @@
       </c>
       <c r="G438" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H438" s="10" t="n">
-        <v>72.78</v>
+        <v>25.9</v>
       </c>
       <c r="I438" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J438" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="K438" s="10" t="n">
-        <v>764.1900000000001</v>
+        <v>271.95</v>
       </c>
       <c r="L438" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M438" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:51:00</t>
         </is>
       </c>
       <c r="N438" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O438" s="10" t="n">
-        <v>727.8</v>
+        <v>259</v>
       </c>
       <c r="P438" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q438" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="R438" s="10" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S438" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="T438" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="439" ht="12.75" customHeight="1" s="11">
       <c r="B439" s="10" t="inlineStr">
         <is>
-          <t>875-46-5808</t>
+          <t>742-04-5161</t>
         </is>
       </c>
       <c r="C439" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D439" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E439" s="10" t="inlineStr">
@@ -33142,51 +33143,51 @@
       </c>
       <c r="G439" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H439" s="10" t="n">
-        <v>25.9</v>
+        <v>72.78</v>
       </c>
       <c r="I439" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J439" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="K439" s="10" t="n">
-        <v>271.95</v>
+        <v>764.1900000000001</v>
       </c>
       <c r="L439" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M439" s="9" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N439" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O439" s="10" t="n">
-        <v>259</v>
+        <v>727.8</v>
       </c>
       <c r="P439" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q439" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="R439" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="S439" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T439" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" ht="12.75" customHeight="1" s="11">
@@ -34317,7 +34318,7 @@
     <row r="455" ht="12.75" customHeight="1" s="11">
       <c r="B455" s="10" t="inlineStr">
         <is>
-          <t>211-05-0490</t>
+          <t>162-65-8559</t>
         </is>
       </c>
       <c r="C455" s="10" t="inlineStr">
@@ -34327,7 +34328,7 @@
       </c>
       <c r="D455" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E455" s="10" t="inlineStr">
@@ -34337,32 +34338,32 @@
       </c>
       <c r="F455" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G455" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H455" s="10" t="n">
-        <v>51.92</v>
+        <v>68.98</v>
       </c>
       <c r="I455" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J455" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="K455" s="10" t="n">
-        <v>272.58</v>
+        <v>72.429</v>
       </c>
       <c r="L455" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M455" s="9" t="inlineStr">
         <is>
-          <t>13:42:00</t>
+          <t>20:13:00</t>
         </is>
       </c>
       <c r="N455" s="10" t="inlineStr">
@@ -34371,43 +34372,43 @@
         </is>
       </c>
       <c r="O455" s="10" t="n">
-        <v>259.6</v>
+        <v>68.98</v>
       </c>
       <c r="P455" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q455" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="R455" s="10" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="S455" s="7" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="T455" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456" ht="12.75" customHeight="1" s="11">
       <c r="B456" s="10" t="inlineStr">
         <is>
-          <t>162-65-8559</t>
+          <t>186-79-9562</t>
         </is>
       </c>
       <c r="C456" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D456" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E456" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F456" s="10" t="inlineStr">
@@ -34417,27 +34418,27 @@
       </c>
       <c r="G456" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H456" s="10" t="n">
-        <v>68.98</v>
+        <v>71.77</v>
       </c>
       <c r="I456" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J456" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="K456" s="10" t="n">
-        <v>72.429</v>
+        <v>527.5095</v>
       </c>
       <c r="L456" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M456" s="9" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>14:06:00</t>
         </is>
       </c>
       <c r="N456" s="10" t="inlineStr">
@@ -34446,73 +34447,73 @@
         </is>
       </c>
       <c r="O456" s="10" t="n">
-        <v>68.98</v>
+        <v>502.39</v>
       </c>
       <c r="P456" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q456" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="R456" s="10" t="n">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="S456" s="7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T456" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="11">
       <c r="B457" s="10" t="inlineStr">
         <is>
-          <t>186-79-9562</t>
+          <t>211-05-0490</t>
         </is>
       </c>
       <c r="C457" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D457" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E457" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F457" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G457" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H457" s="10" t="n">
-        <v>71.77</v>
+        <v>51.92</v>
       </c>
       <c r="I457" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J457" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="K457" s="10" t="n">
-        <v>527.5095</v>
+        <v>272.58</v>
       </c>
       <c r="L457" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M457" s="9" t="inlineStr">
         <is>
-          <t>14:06:00</t>
+          <t>13:42:00</t>
         </is>
       </c>
       <c r="N457" s="10" t="inlineStr">
@@ -34521,22 +34522,22 @@
         </is>
       </c>
       <c r="O457" s="10" t="n">
-        <v>502.39</v>
+        <v>259.6</v>
       </c>
       <c r="P457" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q457" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="R457" s="10" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="S457" s="7" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="T457" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="11">
@@ -35442,7 +35443,7 @@
     <row r="470" ht="12.75" customHeight="1" s="11">
       <c r="B470" s="10" t="inlineStr">
         <is>
-          <t>188-55-0967</t>
+          <t>433-75-6987</t>
         </is>
       </c>
       <c r="C470" s="10" t="inlineStr">
@@ -35452,7 +35453,7 @@
       </c>
       <c r="D470" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E470" s="10" t="inlineStr">
@@ -35462,7 +35463,7 @@
       </c>
       <c r="F470" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G470" s="10" t="inlineStr">
@@ -35471,53 +35472,53 @@
         </is>
       </c>
       <c r="H470" s="10" t="n">
-        <v>66.47</v>
+        <v>55.97</v>
       </c>
       <c r="I470" s="10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J470" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="K470" s="10" t="n">
-        <v>697.9349999999999</v>
+        <v>411.3795</v>
       </c>
       <c r="L470" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M470" s="9" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>19:06:00</t>
         </is>
       </c>
       <c r="N470" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O470" s="10" t="n">
-        <v>664.7</v>
+        <v>391.79</v>
       </c>
       <c r="P470" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q470" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="R470" s="10" t="n">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="S470" s="7" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="T470" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471" ht="12.75" customHeight="1" s="11">
       <c r="B471" s="10" t="inlineStr">
         <is>
-          <t>433-75-6987</t>
+          <t>188-55-0967</t>
         </is>
       </c>
       <c r="C471" s="10" t="inlineStr">
@@ -35527,7 +35528,7 @@
       </c>
       <c r="D471" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E471" s="10" t="inlineStr">
@@ -35537,7 +35538,7 @@
       </c>
       <c r="F471" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G471" s="10" t="inlineStr">
@@ -35546,53 +35547,53 @@
         </is>
       </c>
       <c r="H471" s="10" t="n">
-        <v>55.97</v>
+        <v>66.47</v>
       </c>
       <c r="I471" s="10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J471" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="K471" s="10" t="n">
-        <v>411.3795</v>
+        <v>697.9349999999999</v>
       </c>
       <c r="L471" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M471" s="9" t="inlineStr">
         <is>
-          <t>19:06:00</t>
+          <t>15:01:00</t>
         </is>
       </c>
       <c r="N471" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O471" s="10" t="n">
-        <v>391.79</v>
+        <v>664.7</v>
       </c>
       <c r="P471" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q471" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="R471" s="10" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="S471" s="7" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T471" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" ht="12.75" customHeight="1" s="11">
       <c r="B472" s="10" t="inlineStr">
         <is>
-          <t>124-31-1458</t>
+          <t>732-67-5346</t>
         </is>
       </c>
       <c r="C472" s="10" t="inlineStr">
@@ -35602,72 +35603,72 @@
       </c>
       <c r="D472" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E472" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F472" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G472" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H472" s="10" t="n">
-        <v>79.59</v>
+        <v>13.79</v>
       </c>
       <c r="I472" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J472" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="K472" s="10" t="n">
-        <v>250.7085</v>
+        <v>72.39749999999999</v>
       </c>
       <c r="L472" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M472" s="9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N472" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O472" s="10" t="n">
-        <v>238.77</v>
+        <v>68.95</v>
       </c>
       <c r="P472" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q472" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="R472" s="10" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="S472" s="7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T472" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="473" ht="12.75" customHeight="1" s="11">
       <c r="B473" s="10" t="inlineStr">
         <is>
-          <t>732-67-5346</t>
+          <t>124-31-1458</t>
         </is>
       </c>
       <c r="C473" s="10" t="inlineStr">
@@ -35677,66 +35678,66 @@
       </c>
       <c r="D473" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E473" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F473" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G473" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H473" s="10" t="n">
-        <v>13.79</v>
+        <v>79.59</v>
       </c>
       <c r="I473" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J473" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="K473" s="10" t="n">
-        <v>72.39749999999999</v>
+        <v>250.7085</v>
       </c>
       <c r="L473" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M473" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="N473" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O473" s="10" t="n">
-        <v>68.95</v>
+        <v>238.77</v>
       </c>
       <c r="P473" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q473" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="R473" s="10" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="S473" s="7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T473" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" ht="12.75" customHeight="1" s="11">
@@ -38067,7 +38068,7 @@
     <row r="505" ht="12.75" customHeight="1" s="11">
       <c r="B505" s="10" t="inlineStr">
         <is>
-          <t>459-45-2396</t>
+          <t>400-60-7251</t>
         </is>
       </c>
       <c r="C505" s="10" t="inlineStr">
@@ -38077,72 +38078,72 @@
       </c>
       <c r="D505" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E505" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F505" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G505" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H505" s="10" t="n">
-        <v>99.59999999999999</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="I505" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J505" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="K505" s="10" t="n">
-        <v>313.74</v>
+        <v>77.7735</v>
       </c>
       <c r="L505" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M505" s="9" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="N505" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O505" s="10" t="n">
-        <v>298.8</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="P505" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q505" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="R505" s="10" t="n">
-        <v>5.8</v>
+        <v>9.9</v>
       </c>
       <c r="S505" s="7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T505" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506" ht="12.75" customHeight="1" s="11">
       <c r="B506" s="10" t="inlineStr">
         <is>
-          <t>400-60-7251</t>
+          <t>459-45-2396</t>
         </is>
       </c>
       <c r="C506" s="10" t="inlineStr">
@@ -38152,66 +38153,66 @@
       </c>
       <c r="D506" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E506" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F506" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G506" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H506" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I506" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J506" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="K506" s="10" t="n">
-        <v>77.7735</v>
+        <v>313.74</v>
       </c>
       <c r="L506" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M506" s="9" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
       <c r="N506" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O506" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>298.8</v>
       </c>
       <c r="P506" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q506" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="R506" s="10" t="n">
-        <v>9.9</v>
+        <v>5.8</v>
       </c>
       <c r="S506" s="7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T506" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" ht="12.75" customHeight="1" s="11">
@@ -41442,92 +41443,92 @@
     <row r="550" ht="12.75" customHeight="1" s="11">
       <c r="B550" s="10" t="inlineStr">
         <is>
-          <t>339-18-7061</t>
+          <t>239-10-7476</t>
         </is>
       </c>
       <c r="C550" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D550" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E550" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F550" s="10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G550" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H550" s="10" t="n">
-        <v>92.98</v>
+        <v>77.95</v>
       </c>
       <c r="I550" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J550" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="K550" s="10" t="n">
-        <v>195.258</v>
+        <v>491.085</v>
       </c>
       <c r="L550" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M550" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>16:37:00</t>
         </is>
       </c>
       <c r="N550" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O550" s="10" t="n">
-        <v>185.96</v>
+        <v>467.7</v>
       </c>
       <c r="P550" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q550" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="R550" s="10" t="n">
         <v>8</v>
       </c>
       <c r="S550" s="7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="T550" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551" ht="12.75" customHeight="1" s="11">
       <c r="B551" s="10" t="inlineStr">
         <is>
-          <t>239-10-7476</t>
+          <t>372-62-5264</t>
         </is>
       </c>
       <c r="C551" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D551" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E551" s="10" t="inlineStr">
@@ -41542,57 +41543,57 @@
       </c>
       <c r="G551" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H551" s="10" t="n">
-        <v>77.95</v>
+        <v>52.6</v>
       </c>
       <c r="I551" s="10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J551" s="10" t="n">
-        <v>23.385</v>
+        <v>23.67</v>
       </c>
       <c r="K551" s="10" t="n">
-        <v>491.085</v>
+        <v>497.07</v>
       </c>
       <c r="L551" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M551" s="9" t="inlineStr">
         <is>
-          <t>16:37:00</t>
+          <t>14:42:00</t>
         </is>
       </c>
       <c r="N551" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O551" s="10" t="n">
-        <v>467.7</v>
+        <v>473.4</v>
       </c>
       <c r="P551" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q551" s="10" t="n">
-        <v>23.385</v>
+        <v>23.67</v>
       </c>
       <c r="R551" s="10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="S551" s="7" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="T551" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="552" ht="12.75" customHeight="1" s="11">
       <c r="B552" s="10" t="inlineStr">
         <is>
-          <t>372-62-5264</t>
+          <t>339-18-7061</t>
         </is>
       </c>
       <c r="C552" s="10" t="inlineStr">
@@ -41602,66 +41603,66 @@
       </c>
       <c r="D552" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E552" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F552" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G552" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H552" s="10" t="n">
-        <v>52.6</v>
+        <v>92.98</v>
       </c>
       <c r="I552" s="10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J552" s="10" t="n">
-        <v>23.67</v>
+        <v>9.298</v>
       </c>
       <c r="K552" s="10" t="n">
-        <v>497.07</v>
+        <v>195.258</v>
       </c>
       <c r="L552" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M552" s="9" t="inlineStr">
         <is>
-          <t>14:42:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N552" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O552" s="10" t="n">
-        <v>473.4</v>
+        <v>185.96</v>
       </c>
       <c r="P552" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q552" s="10" t="n">
-        <v>23.67</v>
+        <v>9.298</v>
       </c>
       <c r="R552" s="10" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="S552" s="7" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="T552" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" ht="12.75" customHeight="1" s="11">
@@ -42642,7 +42643,7 @@
     <row r="566" ht="12.75" customHeight="1" s="11">
       <c r="B566" s="10" t="inlineStr">
         <is>
-          <t>821-07-3596</t>
+          <t>885-56-0389</t>
         </is>
       </c>
       <c r="C566" s="10" t="inlineStr">
@@ -42652,17 +42653,17 @@
       </c>
       <c r="D566" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E566" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F566" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G566" s="10" t="inlineStr">
@@ -42671,58 +42672,58 @@
         </is>
       </c>
       <c r="H566" s="10" t="n">
-        <v>16.45</v>
+        <v>52.35</v>
       </c>
       <c r="I566" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J566" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="K566" s="10" t="n">
-        <v>69.09</v>
+        <v>54.9675</v>
       </c>
       <c r="L566" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M566" s="9" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>17:49:00</t>
         </is>
       </c>
       <c r="N566" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O566" s="10" t="n">
-        <v>65.8</v>
+        <v>52.35</v>
       </c>
       <c r="P566" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q566" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="R566" s="10" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="S566" s="7" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="T566" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="567" ht="12.75" customHeight="1" s="11">
       <c r="B567" s="10" t="inlineStr">
         <is>
-          <t>271-88-8734</t>
+          <t>554-53-3790</t>
         </is>
       </c>
       <c r="C567" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D567" s="7" t="inlineStr">
@@ -42732,72 +42733,72 @@
       </c>
       <c r="E567" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F567" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G567" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H567" s="10" t="n">
-        <v>97.20999999999999</v>
+        <v>37.02</v>
       </c>
       <c r="I567" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J567" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="K567" s="10" t="n">
-        <v>1020.705</v>
+        <v>233.226</v>
       </c>
       <c r="L567" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M567" s="9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>18:33:00</t>
         </is>
       </c>
       <c r="N567" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O567" s="10" t="n">
-        <v>972.1</v>
+        <v>222.12</v>
       </c>
       <c r="P567" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q567" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="R567" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="S567" s="7" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="T567" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568" ht="12.75" customHeight="1" s="11">
       <c r="B568" s="10" t="inlineStr">
         <is>
-          <t>554-53-3790</t>
+          <t>271-88-8734</t>
         </is>
       </c>
       <c r="C568" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D568" s="7" t="inlineStr">
@@ -42807,67 +42808,67 @@
       </c>
       <c r="E568" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F568" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G568" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H568" s="10" t="n">
-        <v>37.02</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="I568" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J568" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="K568" s="10" t="n">
-        <v>233.226</v>
+        <v>1020.705</v>
       </c>
       <c r="L568" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M568" s="9" t="inlineStr">
         <is>
-          <t>18:33:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="N568" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O568" s="10" t="n">
-        <v>222.12</v>
+        <v>972.1</v>
       </c>
       <c r="P568" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q568" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="R568" s="10" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S568" s="7" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="T568" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" ht="12.75" customHeight="1" s="11">
       <c r="B569" s="10" t="inlineStr">
         <is>
-          <t>885-56-0389</t>
+          <t>821-07-3596</t>
         </is>
       </c>
       <c r="C569" s="10" t="inlineStr">
@@ -42877,17 +42878,17 @@
       </c>
       <c r="D569" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E569" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F569" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G569" s="10" t="inlineStr">
@@ -42896,47 +42897,47 @@
         </is>
       </c>
       <c r="H569" s="10" t="n">
-        <v>52.35</v>
+        <v>16.45</v>
       </c>
       <c r="I569" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J569" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="K569" s="10" t="n">
-        <v>54.9675</v>
+        <v>69.09</v>
       </c>
       <c r="L569" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M569" s="9" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="N569" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O569" s="10" t="n">
-        <v>52.35</v>
+        <v>65.8</v>
       </c>
       <c r="P569" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q569" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="R569" s="10" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="S569" s="7" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T569" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="570" ht="12.75" customHeight="1" s="11">
@@ -43842,17 +43843,17 @@
     <row r="582" ht="12.75" customHeight="1" s="11">
       <c r="B582" s="10" t="inlineStr">
         <is>
-          <t>440-59-5691</t>
+          <t>190-59-3964</t>
         </is>
       </c>
       <c r="C582" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D582" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E582" s="10" t="inlineStr">
@@ -43862,32 +43863,32 @@
       </c>
       <c r="F582" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G582" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H582" s="10" t="n">
-        <v>37.15</v>
+        <v>47.16</v>
       </c>
       <c r="I582" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J582" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="K582" s="10" t="n">
-        <v>273.0525</v>
+        <v>247.59</v>
       </c>
       <c r="L582" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M582" s="9" t="inlineStr">
         <is>
-          <t>13:12:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N582" s="10" t="inlineStr">
@@ -43896,38 +43897,38 @@
         </is>
       </c>
       <c r="O582" s="10" t="n">
-        <v>260.05</v>
+        <v>235.8</v>
       </c>
       <c r="P582" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q582" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="R582" s="10" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="S582" s="7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T582" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583" ht="12.75" customHeight="1" s="11">
       <c r="B583" s="10" t="inlineStr">
         <is>
-          <t>190-59-3964</t>
+          <t>440-59-5691</t>
         </is>
       </c>
       <c r="C583" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D583" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E583" s="10" t="inlineStr">
@@ -43937,32 +43938,32 @@
       </c>
       <c r="F583" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G583" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H583" s="10" t="n">
-        <v>47.16</v>
+        <v>37.15</v>
       </c>
       <c r="I583" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J583" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="K583" s="10" t="n">
-        <v>247.59</v>
+        <v>273.0525</v>
       </c>
       <c r="L583" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M583" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>13:12:00</t>
         </is>
       </c>
       <c r="N583" s="10" t="inlineStr">
@@ -43971,22 +43972,22 @@
         </is>
       </c>
       <c r="O583" s="10" t="n">
-        <v>235.8</v>
+        <v>260.05</v>
       </c>
       <c r="P583" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q583" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="R583" s="10" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="S583" s="7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T583" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" ht="12.75" customHeight="1" s="11">
@@ -44967,151 +44968,151 @@
     <row r="597" ht="12.75" customHeight="1" s="11">
       <c r="B597" s="10" t="inlineStr">
         <is>
-          <t>765-26-6951</t>
+          <t>227-07-4446</t>
         </is>
       </c>
       <c r="C597" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D597" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E597" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F597" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G597" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H597" s="10" t="n">
-        <v>72.61</v>
+        <v>78.13</v>
       </c>
       <c r="I597" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J597" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="K597" s="10" t="n">
-        <v>457.443</v>
+        <v>820.365</v>
       </c>
       <c r="L597" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M597" s="9" t="inlineStr">
         <is>
-          <t>10:39:00</t>
+          <t>20:51:00</t>
         </is>
       </c>
       <c r="N597" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O597" s="10" t="n">
-        <v>435.66</v>
+        <v>781.3</v>
       </c>
       <c r="P597" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q597" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="R597" s="10" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="S597" s="7" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T597" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598" ht="12.75" customHeight="1" s="11">
       <c r="B598" s="10" t="inlineStr">
         <is>
-          <t>227-07-4446</t>
+          <t>765-26-6951</t>
         </is>
       </c>
       <c r="C598" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D598" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E598" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F598" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G598" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H598" s="10" t="n">
-        <v>78.13</v>
+        <v>72.61</v>
       </c>
       <c r="I598" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J598" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="K598" s="10" t="n">
-        <v>820.365</v>
+        <v>457.443</v>
       </c>
       <c r="L598" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M598" s="9" t="inlineStr">
         <is>
-          <t>20:51:00</t>
+          <t>10:39:00</t>
         </is>
       </c>
       <c r="N598" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O598" s="10" t="n">
-        <v>781.3</v>
+        <v>435.66</v>
       </c>
       <c r="P598" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q598" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="R598" s="10" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="S598" s="7" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T598" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" ht="12.75" customHeight="1" s="11">
@@ -45942,7 +45943,7 @@
     <row r="610" ht="12.75" customHeight="1" s="11">
       <c r="B610" s="10" t="inlineStr">
         <is>
-          <t>156-20-0370</t>
+          <t>692-27-8933</t>
         </is>
       </c>
       <c r="C610" s="10" t="inlineStr">
@@ -45952,7 +45953,7 @@
       </c>
       <c r="D610" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E610" s="10" t="inlineStr">
@@ -45967,57 +45968,57 @@
       </c>
       <c r="G610" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H610" s="10" t="n">
-        <v>25.45</v>
+        <v>57.95</v>
       </c>
       <c r="I610" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J610" s="10" t="n">
-        <v>1.2725</v>
+        <v>17.385</v>
       </c>
       <c r="K610" s="10" t="n">
-        <v>26.7225</v>
+        <v>365.085</v>
       </c>
       <c r="L610" s="13" t="n">
         <v>45304</v>
       </c>
       <c r="M610" s="9" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>13:02:00</t>
         </is>
       </c>
       <c r="N610" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O610" s="10" t="n">
-        <v>25.45</v>
+        <v>347.7</v>
       </c>
       <c r="P610" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q610" s="10" t="n">
-        <v>1.2725</v>
+        <v>17.385</v>
       </c>
       <c r="R610" s="10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="S610" s="7" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="T610" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="611" ht="12.75" customHeight="1" s="11">
       <c r="B611" s="10" t="inlineStr">
         <is>
-          <t>692-27-8933</t>
+          <t>156-20-0370</t>
         </is>
       </c>
       <c r="C611" s="10" t="inlineStr">
@@ -46027,7 +46028,7 @@
       </c>
       <c r="D611" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E611" s="10" t="inlineStr">
@@ -46042,51 +46043,51 @@
       </c>
       <c r="G611" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H611" s="10" t="n">
-        <v>57.95</v>
+        <v>25.45</v>
       </c>
       <c r="I611" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J611" s="10" t="n">
-        <v>17.385</v>
+        <v>1.2725</v>
       </c>
       <c r="K611" s="10" t="n">
-        <v>365.085</v>
+        <v>26.7225</v>
       </c>
       <c r="L611" s="13" t="n">
         <v>45304</v>
       </c>
       <c r="M611" s="9" t="inlineStr">
         <is>
-          <t>13:02:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="N611" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O611" s="10" t="n">
-        <v>347.7</v>
+        <v>25.45</v>
       </c>
       <c r="P611" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q611" s="10" t="n">
-        <v>17.385</v>
+        <v>1.2725</v>
       </c>
       <c r="R611" s="10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="S611" s="7" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="T611" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="612" ht="12.75" customHeight="1" s="11">
@@ -46167,22 +46168,22 @@
     <row r="613" ht="12.75" customHeight="1" s="11">
       <c r="B613" s="10" t="inlineStr">
         <is>
-          <t>556-86-3144</t>
+          <t>501-61-1753</t>
         </is>
       </c>
       <c r="C613" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D613" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E613" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F613" s="10" t="inlineStr">
@@ -46192,72 +46193,72 @@
       </c>
       <c r="G613" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H613" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>63.15</v>
       </c>
       <c r="I613" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J613" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="K613" s="10" t="n">
-        <v>78.00449999999999</v>
+        <v>397.845</v>
       </c>
       <c r="L613" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M613" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:24:00</t>
         </is>
       </c>
       <c r="N613" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O613" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>378.9</v>
       </c>
       <c r="P613" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q613" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="R613" s="10" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S613" s="7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T613" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614" ht="12.75" customHeight="1" s="11">
       <c r="B614" s="10" t="inlineStr">
         <is>
-          <t>501-61-1753</t>
+          <t>556-86-3144</t>
         </is>
       </c>
       <c r="C614" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D614" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E614" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F614" s="10" t="inlineStr">
@@ -46267,51 +46268,51 @@
       </c>
       <c r="G614" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H614" s="10" t="n">
-        <v>63.15</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="I614" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J614" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="K614" s="10" t="n">
-        <v>397.845</v>
+        <v>78.00449999999999</v>
       </c>
       <c r="L614" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M614" s="9" t="inlineStr">
         <is>
-          <t>20:24:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N614" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O614" s="10" t="n">
-        <v>378.9</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="P614" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q614" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="R614" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="S614" s="7" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="T614" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="615" ht="12.75" customHeight="1" s="11">
@@ -47142,17 +47143,17 @@
     <row r="626" ht="12.75" customHeight="1" s="11">
       <c r="B626" s="10" t="inlineStr">
         <is>
-          <t>137-63-5492</t>
+          <t>886-54-6089</t>
         </is>
       </c>
       <c r="C626" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D626" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E626" s="10" t="inlineStr">
@@ -47162,72 +47163,72 @@
       </c>
       <c r="F626" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G626" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H626" s="10" t="n">
-        <v>58.76</v>
+        <v>11.43</v>
       </c>
       <c r="I626" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J626" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="K626" s="10" t="n">
-        <v>616.98</v>
+        <v>72.009</v>
       </c>
       <c r="L626" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M626" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N626" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O626" s="10" t="n">
-        <v>587.6</v>
+        <v>68.58</v>
       </c>
       <c r="P626" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q626" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="R626" s="10" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="S626" s="7" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="T626" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="627" ht="12.75" customHeight="1" s="11">
       <c r="B627" s="10" t="inlineStr">
         <is>
-          <t>886-54-6089</t>
+          <t>137-63-5492</t>
         </is>
       </c>
       <c r="C627" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D627" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E627" s="10" t="inlineStr">
@@ -47237,62 +47238,62 @@
       </c>
       <c r="F627" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G627" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H627" s="10" t="n">
-        <v>11.43</v>
+        <v>58.76</v>
       </c>
       <c r="I627" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J627" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="K627" s="10" t="n">
-        <v>72.009</v>
+        <v>616.98</v>
       </c>
       <c r="L627" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M627" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N627" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O627" s="10" t="n">
-        <v>68.58</v>
+        <v>587.6</v>
       </c>
       <c r="P627" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q627" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="R627" s="10" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="S627" s="7" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="T627" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628" ht="12.75" customHeight="1" s="11">
       <c r="B628" s="10" t="inlineStr">
         <is>
-          <t>853-23-2453</t>
+          <t>608-05-3804</t>
         </is>
       </c>
       <c r="C628" s="10" t="inlineStr">
@@ -47302,7 +47303,7 @@
       </c>
       <c r="D628" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E628" s="10" t="inlineStr">
@@ -47317,27 +47318,27 @@
       </c>
       <c r="G628" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H628" s="10" t="n">
-        <v>75.73999999999999</v>
+        <v>39.75</v>
       </c>
       <c r="I628" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J628" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="K628" s="10" t="n">
-        <v>318.108</v>
+        <v>41.7375</v>
       </c>
       <c r="L628" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M628" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>20:19:00</t>
         </is>
       </c>
       <c r="N628" s="10" t="inlineStr">
@@ -47346,28 +47347,28 @@
         </is>
       </c>
       <c r="O628" s="10" t="n">
-        <v>302.96</v>
+        <v>39.75</v>
       </c>
       <c r="P628" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q628" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="R628" s="10" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="S628" s="7" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="T628" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="629" ht="12.75" customHeight="1" s="11">
       <c r="B629" s="10" t="inlineStr">
         <is>
-          <t>608-05-3804</t>
+          <t>214-30-2776</t>
         </is>
       </c>
       <c r="C629" s="10" t="inlineStr">
@@ -47377,7 +47378,7 @@
       </c>
       <c r="D629" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E629" s="10" t="inlineStr">
@@ -47387,7 +47388,7 @@
       </c>
       <c r="F629" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G629" s="10" t="inlineStr">
@@ -47396,53 +47397,53 @@
         </is>
       </c>
       <c r="H629" s="10" t="n">
-        <v>39.75</v>
+        <v>34.49</v>
       </c>
       <c r="I629" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J629" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="K629" s="10" t="n">
-        <v>41.7375</v>
+        <v>181.0725</v>
       </c>
       <c r="L629" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M629" s="9" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>19:44:00</t>
         </is>
       </c>
       <c r="N629" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O629" s="10" t="n">
-        <v>39.75</v>
+        <v>172.45</v>
       </c>
       <c r="P629" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q629" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="R629" s="10" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="S629" s="7" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="T629" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="630" ht="12.75" customHeight="1" s="11">
       <c r="B630" s="10" t="inlineStr">
         <is>
-          <t>214-30-2776</t>
+          <t>853-23-2453</t>
         </is>
       </c>
       <c r="C630" s="10" t="inlineStr">
@@ -47452,7 +47453,7 @@
       </c>
       <c r="D630" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E630" s="10" t="inlineStr">
@@ -47462,56 +47463,56 @@
       </c>
       <c r="F630" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G630" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H630" s="10" t="n">
-        <v>34.49</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="I630" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J630" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="K630" s="10" t="n">
-        <v>181.0725</v>
+        <v>318.108</v>
       </c>
       <c r="L630" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M630" s="9" t="inlineStr">
         <is>
-          <t>19:44:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N630" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O630" s="10" t="n">
-        <v>172.45</v>
+        <v>302.96</v>
       </c>
       <c r="P630" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q630" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="R630" s="10" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="S630" s="7" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T630" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631" ht="12.75" customHeight="1" s="11">
@@ -48417,7 +48418,7 @@
     <row r="643" ht="12.75" customHeight="1" s="11">
       <c r="B643" s="10" t="inlineStr">
         <is>
-          <t>286-01-5402</t>
+          <t>840-76-5966</t>
         </is>
       </c>
       <c r="C643" s="10" t="inlineStr">
@@ -48427,17 +48428,17 @@
       </c>
       <c r="D643" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E643" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F643" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G643" s="10" t="inlineStr">
@@ -48446,53 +48447,53 @@
         </is>
       </c>
       <c r="H643" s="10" t="n">
-        <v>40.23</v>
+        <v>12.76</v>
       </c>
       <c r="I643" s="10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J643" s="10" t="n">
-        <v>14.0805</v>
+        <v>1.276</v>
       </c>
       <c r="K643" s="10" t="n">
-        <v>295.6905</v>
+        <v>26.796</v>
       </c>
       <c r="L643" s="13" t="n">
         <v>45341</v>
       </c>
       <c r="M643" s="9" t="inlineStr">
         <is>
-          <t>13:22:00</t>
+          <t>18:06:00</t>
         </is>
       </c>
       <c r="N643" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O643" s="10" t="n">
-        <v>281.61</v>
+        <v>25.52</v>
       </c>
       <c r="P643" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q643" s="10" t="n">
-        <v>14.0805</v>
+        <v>1.276</v>
       </c>
       <c r="R643" s="10" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="S643" s="7" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T643" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="644" ht="12.75" customHeight="1" s="11">
       <c r="B644" s="10" t="inlineStr">
         <is>
-          <t>840-76-5966</t>
+          <t>372-94-8041</t>
         </is>
       </c>
       <c r="C644" s="10" t="inlineStr">
@@ -48502,12 +48503,12 @@
       </c>
       <c r="D644" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E644" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F644" s="10" t="inlineStr">
@@ -48517,27 +48518,27 @@
       </c>
       <c r="G644" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H644" s="10" t="n">
-        <v>12.76</v>
+        <v>15.26</v>
       </c>
       <c r="I644" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J644" s="10" t="n">
-        <v>1.276</v>
+        <v>4.578</v>
       </c>
       <c r="K644" s="10" t="n">
-        <v>26.796</v>
+        <v>96.13800000000001</v>
       </c>
       <c r="L644" s="13" t="n">
         <v>45341</v>
       </c>
       <c r="M644" s="9" t="inlineStr">
         <is>
-          <t>18:06:00</t>
+          <t>18:03:00</t>
         </is>
       </c>
       <c r="N644" s="10" t="inlineStr">
@@ -48546,19 +48547,19 @@
         </is>
       </c>
       <c r="O644" s="10" t="n">
-        <v>25.52</v>
+        <v>91.56</v>
       </c>
       <c r="P644" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q644" s="10" t="n">
-        <v>1.276</v>
+        <v>4.578</v>
       </c>
       <c r="R644" s="10" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S644" s="7" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T644" s="0" t="n">
         <v>18</v>
@@ -48567,7 +48568,7 @@
     <row r="645" ht="12.75" customHeight="1" s="11">
       <c r="B645" s="10" t="inlineStr">
         <is>
-          <t>372-94-8041</t>
+          <t>286-01-5402</t>
         </is>
       </c>
       <c r="C645" s="10" t="inlineStr">
@@ -48577,7 +48578,7 @@
       </c>
       <c r="D645" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E645" s="10" t="inlineStr">
@@ -48587,56 +48588,56 @@
       </c>
       <c r="F645" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G645" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H645" s="10" t="n">
-        <v>15.26</v>
+        <v>40.23</v>
       </c>
       <c r="I645" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J645" s="10" t="n">
-        <v>4.578</v>
+        <v>14.0805</v>
       </c>
       <c r="K645" s="10" t="n">
-        <v>96.13800000000001</v>
+        <v>295.6905</v>
       </c>
       <c r="L645" s="13" t="n">
         <v>45341</v>
       </c>
       <c r="M645" s="9" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>13:22:00</t>
         </is>
       </c>
       <c r="N645" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O645" s="10" t="n">
-        <v>91.56</v>
+        <v>281.61</v>
       </c>
       <c r="P645" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q645" s="10" t="n">
-        <v>4.578</v>
+        <v>14.0805</v>
       </c>
       <c r="R645" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S645" s="7" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="T645" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" ht="12.75" customHeight="1" s="11">
@@ -49692,22 +49693,22 @@
     <row r="660" ht="12.75" customHeight="1" s="11">
       <c r="B660" s="10" t="inlineStr">
         <is>
-          <t>198-66-9832</t>
+          <t>749-24-1565</t>
         </is>
       </c>
       <c r="C660" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D660" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E660" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F660" s="10" t="inlineStr">
@@ -49717,72 +49718,72 @@
       </c>
       <c r="G660" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H660" s="10" t="n">
-        <v>72.04000000000001</v>
+        <v>23.03</v>
       </c>
       <c r="I660" s="10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J660" s="10" t="n">
-        <v>7.204</v>
+        <v>10.3635</v>
       </c>
       <c r="K660" s="10" t="n">
-        <v>151.284</v>
+        <v>217.6335</v>
       </c>
       <c r="L660" s="13" t="n">
         <v>45372</v>
       </c>
       <c r="M660" s="9" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>12:02:00</t>
         </is>
       </c>
       <c r="N660" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O660" s="10" t="n">
-        <v>144.08</v>
+        <v>207.27</v>
       </c>
       <c r="P660" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q660" s="10" t="n">
-        <v>7.204</v>
+        <v>10.3635</v>
       </c>
       <c r="R660" s="10" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="S660" s="7" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T660" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="661" ht="12.75" customHeight="1" s="11">
       <c r="B661" s="10" t="inlineStr">
         <is>
-          <t>749-24-1565</t>
+          <t>198-66-9832</t>
         </is>
       </c>
       <c r="C661" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D661" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E661" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F661" s="10" t="inlineStr">
@@ -49792,51 +49793,51 @@
       </c>
       <c r="G661" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H661" s="10" t="n">
-        <v>23.03</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="I661" s="10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J661" s="10" t="n">
-        <v>10.3635</v>
+        <v>7.204</v>
       </c>
       <c r="K661" s="10" t="n">
-        <v>217.6335</v>
+        <v>151.284</v>
       </c>
       <c r="L661" s="13" t="n">
         <v>45372</v>
       </c>
       <c r="M661" s="9" t="inlineStr">
         <is>
-          <t>12:02:00</t>
+          <t>19:38:00</t>
         </is>
       </c>
       <c r="N661" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O661" s="10" t="n">
-        <v>207.27</v>
+        <v>144.08</v>
       </c>
       <c r="P661" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q661" s="10" t="n">
-        <v>10.3635</v>
+        <v>7.204</v>
       </c>
       <c r="R661" s="10" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="S661" s="7" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T661" s="0" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="662" ht="12.75" customHeight="1" s="11">
@@ -50742,7 +50743,7 @@
     <row r="674" ht="12.75" customHeight="1" s="11">
       <c r="B674" s="10" t="inlineStr">
         <is>
-          <t>569-76-2760</t>
+          <t>125-45-2293</t>
         </is>
       </c>
       <c r="C674" s="10" t="inlineStr">
@@ -50752,12 +50753,12 @@
       </c>
       <c r="D674" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E674" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F674" s="10" t="inlineStr">
@@ -50767,72 +50768,72 @@
       </c>
       <c r="G674" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H674" s="10" t="n">
-        <v>22.01</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I674" s="10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J674" s="10" t="n">
-        <v>4.402</v>
+        <v>29.73</v>
       </c>
       <c r="K674" s="10" t="n">
-        <v>92.44199999999999</v>
+        <v>624.33</v>
       </c>
       <c r="L674" s="13" t="n">
         <v>45388</v>
       </c>
       <c r="M674" s="9" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>13:11:00</t>
         </is>
       </c>
       <c r="N674" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O674" s="10" t="n">
-        <v>88.04000000000001</v>
+        <v>594.6</v>
       </c>
       <c r="P674" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q674" s="10" t="n">
-        <v>4.402</v>
+        <v>29.73</v>
       </c>
       <c r="R674" s="10" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="S674" s="7" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="T674" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="675" ht="12.75" customHeight="1" s="11">
       <c r="B675" s="10" t="inlineStr">
         <is>
-          <t>125-45-2293</t>
+          <t>608-04-3797</t>
         </is>
       </c>
       <c r="C675" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D675" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E675" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F675" s="10" t="inlineStr">
@@ -50842,67 +50843,67 @@
       </c>
       <c r="G675" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H675" s="10" t="n">
-        <v>99.09999999999999</v>
+        <v>25.32</v>
       </c>
       <c r="I675" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J675" s="10" t="n">
-        <v>29.73</v>
+        <v>10.128</v>
       </c>
       <c r="K675" s="10" t="n">
-        <v>624.33</v>
+        <v>212.688</v>
       </c>
       <c r="L675" s="13" t="n">
         <v>45388</v>
       </c>
       <c r="M675" s="9" t="inlineStr">
         <is>
-          <t>13:11:00</t>
+          <t>20:24:00</t>
         </is>
       </c>
       <c r="N675" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O675" s="10" t="n">
-        <v>594.6</v>
+        <v>202.56</v>
       </c>
       <c r="P675" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q675" s="10" t="n">
-        <v>29.73</v>
+        <v>10.128</v>
       </c>
       <c r="R675" s="10" t="n">
-        <v>4.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S675" s="7" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="T675" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="676" ht="12.75" customHeight="1" s="11">
       <c r="B676" s="10" t="inlineStr">
         <is>
-          <t>608-04-3797</t>
+          <t>569-76-2760</t>
         </is>
       </c>
       <c r="C676" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D676" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E676" s="10" t="inlineStr">
@@ -50917,51 +50918,51 @@
       </c>
       <c r="G676" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H676" s="10" t="n">
-        <v>25.32</v>
+        <v>22.01</v>
       </c>
       <c r="I676" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J676" s="10" t="n">
-        <v>10.128</v>
+        <v>4.402</v>
       </c>
       <c r="K676" s="10" t="n">
-        <v>212.688</v>
+        <v>92.44199999999999</v>
       </c>
       <c r="L676" s="13" t="n">
         <v>45388</v>
       </c>
       <c r="M676" s="9" t="inlineStr">
         <is>
-          <t>20:24:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="N676" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O676" s="10" t="n">
-        <v>202.56</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="P676" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q676" s="10" t="n">
-        <v>10.128</v>
+        <v>4.402</v>
       </c>
       <c r="R676" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="S676" s="7" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="T676" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="677" ht="12.75" customHeight="1" s="11">
@@ -53142,7 +53143,7 @@
     <row r="706" ht="12.75" customHeight="1" s="11">
       <c r="B706" s="10" t="inlineStr">
         <is>
-          <t>577-34-7579</t>
+          <t>704-20-4138</t>
         </is>
       </c>
       <c r="C706" s="10" t="inlineStr">
@@ -53162,62 +53163,62 @@
       </c>
       <c r="F706" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G706" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H706" s="10" t="n">
-        <v>50.49</v>
+        <v>29.67</v>
       </c>
       <c r="I706" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J706" s="10" t="n">
-        <v>22.7205</v>
+        <v>10.3845</v>
       </c>
       <c r="K706" s="10" t="n">
-        <v>477.1305</v>
+        <v>218.0745</v>
       </c>
       <c r="L706" s="13" t="n">
         <v>45431</v>
       </c>
       <c r="M706" s="9" t="inlineStr">
         <is>
-          <t>17:16:00</t>
+          <t>18:58:00</t>
         </is>
       </c>
       <c r="N706" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O706" s="10" t="n">
-        <v>454.41</v>
+        <v>207.69</v>
       </c>
       <c r="P706" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q706" s="10" t="n">
-        <v>22.7205</v>
+        <v>10.3845</v>
       </c>
       <c r="R706" s="10" t="n">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="S706" s="7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="T706" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="707" ht="12.75" customHeight="1" s="11">
       <c r="B707" s="10" t="inlineStr">
         <is>
-          <t>704-20-4138</t>
+          <t>577-34-7579</t>
         </is>
       </c>
       <c r="C707" s="10" t="inlineStr">
@@ -53237,56 +53238,56 @@
       </c>
       <c r="F707" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G707" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H707" s="10" t="n">
-        <v>29.67</v>
+        <v>50.49</v>
       </c>
       <c r="I707" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J707" s="10" t="n">
-        <v>10.3845</v>
+        <v>22.7205</v>
       </c>
       <c r="K707" s="10" t="n">
-        <v>218.0745</v>
+        <v>477.1305</v>
       </c>
       <c r="L707" s="13" t="n">
         <v>45431</v>
       </c>
       <c r="M707" s="9" t="inlineStr">
         <is>
-          <t>18:58:00</t>
+          <t>17:16:00</t>
         </is>
       </c>
       <c r="N707" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O707" s="10" t="n">
-        <v>207.69</v>
+        <v>454.41</v>
       </c>
       <c r="P707" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q707" s="10" t="n">
-        <v>10.3845</v>
+        <v>22.7205</v>
       </c>
       <c r="R707" s="10" t="n">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="S707" s="7" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="T707" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="708" ht="12.75" customHeight="1" s="11">
@@ -54192,7 +54193,7 @@
     <row r="720" ht="12.75" customHeight="1" s="11">
       <c r="B720" s="10" t="inlineStr">
         <is>
-          <t>677-11-0152</t>
+          <t>551-21-3069</t>
         </is>
       </c>
       <c r="C720" s="10" t="inlineStr">
@@ -54202,7 +54203,7 @@
       </c>
       <c r="D720" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E720" s="10" t="inlineStr">
@@ -54217,27 +54218,27 @@
       </c>
       <c r="G720" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H720" s="10" t="n">
-        <v>93.26000000000001</v>
+        <v>23.07</v>
       </c>
       <c r="I720" s="10" t="n">
         <v>9</v>
       </c>
       <c r="J720" s="10" t="n">
-        <v>41.967</v>
+        <v>10.3815</v>
       </c>
       <c r="K720" s="10" t="n">
-        <v>881.307</v>
+        <v>218.0115</v>
       </c>
       <c r="L720" s="13" t="n">
         <v>45444</v>
       </c>
       <c r="M720" s="9" t="inlineStr">
         <is>
-          <t>18:08:00</t>
+          <t>11:27:00</t>
         </is>
       </c>
       <c r="N720" s="10" t="inlineStr">
@@ -54246,28 +54247,28 @@
         </is>
       </c>
       <c r="O720" s="10" t="n">
-        <v>839.34</v>
+        <v>207.63</v>
       </c>
       <c r="P720" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q720" s="10" t="n">
-        <v>41.967</v>
+        <v>10.3815</v>
       </c>
       <c r="R720" s="10" t="n">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="S720" s="7" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="T720" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="721" ht="12.75" customHeight="1" s="11">
       <c r="B721" s="10" t="inlineStr">
         <is>
-          <t>551-21-3069</t>
+          <t>677-11-0152</t>
         </is>
       </c>
       <c r="C721" s="10" t="inlineStr">
@@ -54277,7 +54278,7 @@
       </c>
       <c r="D721" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E721" s="10" t="inlineStr">
@@ -54292,27 +54293,27 @@
       </c>
       <c r="G721" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H721" s="10" t="n">
-        <v>23.07</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="I721" s="10" t="n">
         <v>9</v>
       </c>
       <c r="J721" s="10" t="n">
-        <v>10.3815</v>
+        <v>41.967</v>
       </c>
       <c r="K721" s="10" t="n">
-        <v>218.0115</v>
+        <v>881.307</v>
       </c>
       <c r="L721" s="13" t="n">
         <v>45444</v>
       </c>
       <c r="M721" s="9" t="inlineStr">
         <is>
-          <t>11:27:00</t>
+          <t>18:08:00</t>
         </is>
       </c>
       <c r="N721" s="10" t="inlineStr">
@@ -54321,22 +54322,22 @@
         </is>
       </c>
       <c r="O721" s="10" t="n">
-        <v>207.63</v>
+        <v>839.34</v>
       </c>
       <c r="P721" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q721" s="10" t="n">
-        <v>10.3815</v>
+        <v>41.967</v>
       </c>
       <c r="R721" s="10" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S721" s="7" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="T721" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="722" ht="12.75" customHeight="1" s="11">
@@ -55542,7 +55543,7 @@
     <row r="738" ht="12.75" customHeight="1" s="11">
       <c r="B738" s="10" t="inlineStr">
         <is>
-          <t>645-44-1170</t>
+          <t>290-68-2984</t>
         </is>
       </c>
       <c r="C738" s="10" t="inlineStr">
@@ -55552,12 +55553,12 @@
       </c>
       <c r="D738" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E738" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F738" s="10" t="inlineStr">
@@ -55571,53 +55572,53 @@
         </is>
       </c>
       <c r="H738" s="10" t="n">
-        <v>58.07</v>
+        <v>23.75</v>
       </c>
       <c r="I738" s="10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J738" s="10" t="n">
-        <v>26.1315</v>
+        <v>4.75</v>
       </c>
       <c r="K738" s="10" t="n">
-        <v>548.7615</v>
+        <v>99.75</v>
       </c>
       <c r="L738" s="13" t="n">
         <v>45464</v>
       </c>
       <c r="M738" s="9" t="inlineStr">
         <is>
-          <t>20:07:00</t>
+          <t>11:22:00</t>
         </is>
       </c>
       <c r="N738" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O738" s="10" t="n">
-        <v>522.63</v>
+        <v>95</v>
       </c>
       <c r="P738" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q738" s="10" t="n">
-        <v>26.1315</v>
+        <v>4.75</v>
       </c>
       <c r="R738" s="10" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="S738" s="7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T738" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="739" ht="12.75" customHeight="1" s="11">
       <c r="B739" s="10" t="inlineStr">
         <is>
-          <t>290-68-2984</t>
+          <t>645-44-1170</t>
         </is>
       </c>
       <c r="C739" s="10" t="inlineStr">
@@ -55627,12 +55628,12 @@
       </c>
       <c r="D739" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E739" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F739" s="10" t="inlineStr">
@@ -55646,47 +55647,47 @@
         </is>
       </c>
       <c r="H739" s="10" t="n">
-        <v>23.75</v>
+        <v>58.07</v>
       </c>
       <c r="I739" s="10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J739" s="10" t="n">
-        <v>4.75</v>
+        <v>26.1315</v>
       </c>
       <c r="K739" s="10" t="n">
-        <v>99.75</v>
+        <v>548.7615</v>
       </c>
       <c r="L739" s="13" t="n">
         <v>45464</v>
       </c>
       <c r="M739" s="9" t="inlineStr">
         <is>
-          <t>11:22:00</t>
+          <t>20:07:00</t>
         </is>
       </c>
       <c r="N739" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O739" s="10" t="n">
-        <v>95</v>
+        <v>522.63</v>
       </c>
       <c r="P739" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q739" s="10" t="n">
-        <v>4.75</v>
+        <v>26.1315</v>
       </c>
       <c r="R739" s="10" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="S739" s="7" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="T739" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="740" ht="12.75" customHeight="1" s="11">
@@ -56817,17 +56818,17 @@
     <row r="755" ht="12.75" customHeight="1" s="11">
       <c r="B755" s="10" t="inlineStr">
         <is>
-          <t>345-08-4992</t>
+          <t>114-35-5271</t>
         </is>
       </c>
       <c r="C755" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D755" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E755" s="10" t="inlineStr">
@@ -56837,53 +56838,53 @@
       </c>
       <c r="F755" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G755" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H755" s="10" t="n">
-        <v>33.99</v>
+        <v>57.91</v>
       </c>
       <c r="I755" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J755" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="K755" s="10" t="n">
-        <v>214.137</v>
+        <v>486.444</v>
       </c>
       <c r="L755" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M755" s="9" t="inlineStr">
         <is>
-          <t>15:37:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N755" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O755" s="10" t="n">
-        <v>203.94</v>
+        <v>463.28</v>
       </c>
       <c r="P755" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q755" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="R755" s="10" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="S755" s="7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T755" s="0" t="n">
         <v>15</v>
@@ -56892,17 +56893,17 @@
     <row r="756" ht="12.75" customHeight="1" s="11">
       <c r="B756" s="10" t="inlineStr">
         <is>
-          <t>114-35-5271</t>
+          <t>345-08-4992</t>
         </is>
       </c>
       <c r="C756" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D756" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E756" s="10" t="inlineStr">
@@ -56912,53 +56913,53 @@
       </c>
       <c r="F756" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G756" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H756" s="10" t="n">
-        <v>57.91</v>
+        <v>33.99</v>
       </c>
       <c r="I756" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J756" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="K756" s="10" t="n">
-        <v>486.444</v>
+        <v>214.137</v>
       </c>
       <c r="L756" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M756" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:37:00</t>
         </is>
       </c>
       <c r="N756" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O756" s="10" t="n">
-        <v>463.28</v>
+        <v>203.94</v>
       </c>
       <c r="P756" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q756" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="R756" s="10" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="S756" s="7" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T756" s="0" t="n">
         <v>15</v>
@@ -58092,17 +58093,17 @@
     <row r="772" ht="12.75" customHeight="1" s="11">
       <c r="B772" s="10" t="inlineStr">
         <is>
-          <t>105-10-6182</t>
+          <t>401-09-4232</t>
         </is>
       </c>
       <c r="C772" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D772" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E772" s="10" t="inlineStr">
@@ -58117,27 +58118,27 @@
       </c>
       <c r="G772" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H772" s="10" t="n">
-        <v>21.48</v>
+        <v>86.69</v>
       </c>
       <c r="I772" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J772" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="K772" s="10" t="n">
-        <v>45.108</v>
+        <v>455.1225</v>
       </c>
       <c r="L772" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M772" s="9" t="inlineStr">
         <is>
-          <t>12:22:00</t>
+          <t>18:38:00</t>
         </is>
       </c>
       <c r="N772" s="10" t="inlineStr">
@@ -58146,38 +58147,38 @@
         </is>
       </c>
       <c r="O772" s="10" t="n">
-        <v>42.96</v>
+        <v>433.45</v>
       </c>
       <c r="P772" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q772" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="R772" s="10" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="S772" s="7" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="T772" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="773" ht="12.75" customHeight="1" s="11">
       <c r="B773" s="10" t="inlineStr">
         <is>
-          <t>401-09-4232</t>
+          <t>105-10-6182</t>
         </is>
       </c>
       <c r="C773" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D773" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E773" s="10" t="inlineStr">
@@ -58192,27 +58193,27 @@
       </c>
       <c r="G773" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H773" s="10" t="n">
-        <v>86.69</v>
+        <v>21.48</v>
       </c>
       <c r="I773" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J773" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="K773" s="10" t="n">
-        <v>455.1225</v>
+        <v>45.108</v>
       </c>
       <c r="L773" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M773" s="9" t="inlineStr">
         <is>
-          <t>18:38:00</t>
+          <t>12:22:00</t>
         </is>
       </c>
       <c r="N773" s="10" t="inlineStr">
@@ -58221,22 +58222,22 @@
         </is>
       </c>
       <c r="O773" s="10" t="n">
-        <v>433.45</v>
+        <v>42.96</v>
       </c>
       <c r="P773" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q773" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="R773" s="10" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="S773" s="7" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="T773" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="774" ht="12.75" customHeight="1" s="11">
@@ -59217,92 +59218,92 @@
     <row r="787" ht="12.75" customHeight="1" s="11">
       <c r="B787" s="10" t="inlineStr">
         <is>
-          <t>366-93-0948</t>
+          <t>560-30-5617</t>
         </is>
       </c>
       <c r="C787" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D787" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E787" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F787" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G787" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H787" s="10" t="n">
-        <v>66.34999999999999</v>
+        <v>24.77</v>
       </c>
       <c r="I787" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J787" s="10" t="n">
-        <v>3.3175</v>
+        <v>6.1925</v>
       </c>
       <c r="K787" s="10" t="n">
-        <v>69.6675</v>
+        <v>130.0425</v>
       </c>
       <c r="L787" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M787" s="9" t="inlineStr">
         <is>
-          <t>10:46:00</t>
+          <t>18:27:00</t>
         </is>
       </c>
       <c r="N787" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O787" s="10" t="n">
-        <v>66.34999999999999</v>
+        <v>123.85</v>
       </c>
       <c r="P787" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q787" s="10" t="n">
-        <v>3.3175</v>
+        <v>6.1925</v>
       </c>
       <c r="R787" s="10" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S787" s="7" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="T787" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="788" ht="12.75" customHeight="1" s="11">
       <c r="B788" s="10" t="inlineStr">
         <is>
-          <t>869-11-3082</t>
+          <t>366-93-0948</t>
         </is>
       </c>
       <c r="C788" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D788" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E788" s="10" t="inlineStr">
@@ -59317,27 +59318,27 @@
       </c>
       <c r="G788" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H788" s="10" t="n">
-        <v>96.16</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="I788" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J788" s="10" t="n">
-        <v>19.232</v>
+        <v>3.3175</v>
       </c>
       <c r="K788" s="10" t="n">
-        <v>403.872</v>
+        <v>69.6675</v>
       </c>
       <c r="L788" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M788" s="9" t="inlineStr">
         <is>
-          <t>20:03:00</t>
+          <t>10:46:00</t>
         </is>
       </c>
       <c r="N788" s="10" t="inlineStr">
@@ -59346,28 +59347,28 @@
         </is>
       </c>
       <c r="O788" s="10" t="n">
-        <v>384.64</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="P788" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q788" s="10" t="n">
-        <v>19.232</v>
+        <v>3.3175</v>
       </c>
       <c r="R788" s="10" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S788" s="7" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T788" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="789" ht="12.75" customHeight="1" s="11">
       <c r="B789" s="10" t="inlineStr">
         <is>
-          <t>560-30-5617</t>
+          <t>869-11-3082</t>
         </is>
       </c>
       <c r="C789" s="10" t="inlineStr">
@@ -59377,66 +59378,66 @@
       </c>
       <c r="D789" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E789" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F789" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G789" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H789" s="10" t="n">
-        <v>24.77</v>
+        <v>96.16</v>
       </c>
       <c r="I789" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J789" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="K789" s="10" t="n">
-        <v>130.0425</v>
+        <v>403.872</v>
       </c>
       <c r="L789" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M789" s="9" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>20:03:00</t>
         </is>
       </c>
       <c r="N789" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O789" s="10" t="n">
-        <v>123.85</v>
+        <v>384.64</v>
       </c>
       <c r="P789" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q789" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="R789" s="10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S789" s="7" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="T789" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="790" ht="12.75" customHeight="1" s="11">
@@ -60342,17 +60343,17 @@
     <row r="802" ht="12.75" customHeight="1" s="11">
       <c r="B802" s="10" t="inlineStr">
         <is>
-          <t>696-90-2548</t>
+          <t>714-02-3114</t>
         </is>
       </c>
       <c r="C802" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D802" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E802" s="10" t="inlineStr">
@@ -60362,7 +60363,7 @@
       </c>
       <c r="F802" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G802" s="10" t="inlineStr">
@@ -60371,63 +60372,63 @@
         </is>
       </c>
       <c r="H802" s="10" t="n">
-        <v>25.84</v>
+        <v>98.8</v>
       </c>
       <c r="I802" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J802" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K802" s="10" t="n">
-        <v>81.396</v>
+        <v>207.48</v>
       </c>
       <c r="L802" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M802" s="9" t="inlineStr">
         <is>
-          <t>18:55:00</t>
+          <t>11:39:00</t>
         </is>
       </c>
       <c r="N802" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O802" s="10" t="n">
-        <v>77.52</v>
+        <v>197.6</v>
       </c>
       <c r="P802" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q802" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="R802" s="10" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="S802" s="7" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T802" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" ht="12.75" customHeight="1" s="11">
       <c r="B803" s="10" t="inlineStr">
         <is>
-          <t>714-02-3114</t>
+          <t>696-90-2548</t>
         </is>
       </c>
       <c r="C803" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D803" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E803" s="10" t="inlineStr">
@@ -60437,7 +60438,7 @@
       </c>
       <c r="F803" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G803" s="10" t="inlineStr">
@@ -60446,47 +60447,47 @@
         </is>
       </c>
       <c r="H803" s="10" t="n">
-        <v>98.8</v>
+        <v>25.84</v>
       </c>
       <c r="I803" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J803" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="K803" s="10" t="n">
-        <v>207.48</v>
+        <v>81.396</v>
       </c>
       <c r="L803" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M803" s="9" t="inlineStr">
         <is>
-          <t>11:39:00</t>
+          <t>18:55:00</t>
         </is>
       </c>
       <c r="N803" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O803" s="10" t="n">
-        <v>197.6</v>
+        <v>77.52</v>
       </c>
       <c r="P803" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q803" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="R803" s="10" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="S803" s="7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T803" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="804" ht="12.75" customHeight="1" s="11">
@@ -64992,7 +64993,7 @@
     <row r="864" ht="12.75" customHeight="1" s="11">
       <c r="B864" s="10" t="inlineStr">
         <is>
-          <t>276-54-0879</t>
+          <t>284-34-9626</t>
         </is>
       </c>
       <c r="C864" s="10" t="inlineStr">
@@ -65002,7 +65003,7 @@
       </c>
       <c r="D864" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E864" s="10" t="inlineStr">
@@ -65012,62 +65013,62 @@
       </c>
       <c r="F864" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G864" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H864" s="10" t="n">
-        <v>97.73999999999999</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="I864" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J864" s="10" t="n">
-        <v>19.548</v>
+        <v>11.556</v>
       </c>
       <c r="K864" s="10" t="n">
-        <v>410.508</v>
+        <v>242.676</v>
       </c>
       <c r="L864" s="13" t="n">
         <v>45602</v>
       </c>
       <c r="M864" s="9" t="inlineStr">
         <is>
-          <t>19:53:00</t>
+          <t>10:39:00</t>
         </is>
       </c>
       <c r="N864" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O864" s="10" t="n">
-        <v>390.96</v>
+        <v>231.12</v>
       </c>
       <c r="P864" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q864" s="10" t="n">
-        <v>19.548</v>
+        <v>11.556</v>
       </c>
       <c r="R864" s="10" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="S864" s="7" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="T864" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865" ht="12.75" customHeight="1" s="11">
       <c r="B865" s="10" t="inlineStr">
         <is>
-          <t>284-34-9626</t>
+          <t>276-54-0879</t>
         </is>
       </c>
       <c r="C865" s="10" t="inlineStr">
@@ -65077,7 +65078,7 @@
       </c>
       <c r="D865" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E865" s="10" t="inlineStr">
@@ -65087,56 +65088,56 @@
       </c>
       <c r="F865" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G865" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H865" s="10" t="n">
-        <v>77.04000000000001</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="I865" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J865" s="10" t="n">
-        <v>11.556</v>
+        <v>19.548</v>
       </c>
       <c r="K865" s="10" t="n">
-        <v>242.676</v>
+        <v>410.508</v>
       </c>
       <c r="L865" s="13" t="n">
         <v>45602</v>
       </c>
       <c r="M865" s="9" t="inlineStr">
         <is>
-          <t>10:39:00</t>
+          <t>19:53:00</t>
         </is>
       </c>
       <c r="N865" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O865" s="10" t="n">
-        <v>231.12</v>
+        <v>390.96</v>
       </c>
       <c r="P865" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q865" s="10" t="n">
-        <v>11.556</v>
+        <v>19.548</v>
       </c>
       <c r="R865" s="10" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="S865" s="7" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="T865" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="866" ht="12.75" customHeight="1" s="11">
@@ -66192,22 +66193,22 @@
     <row r="880" ht="12.75" customHeight="1" s="11">
       <c r="B880" s="10" t="inlineStr">
         <is>
-          <t>135-13-8269</t>
+          <t>633-91-1052</t>
         </is>
       </c>
       <c r="C880" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D880" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E880" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F880" s="10" t="inlineStr">
@@ -66217,27 +66218,27 @@
       </c>
       <c r="G880" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H880" s="10" t="n">
-        <v>78.88</v>
+        <v>12.03</v>
       </c>
       <c r="I880" s="10" t="n">
         <v>2</v>
       </c>
       <c r="J880" s="10" t="n">
-        <v>7.888</v>
+        <v>1.203</v>
       </c>
       <c r="K880" s="10" t="n">
-        <v>165.648</v>
+        <v>25.263</v>
       </c>
       <c r="L880" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M880" s="9" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>15:51:00</t>
         </is>
       </c>
       <c r="N880" s="10" t="inlineStr">
@@ -66246,38 +66247,38 @@
         </is>
       </c>
       <c r="O880" s="10" t="n">
-        <v>157.76</v>
+        <v>24.06</v>
       </c>
       <c r="P880" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q880" s="10" t="n">
-        <v>7.888</v>
+        <v>1.203</v>
       </c>
       <c r="R880" s="10" t="n">
-        <v>9.1</v>
+        <v>5.1</v>
       </c>
       <c r="S880" s="7" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T880" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="881" ht="12.75" customHeight="1" s="11">
       <c r="B881" s="10" t="inlineStr">
         <is>
-          <t>807-14-7833</t>
+          <t>135-13-8269</t>
         </is>
       </c>
       <c r="C881" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D881" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E881" s="10" t="inlineStr">
@@ -66292,57 +66293,57 @@
       </c>
       <c r="G881" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H881" s="10" t="n">
-        <v>17.42</v>
+        <v>78.88</v>
       </c>
       <c r="I881" s="10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J881" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="K881" s="10" t="n">
-        <v>182.91</v>
+        <v>165.648</v>
       </c>
       <c r="L881" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M881" s="9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:04:00</t>
         </is>
       </c>
       <c r="N881" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O881" s="10" t="n">
-        <v>174.2</v>
+        <v>157.76</v>
       </c>
       <c r="P881" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q881" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>7.888</v>
       </c>
       <c r="R881" s="10" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="S881" s="7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T881" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="882" ht="12.75" customHeight="1" s="11">
       <c r="B882" s="10" t="inlineStr">
         <is>
-          <t>633-91-1052</t>
+          <t>807-14-7833</t>
         </is>
       </c>
       <c r="C882" s="10" t="inlineStr">
@@ -66352,12 +66353,12 @@
       </c>
       <c r="D882" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E882" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F882" s="10" t="inlineStr">
@@ -66367,51 +66368,51 @@
       </c>
       <c r="G882" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H882" s="10" t="n">
-        <v>12.03</v>
+        <v>17.42</v>
       </c>
       <c r="I882" s="10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J882" s="10" t="n">
-        <v>1.203</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K882" s="10" t="n">
-        <v>25.263</v>
+        <v>182.91</v>
       </c>
       <c r="L882" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M882" s="9" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="N882" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O882" s="10" t="n">
-        <v>24.06</v>
+        <v>174.2</v>
       </c>
       <c r="P882" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q882" s="10" t="n">
-        <v>1.203</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="R882" s="10" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="S882" s="7" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="T882" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="883" ht="12.75" customHeight="1" s="11">
@@ -69642,52 +69643,52 @@
     <row r="926" ht="12.75" customHeight="1" s="11">
       <c r="B926" s="10" t="inlineStr">
         <is>
-          <t>856-66-2701</t>
+          <t>374-38-5555</t>
         </is>
       </c>
       <c r="C926" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D926" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E926" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F926" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G926" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H926" s="10" t="n">
-        <v>53.3</v>
+        <v>63.71</v>
       </c>
       <c r="I926" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J926" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="K926" s="10" t="n">
-        <v>167.895</v>
+        <v>334.4775</v>
       </c>
       <c r="L926" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M926" s="9" t="inlineStr">
         <is>
-          <t>14:19:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N926" s="10" t="inlineStr">
@@ -69696,73 +69697,73 @@
         </is>
       </c>
       <c r="O926" s="10" t="n">
-        <v>159.9</v>
+        <v>318.55</v>
       </c>
       <c r="P926" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q926" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="R926" s="10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="S926" s="7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T926" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="927" ht="12.75" customHeight="1" s="11">
       <c r="B927" s="10" t="inlineStr">
         <is>
-          <t>374-38-5555</t>
+          <t>856-66-2701</t>
         </is>
       </c>
       <c r="C927" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D927" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E927" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F927" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G927" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H927" s="10" t="n">
-        <v>63.71</v>
+        <v>53.3</v>
       </c>
       <c r="I927" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J927" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="K927" s="10" t="n">
-        <v>334.4775</v>
+        <v>167.895</v>
       </c>
       <c r="L927" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M927" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:19:00</t>
         </is>
       </c>
       <c r="N927" s="10" t="inlineStr">
@@ -69771,22 +69772,22 @@
         </is>
       </c>
       <c r="O927" s="10" t="n">
-        <v>318.55</v>
+        <v>159.9</v>
       </c>
       <c r="P927" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q927" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="R927" s="10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S927" s="7" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T927" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="928" ht="12.75" customHeight="1" s="11">
@@ -72042,7 +72043,7 @@
     <row r="958" ht="12.75" customHeight="1" s="11">
       <c r="B958" s="10" t="inlineStr">
         <is>
-          <t>291-21-5991</t>
+          <t>347-72-6115</t>
         </is>
       </c>
       <c r="C958" s="10" t="inlineStr">
@@ -72052,7 +72053,7 @@
       </c>
       <c r="D958" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E958" s="10" t="inlineStr">
@@ -72062,107 +72063,107 @@
       </c>
       <c r="F958" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G958" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H958" s="10" t="n">
-        <v>61.29</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="I958" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J958" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="K958" s="10" t="n">
-        <v>321.7725</v>
+        <v>666.939</v>
       </c>
       <c r="L958" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M958" s="9" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>18:03:00</t>
         </is>
       </c>
       <c r="N958" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O958" s="10" t="n">
-        <v>306.45</v>
+        <v>635.1799999999999</v>
       </c>
       <c r="P958" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q958" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="R958" s="10" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="S958" s="7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="T958" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="959" ht="12.75" customHeight="1" s="11">
       <c r="B959" s="10" t="inlineStr">
         <is>
-          <t>605-72-4132</t>
+          <t>291-21-5991</t>
         </is>
       </c>
       <c r="C959" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D959" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E959" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F959" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G959" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H959" s="10" t="n">
-        <v>94.47</v>
+        <v>61.29</v>
       </c>
       <c r="I959" s="10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J959" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="K959" s="10" t="n">
-        <v>793.548</v>
+        <v>321.7725</v>
       </c>
       <c r="L959" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M959" s="9" t="inlineStr">
         <is>
-          <t>15:12:00</t>
+          <t>14:28:00</t>
         </is>
       </c>
       <c r="N959" s="10" t="inlineStr">
@@ -72171,43 +72172,43 @@
         </is>
       </c>
       <c r="O959" s="10" t="n">
-        <v>755.76</v>
+        <v>306.45</v>
       </c>
       <c r="P959" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q959" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="R959" s="10" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="S959" s="7" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="T959" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="960" ht="12.75" customHeight="1" s="11">
       <c r="B960" s="10" t="inlineStr">
         <is>
-          <t>347-72-6115</t>
+          <t>605-72-4132</t>
         </is>
       </c>
       <c r="C960" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D960" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E960" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F960" s="10" t="inlineStr">
@@ -72217,51 +72218,51 @@
       </c>
       <c r="G960" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H960" s="10" t="n">
-        <v>90.73999999999999</v>
+        <v>94.47</v>
       </c>
       <c r="I960" s="10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J960" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="K960" s="10" t="n">
-        <v>666.939</v>
+        <v>793.548</v>
       </c>
       <c r="L960" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M960" s="9" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>15:12:00</t>
         </is>
       </c>
       <c r="N960" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O960" s="10" t="n">
-        <v>635.1799999999999</v>
+        <v>755.76</v>
       </c>
       <c r="P960" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q960" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="R960" s="10" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="S960" s="7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T960" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="961" ht="12.75" customHeight="1" s="11">
@@ -72867,17 +72868,17 @@
     <row r="969" ht="12.75" customHeight="1" s="11">
       <c r="B969" s="10" t="inlineStr">
         <is>
-          <t>542-41-0513</t>
+          <t>735-32-9839</t>
         </is>
       </c>
       <c r="C969" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D969" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E969" s="10" t="inlineStr">
@@ -72887,72 +72888,72 @@
       </c>
       <c r="F969" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G969" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H969" s="10" t="n">
-        <v>57.49</v>
+        <v>98.7</v>
       </c>
       <c r="I969" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J969" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="K969" s="10" t="n">
-        <v>241.458</v>
+        <v>829.08</v>
       </c>
       <c r="L969" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M969" s="9" t="inlineStr">
         <is>
-          <t>11:57:00</t>
+          <t>10:36:00</t>
         </is>
       </c>
       <c r="N969" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O969" s="10" t="n">
-        <v>229.96</v>
+        <v>789.6</v>
       </c>
       <c r="P969" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q969" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="R969" s="10" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="S969" s="7" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="T969" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="970" ht="12.75" customHeight="1" s="11">
       <c r="B970" s="10" t="inlineStr">
         <is>
-          <t>526-86-8552</t>
+          <t>542-41-0513</t>
         </is>
       </c>
       <c r="C970" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D970" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E970" s="10" t="inlineStr">
@@ -72967,27 +72968,27 @@
       </c>
       <c r="G970" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H970" s="10" t="n">
-        <v>21.82</v>
+        <v>57.49</v>
       </c>
       <c r="I970" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J970" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="K970" s="10" t="n">
-        <v>229.11</v>
+        <v>241.458</v>
       </c>
       <c r="L970" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M970" s="9" t="inlineStr">
         <is>
-          <t>17:36:00</t>
+          <t>11:57:00</t>
         </is>
       </c>
       <c r="N970" s="10" t="inlineStr">
@@ -72996,28 +72997,28 @@
         </is>
       </c>
       <c r="O970" s="10" t="n">
-        <v>218.2</v>
+        <v>229.96</v>
       </c>
       <c r="P970" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q970" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="R970" s="10" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="S970" s="7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="T970" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="971" ht="12.75" customHeight="1" s="11">
       <c r="B971" s="10" t="inlineStr">
         <is>
-          <t>735-32-9839</t>
+          <t>526-86-8552</t>
         </is>
       </c>
       <c r="C971" s="10" t="inlineStr">
@@ -73037,56 +73038,56 @@
       </c>
       <c r="F971" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G971" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H971" s="10" t="n">
-        <v>98.7</v>
+        <v>21.82</v>
       </c>
       <c r="I971" s="10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J971" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="K971" s="10" t="n">
-        <v>829.08</v>
+        <v>229.11</v>
       </c>
       <c r="L971" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M971" s="9" t="inlineStr">
         <is>
-          <t>10:36:00</t>
+          <t>17:36:00</t>
         </is>
       </c>
       <c r="N971" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O971" s="10" t="n">
-        <v>789.6</v>
+        <v>218.2</v>
       </c>
       <c r="P971" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q971" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="R971" s="10" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="S971" s="7" t="n">
         <v>35</v>
       </c>
       <c r="T971" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="972" ht="12.75" customHeight="1" s="11">
@@ -75562,6 +75563,231 @@
       </c>
       <c r="T1004" s="0" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="B1005" s="0" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C1005" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1005" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1005" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1005" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1005" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1005" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="I1005" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1005" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1005" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="L1005" s="14" t="n">
+        <v>45801</v>
+      </c>
+      <c r="M1005" s="0" t="inlineStr">
+        <is>
+          <t>19:05:00</t>
+        </is>
+      </c>
+      <c r="N1005" s="0" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1005" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="P1005" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1005" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="R1005" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S1005" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="T1005" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="B1006" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C1006" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1006" s="0" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1006" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1006" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1006" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1006" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I1006" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1006" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K1006" s="0" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="L1006" s="14" t="n">
+        <v>45801</v>
+      </c>
+      <c r="M1006" s="0" t="inlineStr">
+        <is>
+          <t>15:04:00</t>
+        </is>
+      </c>
+      <c r="N1006" s="0" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1006" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="P1006" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1006" s="0" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="R1006" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S1006" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="T1006" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="B1007" s="0" t="inlineStr">
+        <is>
+          <t>333-33-33</t>
+        </is>
+      </c>
+      <c r="C1007" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1007" s="0" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="E1007" s="0" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1007" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G1007" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1007" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="I1007" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1007" s="0" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="K1007" s="0" t="n">
+        <v>3701.25</v>
+      </c>
+      <c r="L1007" s="14" t="n">
+        <v>45801</v>
+      </c>
+      <c r="M1007" s="0" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="N1007" s="0" t="inlineStr">
+        <is>
+          <t>Ewallet</t>
+        </is>
+      </c>
+      <c r="O1007" s="0" t="n">
+        <v>3525</v>
+      </c>
+      <c r="P1007" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1007" s="0" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="R1007" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S1007" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="T1007" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T1007"/>
+  <dimension ref="B2:T1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,7 +4018,7 @@
     <row r="51" ht="12.75" customHeight="1" s="11">
       <c r="B51" s="10" t="inlineStr">
         <is>
-          <t>801-88-0346</t>
+          <t>867-47-1948</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr">
@@ -4043,57 +4043,57 @@
       </c>
       <c r="G51" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H51" s="10" t="n">
-        <v>76.06</v>
+        <v>15.8</v>
       </c>
       <c r="I51" s="10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J51" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="K51" s="10" t="n">
-        <v>239.589</v>
+        <v>165.9</v>
       </c>
       <c r="L51" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M51" s="9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:07:00</t>
         </is>
       </c>
       <c r="N51" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O51" s="10" t="n">
-        <v>228.18</v>
+        <v>158</v>
       </c>
       <c r="P51" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q51" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="R51" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="S51" s="7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1" s="11">
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>318-81-2368</t>
+          <t>801-88-0346</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E52" s="10" t="inlineStr">
@@ -4118,57 +4118,57 @@
       </c>
       <c r="G52" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H52" s="10" t="n">
-        <v>46.2</v>
+        <v>76.06</v>
       </c>
       <c r="I52" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="K52" s="10" t="n">
-        <v>48.51</v>
+        <v>239.589</v>
       </c>
       <c r="L52" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M52" s="9" t="inlineStr">
         <is>
-          <t>12:16:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="N52" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O52" s="10" t="n">
-        <v>46.2</v>
+        <v>228.18</v>
       </c>
       <c r="P52" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q52" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="R52" s="10" t="n">
-        <v>6.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S52" s="7" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1" s="11">
       <c r="B53" s="10" t="inlineStr">
         <is>
-          <t>867-47-1948</t>
+          <t>318-81-2368</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E53" s="10" t="inlineStr">
@@ -4193,27 +4193,27 @@
       </c>
       <c r="G53" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H53" s="10" t="n">
-        <v>15.8</v>
+        <v>46.2</v>
       </c>
       <c r="I53" s="10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J53" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="K53" s="10" t="n">
-        <v>165.9</v>
+        <v>48.51</v>
       </c>
       <c r="L53" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M53" s="9" t="inlineStr">
         <is>
-          <t>12:07:00</t>
+          <t>12:16:00</t>
         </is>
       </c>
       <c r="N53" s="10" t="inlineStr">
@@ -4222,19 +4222,19 @@
         </is>
       </c>
       <c r="O53" s="10" t="n">
-        <v>158</v>
+        <v>46.2</v>
       </c>
       <c r="P53" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q53" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="R53" s="10" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="S53" s="7" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>12</v>
@@ -5143,22 +5143,22 @@
     <row r="66" ht="12.75" customHeight="1" s="11">
       <c r="B66" s="10" t="inlineStr">
         <is>
-          <t>132-23-6451</t>
+          <t>471-41-2823</t>
         </is>
       </c>
       <c r="C66" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D66" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F66" s="10" t="inlineStr">
@@ -5168,72 +5168,72 @@
       </c>
       <c r="G66" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H66" s="10" t="n">
-        <v>20.97</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I66" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="K66" s="10" t="n">
-        <v>110.0925</v>
+        <v>209.559</v>
       </c>
       <c r="L66" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M66" s="9" t="inlineStr">
         <is>
-          <t>13:21:00</t>
+          <t>20:37:00</t>
         </is>
       </c>
       <c r="N66" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O66" s="10" t="n">
-        <v>104.85</v>
+        <v>199.58</v>
       </c>
       <c r="P66" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q66" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="R66" s="10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="S66" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T66" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1" s="11">
       <c r="B67" s="10" t="inlineStr">
         <is>
-          <t>471-41-2823</t>
+          <t>132-23-6451</t>
         </is>
       </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E67" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F67" s="10" t="inlineStr">
@@ -5243,51 +5243,51 @@
       </c>
       <c r="G67" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H67" s="10" t="n">
-        <v>99.79000000000001</v>
+        <v>20.97</v>
       </c>
       <c r="I67" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J67" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="K67" s="10" t="n">
-        <v>209.559</v>
+        <v>110.0925</v>
       </c>
       <c r="L67" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M67" s="9" t="inlineStr">
         <is>
-          <t>20:37:00</t>
+          <t>13:21:00</t>
         </is>
       </c>
       <c r="N67" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O67" s="10" t="n">
-        <v>199.58</v>
+        <v>104.85</v>
       </c>
       <c r="P67" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q67" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="R67" s="10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S67" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="11">
@@ -15568,17 +15568,17 @@
     <row r="205" ht="12.75" customHeight="1" s="11">
       <c r="B205" s="10" t="inlineStr">
         <is>
-          <t>597-78-7908</t>
+          <t>790-29-1172</t>
         </is>
       </c>
       <c r="C205" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D205" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E205" s="10" t="inlineStr">
@@ -15588,56 +15588,56 @@
       </c>
       <c r="F205" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G205" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H205" s="10" t="n">
-        <v>90.22</v>
+        <v>57.34</v>
       </c>
       <c r="I205" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J205" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="K205" s="10" t="n">
-        <v>284.193</v>
+        <v>180.621</v>
       </c>
       <c r="L205" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M205" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>18:59:00</t>
         </is>
       </c>
       <c r="N205" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O205" s="10" t="n">
-        <v>270.66</v>
+        <v>172.02</v>
       </c>
       <c r="P205" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q205" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="R205" s="10" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="S205" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T205" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1" s="11">
@@ -15718,17 +15718,17 @@
     <row r="207" ht="12.75" customHeight="1" s="11">
       <c r="B207" s="10" t="inlineStr">
         <is>
-          <t>790-29-1172</t>
+          <t>597-78-7908</t>
         </is>
       </c>
       <c r="C207" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D207" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E207" s="10" t="inlineStr">
@@ -15738,56 +15738,56 @@
       </c>
       <c r="F207" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G207" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H207" s="10" t="n">
-        <v>57.34</v>
+        <v>90.22</v>
       </c>
       <c r="I207" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J207" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="K207" s="10" t="n">
-        <v>180.621</v>
+        <v>284.193</v>
       </c>
       <c r="L207" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M207" s="9" t="inlineStr">
         <is>
-          <t>18:59:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N207" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O207" s="10" t="n">
-        <v>172.02</v>
+        <v>270.66</v>
       </c>
       <c r="P207" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q207" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="R207" s="10" t="n">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="S207" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T207" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="11">
@@ -16768,12 +16768,12 @@
     <row r="221" ht="12.75" customHeight="1" s="11">
       <c r="B221" s="10" t="inlineStr">
         <is>
-          <t>512-91-0811</t>
+          <t>746-04-1077</t>
         </is>
       </c>
       <c r="C221" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D221" s="7" t="inlineStr">
@@ -16783,37 +16783,37 @@
       </c>
       <c r="E221" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F221" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G221" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H221" s="10" t="n">
-        <v>89.75</v>
+        <v>84.63</v>
       </c>
       <c r="I221" s="10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J221" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="K221" s="10" t="n">
-        <v>94.2375</v>
+        <v>888.615</v>
       </c>
       <c r="L221" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M221" s="9" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>11:36:00</t>
         </is>
       </c>
       <c r="N221" s="10" t="inlineStr">
@@ -16822,43 +16822,43 @@
         </is>
       </c>
       <c r="O221" s="10" t="n">
-        <v>89.75</v>
+        <v>846.3</v>
       </c>
       <c r="P221" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q221" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="R221" s="10" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="S221" s="7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T221" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="11">
       <c r="B222" s="10" t="inlineStr">
         <is>
-          <t>529-56-3974</t>
+          <t>512-91-0811</t>
         </is>
       </c>
       <c r="C222" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D222" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E222" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F222" s="10" t="inlineStr">
@@ -16868,57 +16868,57 @@
       </c>
       <c r="G222" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H222" s="10" t="n">
-        <v>25.51</v>
+        <v>89.75</v>
       </c>
       <c r="I222" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J222" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="K222" s="10" t="n">
-        <v>107.142</v>
+        <v>94.2375</v>
       </c>
       <c r="L222" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M222" s="9" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="N222" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O222" s="10" t="n">
-        <v>102.04</v>
+        <v>89.75</v>
       </c>
       <c r="P222" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q222" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="R222" s="10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="S222" s="7" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="T222" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="11">
       <c r="B223" s="10" t="inlineStr">
         <is>
-          <t>746-04-1077</t>
+          <t>529-56-3974</t>
         </is>
       </c>
       <c r="C223" s="10" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="D223" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E223" s="10" t="inlineStr">
@@ -16938,56 +16938,56 @@
       </c>
       <c r="F223" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G223" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H223" s="10" t="n">
-        <v>84.63</v>
+        <v>25.51</v>
       </c>
       <c r="I223" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J223" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="K223" s="10" t="n">
-        <v>888.615</v>
+        <v>107.142</v>
       </c>
       <c r="L223" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M223" s="9" t="inlineStr">
         <is>
-          <t>11:36:00</t>
+          <t>17:03:00</t>
         </is>
       </c>
       <c r="N223" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O223" s="10" t="n">
-        <v>846.3</v>
+        <v>102.04</v>
       </c>
       <c r="P223" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q223" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="R223" s="10" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="S223" s="7" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="T223" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="11">
@@ -17818,22 +17818,22 @@
     <row r="235" ht="12.75" customHeight="1" s="11">
       <c r="B235" s="10" t="inlineStr">
         <is>
-          <t>448-61-3783</t>
+          <t>779-06-0012</t>
         </is>
       </c>
       <c r="C235" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D235" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E235" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F235" s="10" t="inlineStr">
@@ -17843,72 +17843,72 @@
       </c>
       <c r="G235" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H235" s="10" t="n">
-        <v>90.02</v>
+        <v>88.61</v>
       </c>
       <c r="I235" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J235" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="K235" s="10" t="n">
-        <v>756.168</v>
+        <v>93.04049999999999</v>
       </c>
       <c r="L235" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M235" s="9" t="inlineStr">
         <is>
-          <t>16:08:00</t>
+          <t>10:21:00</t>
         </is>
       </c>
       <c r="N235" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O235" s="10" t="n">
-        <v>720.16</v>
+        <v>88.61</v>
       </c>
       <c r="P235" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q235" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="R235" s="10" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="S235" s="7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T235" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="11">
       <c r="B236" s="10" t="inlineStr">
         <is>
-          <t>779-06-0012</t>
+          <t>448-61-3783</t>
         </is>
       </c>
       <c r="C236" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D236" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E236" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F236" s="10" t="inlineStr">
@@ -17918,51 +17918,51 @@
       </c>
       <c r="G236" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H236" s="10" t="n">
-        <v>88.61</v>
+        <v>90.02</v>
       </c>
       <c r="I236" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J236" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="K236" s="10" t="n">
-        <v>93.04049999999999</v>
+        <v>756.168</v>
       </c>
       <c r="L236" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M236" s="9" t="inlineStr">
         <is>
-          <t>10:21:00</t>
+          <t>16:08:00</t>
         </is>
       </c>
       <c r="N236" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O236" s="10" t="n">
-        <v>88.61</v>
+        <v>720.16</v>
       </c>
       <c r="P236" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q236" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="R236" s="10" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="S236" s="7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T236" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="11">
@@ -19093,73 +19093,73 @@
     <row r="252" ht="12.75" customHeight="1" s="11">
       <c r="B252" s="10" t="inlineStr">
         <is>
-          <t>127-47-6963</t>
+          <t>347-34-2234</t>
         </is>
       </c>
       <c r="C252" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D252" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E252" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F252" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G252" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H252" s="10" t="n">
-        <v>51.71</v>
+        <v>55.07</v>
       </c>
       <c r="I252" s="10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J252" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="K252" s="10" t="n">
-        <v>217.182</v>
+        <v>520.4115</v>
       </c>
       <c r="L252" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M252" s="9" t="inlineStr">
         <is>
-          <t>13:53:00</t>
+          <t>13:40:00</t>
         </is>
       </c>
       <c r="N252" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O252" s="10" t="n">
-        <v>206.84</v>
+        <v>495.63</v>
       </c>
       <c r="P252" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q252" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="R252" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S252" s="7" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T252" s="0" t="n">
         <v>13</v>
@@ -19168,7 +19168,7 @@
     <row r="253" ht="12.75" customHeight="1" s="11">
       <c r="B253" s="10" t="inlineStr">
         <is>
-          <t>347-34-2234</t>
+          <t>891-58-8335</t>
         </is>
       </c>
       <c r="C253" s="10" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="D253" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E253" s="10" t="inlineStr">
@@ -19197,122 +19197,122 @@
         </is>
       </c>
       <c r="H253" s="10" t="n">
-        <v>55.07</v>
+        <v>29.61</v>
       </c>
       <c r="I253" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J253" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="K253" s="10" t="n">
-        <v>520.4115</v>
+        <v>217.6335</v>
       </c>
       <c r="L253" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M253" s="9" t="inlineStr">
         <is>
-          <t>13:40:00</t>
+          <t>15:53:00</t>
         </is>
       </c>
       <c r="N253" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O253" s="10" t="n">
-        <v>495.63</v>
+        <v>207.27</v>
       </c>
       <c r="P253" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q253" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="R253" s="10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="S253" s="7" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="T253" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1" s="11">
       <c r="B254" s="10" t="inlineStr">
         <is>
-          <t>891-58-8335</t>
+          <t>127-47-6963</t>
         </is>
       </c>
       <c r="C254" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D254" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E254" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F254" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G254" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H254" s="10" t="n">
-        <v>29.61</v>
+        <v>51.71</v>
       </c>
       <c r="I254" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J254" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="K254" s="10" t="n">
-        <v>217.6335</v>
+        <v>217.182</v>
       </c>
       <c r="L254" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M254" s="9" t="inlineStr">
         <is>
-          <t>15:53:00</t>
+          <t>13:53:00</t>
         </is>
       </c>
       <c r="N254" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O254" s="10" t="n">
-        <v>207.27</v>
+        <v>206.84</v>
       </c>
       <c r="P254" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q254" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="R254" s="10" t="n">
-        <v>6.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S254" s="7" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T254" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" ht="12.75" customHeight="1" s="11">
@@ -20293,7 +20293,7 @@
     <row r="268" ht="12.75" customHeight="1" s="11">
       <c r="B268" s="10" t="inlineStr">
         <is>
-          <t>692-92-5582</t>
+          <t>364-33-8584</t>
         </is>
       </c>
       <c r="C268" s="10" t="inlineStr">
@@ -20303,7 +20303,7 @@
       </c>
       <c r="D268" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E268" s="10" t="inlineStr">
@@ -20322,53 +20322,53 @@
         </is>
       </c>
       <c r="H268" s="10" t="n">
-        <v>54.84</v>
+        <v>17.63</v>
       </c>
       <c r="I268" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J268" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="K268" s="10" t="n">
-        <v>172.746</v>
+        <v>92.5575</v>
       </c>
       <c r="L268" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M268" s="9" t="inlineStr">
         <is>
-          <t>13:27:00</t>
+          <t>15:27:00</t>
         </is>
       </c>
       <c r="N268" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O268" s="10" t="n">
-        <v>164.52</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="P268" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q268" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="R268" s="10" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="S268" s="7" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T268" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="11">
       <c r="B269" s="10" t="inlineStr">
         <is>
-          <t>364-33-8584</t>
+          <t>692-92-5582</t>
         </is>
       </c>
       <c r="C269" s="10" t="inlineStr">
@@ -20378,7 +20378,7 @@
       </c>
       <c r="D269" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E269" s="10" t="inlineStr">
@@ -20397,47 +20397,47 @@
         </is>
       </c>
       <c r="H269" s="10" t="n">
-        <v>17.63</v>
+        <v>54.84</v>
       </c>
       <c r="I269" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J269" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="K269" s="10" t="n">
-        <v>92.5575</v>
+        <v>172.746</v>
       </c>
       <c r="L269" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M269" s="9" t="inlineStr">
         <is>
-          <t>15:27:00</t>
+          <t>13:27:00</t>
         </is>
       </c>
       <c r="N269" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O269" s="10" t="n">
-        <v>88.15000000000001</v>
+        <v>164.52</v>
       </c>
       <c r="P269" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q269" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="R269" s="10" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="S269" s="7" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="T269" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="11">
@@ -21343,7 +21343,7 @@
     <row r="282" ht="12.75" customHeight="1" s="11">
       <c r="B282" s="10" t="inlineStr">
         <is>
-          <t>549-96-4200</t>
+          <t>137-74-8729</t>
         </is>
       </c>
       <c r="C282" s="10" t="inlineStr">
@@ -21353,42 +21353,42 @@
       </c>
       <c r="D282" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E282" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F282" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G282" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H282" s="10" t="n">
-        <v>17.04</v>
+        <v>12.19</v>
       </c>
       <c r="I282" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J282" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="K282" s="10" t="n">
-        <v>71.568</v>
+        <v>102.396</v>
       </c>
       <c r="L282" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M282" s="9" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>12:47:00</t>
         </is>
       </c>
       <c r="N282" s="10" t="inlineStr">
@@ -21397,113 +21397,113 @@
         </is>
       </c>
       <c r="O282" s="10" t="n">
-        <v>68.16</v>
+        <v>97.52</v>
       </c>
       <c r="P282" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q282" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="R282" s="10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="S282" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T282" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1" s="11">
       <c r="B283" s="10" t="inlineStr">
         <is>
-          <t>366-43-6862</t>
+          <t>595-94-9924</t>
         </is>
       </c>
       <c r="C283" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D283" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E283" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F283" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G283" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H283" s="10" t="n">
-        <v>52.89</v>
+        <v>27.73</v>
       </c>
       <c r="I283" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J283" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="K283" s="10" t="n">
-        <v>222.138</v>
+        <v>145.5825</v>
       </c>
       <c r="L283" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M283" s="9" t="inlineStr">
         <is>
-          <t>16:32:00</t>
+          <t>20:21:00</t>
         </is>
       </c>
       <c r="N283" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O283" s="10" t="n">
-        <v>211.56</v>
+        <v>138.65</v>
       </c>
       <c r="P283" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q283" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="R283" s="10" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="S283" s="7" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="T283" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1" s="11">
       <c r="B284" s="10" t="inlineStr">
         <is>
-          <t>595-94-9924</t>
+          <t>549-96-4200</t>
         </is>
       </c>
       <c r="C284" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D284" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E284" s="10" t="inlineStr">
@@ -21513,53 +21513,53 @@
       </c>
       <c r="F284" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G284" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H284" s="10" t="n">
-        <v>27.73</v>
+        <v>17.04</v>
       </c>
       <c r="I284" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J284" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="K284" s="10" t="n">
-        <v>145.5825</v>
+        <v>71.568</v>
       </c>
       <c r="L284" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M284" s="9" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="N284" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O284" s="10" t="n">
-        <v>138.65</v>
+        <v>68.16</v>
       </c>
       <c r="P284" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q284" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="R284" s="10" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="S284" s="7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T284" s="0" t="n">
         <v>20</v>
@@ -21568,17 +21568,17 @@
     <row r="285" ht="12.75" customHeight="1" s="11">
       <c r="B285" s="10" t="inlineStr">
         <is>
-          <t>137-74-8729</t>
+          <t>366-43-6862</t>
         </is>
       </c>
       <c r="C285" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D285" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E285" s="10" t="inlineStr">
@@ -21588,32 +21588,32 @@
       </c>
       <c r="F285" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G285" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H285" s="10" t="n">
-        <v>12.19</v>
+        <v>52.89</v>
       </c>
       <c r="I285" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J285" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="K285" s="10" t="n">
-        <v>102.396</v>
+        <v>222.138</v>
       </c>
       <c r="L285" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M285" s="9" t="inlineStr">
         <is>
-          <t>12:47:00</t>
+          <t>16:32:00</t>
         </is>
       </c>
       <c r="N285" s="10" t="inlineStr">
@@ -21622,22 +21622,22 @@
         </is>
       </c>
       <c r="O285" s="10" t="n">
-        <v>97.52</v>
+        <v>211.56</v>
       </c>
       <c r="P285" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q285" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="R285" s="10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="S285" s="7" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="T285" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="11">
@@ -22618,151 +22618,151 @@
     <row r="299" ht="12.75" customHeight="1" s="11">
       <c r="B299" s="10" t="inlineStr">
         <is>
-          <t>593-95-4461</t>
+          <t>420-97-3340</t>
         </is>
       </c>
       <c r="C299" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D299" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E299" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F299" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G299" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H299" s="10" t="n">
-        <v>74.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="I299" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J299" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="K299" s="10" t="n">
-        <v>78.60299999999999</v>
+        <v>225.792</v>
       </c>
       <c r="L299" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M299" s="9" t="inlineStr">
         <is>
-          <t>14:49:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="N299" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O299" s="10" t="n">
-        <v>74.86</v>
+        <v>215.04</v>
       </c>
       <c r="P299" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q299" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="R299" s="10" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S299" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T299" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="11">
       <c r="B300" s="10" t="inlineStr">
         <is>
-          <t>420-97-3340</t>
+          <t>593-95-4461</t>
         </is>
       </c>
       <c r="C300" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D300" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E300" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F300" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G300" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H300" s="10" t="n">
-        <v>71.68000000000001</v>
+        <v>74.86</v>
       </c>
       <c r="I300" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J300" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="K300" s="10" t="n">
-        <v>225.792</v>
+        <v>78.60299999999999</v>
       </c>
       <c r="L300" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M300" s="9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:49:00</t>
         </is>
       </c>
       <c r="N300" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O300" s="10" t="n">
-        <v>215.04</v>
+        <v>74.86</v>
       </c>
       <c r="P300" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q300" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="R300" s="10" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="S300" s="7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T300" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="11">
@@ -24943,17 +24943,17 @@
     <row r="330" ht="12.75" customHeight="1" s="11">
       <c r="B330" s="10" t="inlineStr">
         <is>
-          <t>233-67-5758</t>
+          <t>563-47-4072</t>
         </is>
       </c>
       <c r="C330" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D330" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E330" s="10" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="F330" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G330" s="10" t="inlineStr">
@@ -24972,63 +24972,63 @@
         </is>
       </c>
       <c r="H330" s="10" t="n">
-        <v>40.35</v>
+        <v>55.81</v>
       </c>
       <c r="I330" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J330" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="K330" s="10" t="n">
-        <v>42.3675</v>
+        <v>351.603</v>
       </c>
       <c r="L330" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M330" s="9" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>11:52:00</t>
         </is>
       </c>
       <c r="N330" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O330" s="10" t="n">
-        <v>40.35</v>
+        <v>334.86</v>
       </c>
       <c r="P330" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q330" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="R330" s="10" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="S330" s="7" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T330" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="11">
       <c r="B331" s="10" t="inlineStr">
         <is>
-          <t>563-47-4072</t>
+          <t>233-67-5758</t>
         </is>
       </c>
       <c r="C331" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D331" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E331" s="10" t="inlineStr">
@@ -25038,7 +25038,7 @@
       </c>
       <c r="F331" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G331" s="10" t="inlineStr">
@@ -25047,47 +25047,47 @@
         </is>
       </c>
       <c r="H331" s="10" t="n">
-        <v>55.81</v>
+        <v>40.35</v>
       </c>
       <c r="I331" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J331" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="K331" s="10" t="n">
-        <v>351.603</v>
+        <v>42.3675</v>
       </c>
       <c r="L331" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M331" s="9" t="inlineStr">
         <is>
-          <t>11:52:00</t>
+          <t>13:46:00</t>
         </is>
       </c>
       <c r="N331" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O331" s="10" t="n">
-        <v>334.86</v>
+        <v>40.35</v>
       </c>
       <c r="P331" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q331" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="R331" s="10" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="S331" s="7" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T331" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="11">
@@ -26068,22 +26068,22 @@
     <row r="345" ht="12.75" customHeight="1" s="11">
       <c r="B345" s="10" t="inlineStr">
         <is>
-          <t>422-29-8786</t>
+          <t>727-46-3608</t>
         </is>
       </c>
       <c r="C345" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D345" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E345" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F345" s="10" t="inlineStr">
@@ -26093,102 +26093,102 @@
       </c>
       <c r="G345" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H345" s="10" t="n">
-        <v>67.09</v>
+        <v>20.01</v>
       </c>
       <c r="I345" s="10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J345" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="K345" s="10" t="n">
-        <v>352.2225</v>
+        <v>189.0945</v>
       </c>
       <c r="L345" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M345" s="9" t="inlineStr">
         <is>
-          <t>16:47:00</t>
+          <t>15:47:00</t>
         </is>
       </c>
       <c r="N345" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O345" s="10" t="n">
-        <v>335.45</v>
+        <v>180.09</v>
       </c>
       <c r="P345" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q345" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="R345" s="10" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="S345" s="7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="T345" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="11">
       <c r="B346" s="10" t="inlineStr">
         <is>
-          <t>727-46-3608</t>
+          <t>460-35-4390</t>
         </is>
       </c>
       <c r="C346" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D346" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E346" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F346" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G346" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H346" s="10" t="n">
-        <v>20.01</v>
+        <v>30.68</v>
       </c>
       <c r="I346" s="10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J346" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="K346" s="10" t="n">
-        <v>189.0945</v>
+        <v>96.642</v>
       </c>
       <c r="L346" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M346" s="9" t="inlineStr">
         <is>
-          <t>15:47:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="N346" s="10" t="inlineStr">
@@ -26197,28 +26197,28 @@
         </is>
       </c>
       <c r="O346" s="10" t="n">
-        <v>180.09</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="P346" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q346" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="R346" s="10" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="S346" s="7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="T346" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1" s="11">
       <c r="B347" s="10" t="inlineStr">
         <is>
-          <t>460-35-4390</t>
+          <t>422-29-8786</t>
         </is>
       </c>
       <c r="C347" s="10" t="inlineStr">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="D347" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E347" s="10" t="inlineStr">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="F347" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G347" s="10" t="inlineStr">
@@ -26247,38 +26247,38 @@
         </is>
       </c>
       <c r="H347" s="10" t="n">
-        <v>30.68</v>
+        <v>67.09</v>
       </c>
       <c r="I347" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J347" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="K347" s="10" t="n">
-        <v>96.642</v>
+        <v>352.2225</v>
       </c>
       <c r="L347" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M347" s="9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:47:00</t>
         </is>
       </c>
       <c r="N347" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O347" s="10" t="n">
-        <v>92.04000000000001</v>
+        <v>335.45</v>
       </c>
       <c r="P347" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q347" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="R347" s="10" t="n">
         <v>9.1</v>
@@ -26287,7 +26287,7 @@
         <v>23</v>
       </c>
       <c r="T347" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="11">
@@ -27193,7 +27193,7 @@
     <row r="360" ht="12.75" customHeight="1" s="11">
       <c r="B360" s="10" t="inlineStr">
         <is>
-          <t>365-16-4334</t>
+          <t>655-85-5130</t>
         </is>
       </c>
       <c r="C360" s="10" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="E360" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F360" s="10" t="inlineStr">
@@ -27218,57 +27218,57 @@
       </c>
       <c r="G360" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H360" s="10" t="n">
-        <v>26.43</v>
+        <v>38.3</v>
       </c>
       <c r="I360" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J360" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="K360" s="10" t="n">
-        <v>222.012</v>
+        <v>160.86</v>
       </c>
       <c r="L360" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M360" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>19:22:00</t>
         </is>
       </c>
       <c r="N360" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O360" s="10" t="n">
-        <v>211.44</v>
+        <v>153.2</v>
       </c>
       <c r="P360" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q360" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="R360" s="10" t="n">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="S360" s="7" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="T360" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="11">
       <c r="B361" s="10" t="inlineStr">
         <is>
-          <t>655-85-5130</t>
+          <t>365-16-4334</t>
         </is>
       </c>
       <c r="C361" s="10" t="inlineStr">
@@ -27283,7 +27283,7 @@
       </c>
       <c r="E361" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F361" s="10" t="inlineStr">
@@ -27293,67 +27293,67 @@
       </c>
       <c r="G361" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H361" s="10" t="n">
-        <v>38.3</v>
+        <v>26.43</v>
       </c>
       <c r="I361" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J361" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="K361" s="10" t="n">
-        <v>160.86</v>
+        <v>222.012</v>
       </c>
       <c r="L361" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M361" s="9" t="inlineStr">
         <is>
-          <t>19:22:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N361" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O361" s="10" t="n">
-        <v>153.2</v>
+        <v>211.44</v>
       </c>
       <c r="P361" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q361" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="R361" s="10" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="S361" s="7" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T361" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="11">
       <c r="B362" s="10" t="inlineStr">
         <is>
-          <t>411-77-0180</t>
+          <t>704-10-4056</t>
         </is>
       </c>
       <c r="C362" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D362" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E362" s="10" t="inlineStr">
@@ -27368,67 +27368,67 @@
       </c>
       <c r="G362" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H362" s="10" t="n">
-        <v>72.2</v>
+        <v>60.47</v>
       </c>
       <c r="I362" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J362" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="K362" s="10" t="n">
-        <v>530.67</v>
+        <v>190.4805</v>
       </c>
       <c r="L362" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M362" s="9" t="inlineStr">
         <is>
-          <t>20:14:00</t>
+          <t>10:55:00</t>
         </is>
       </c>
       <c r="N362" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O362" s="10" t="n">
-        <v>505.4</v>
+        <v>181.41</v>
       </c>
       <c r="P362" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q362" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="R362" s="10" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="S362" s="7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T362" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="11">
       <c r="B363" s="10" t="inlineStr">
         <is>
-          <t>704-10-4056</t>
+          <t>411-77-0180</t>
         </is>
       </c>
       <c r="C363" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D363" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E363" s="10" t="inlineStr">
@@ -27443,51 +27443,51 @@
       </c>
       <c r="G363" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H363" s="10" t="n">
-        <v>60.47</v>
+        <v>72.2</v>
       </c>
       <c r="I363" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J363" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="K363" s="10" t="n">
-        <v>190.4805</v>
+        <v>530.67</v>
       </c>
       <c r="L363" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M363" s="9" t="inlineStr">
         <is>
-          <t>10:55:00</t>
+          <t>20:14:00</t>
         </is>
       </c>
       <c r="N363" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O363" s="10" t="n">
-        <v>181.41</v>
+        <v>505.4</v>
       </c>
       <c r="P363" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q363" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="R363" s="10" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="S363" s="7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T363" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="11">
@@ -28393,22 +28393,22 @@
     <row r="376" ht="12.75" customHeight="1" s="11">
       <c r="B376" s="10" t="inlineStr">
         <is>
-          <t>271-77-8740</t>
+          <t>301-11-9629</t>
         </is>
       </c>
       <c r="C376" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D376" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E376" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F376" s="10" t="inlineStr">
@@ -28422,68 +28422,68 @@
         </is>
       </c>
       <c r="H376" s="10" t="n">
-        <v>29.22</v>
+        <v>19.1</v>
       </c>
       <c r="I376" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J376" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="K376" s="10" t="n">
-        <v>184.086</v>
+        <v>140.385</v>
       </c>
       <c r="L376" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M376" s="9" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>10:43:00</t>
         </is>
       </c>
       <c r="N376" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O376" s="10" t="n">
-        <v>175.32</v>
+        <v>133.7</v>
       </c>
       <c r="P376" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q376" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="R376" s="10" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S376" s="7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="T376" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" ht="12.75" customHeight="1" s="11">
       <c r="B377" s="10" t="inlineStr">
         <is>
-          <t>301-11-9629</t>
+          <t>271-77-8740</t>
         </is>
       </c>
       <c r="C377" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D377" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E377" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F377" s="10" t="inlineStr">
@@ -28497,63 +28497,63 @@
         </is>
       </c>
       <c r="H377" s="10" t="n">
-        <v>19.1</v>
+        <v>29.22</v>
       </c>
       <c r="I377" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J377" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="K377" s="10" t="n">
-        <v>140.385</v>
+        <v>184.086</v>
       </c>
       <c r="L377" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M377" s="9" t="inlineStr">
         <is>
-          <t>10:43:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="N377" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O377" s="10" t="n">
-        <v>133.7</v>
+        <v>175.32</v>
       </c>
       <c r="P377" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q377" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="R377" s="10" t="n">
-        <v>9.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="S377" s="7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="T377" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1" s="11">
       <c r="B378" s="10" t="inlineStr">
         <is>
-          <t>397-25-8725</t>
+          <t>266-20-6657</t>
         </is>
       </c>
       <c r="C378" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D378" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E378" s="10" t="inlineStr">
@@ -28563,72 +28563,72 @@
       </c>
       <c r="F378" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G378" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H378" s="10" t="n">
-        <v>39.62</v>
+        <v>55.04</v>
       </c>
       <c r="I378" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J378" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="K378" s="10" t="n">
-        <v>374.409</v>
+        <v>404.544</v>
       </c>
       <c r="L378" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M378" s="9" t="inlineStr">
         <is>
-          <t>17:54:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N378" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O378" s="10" t="n">
-        <v>356.58</v>
+        <v>385.28</v>
       </c>
       <c r="P378" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q378" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="R378" s="10" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="S378" s="7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="T378" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" ht="12.75" customHeight="1" s="11">
       <c r="B379" s="10" t="inlineStr">
         <is>
-          <t>266-20-6657</t>
+          <t>397-25-8725</t>
         </is>
       </c>
       <c r="C379" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D379" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E379" s="10" t="inlineStr">
@@ -28638,56 +28638,56 @@
       </c>
       <c r="F379" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G379" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H379" s="10" t="n">
-        <v>55.04</v>
+        <v>39.62</v>
       </c>
       <c r="I379" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J379" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="K379" s="10" t="n">
-        <v>404.544</v>
+        <v>374.409</v>
       </c>
       <c r="L379" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M379" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>17:54:00</t>
         </is>
       </c>
       <c r="N379" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O379" s="10" t="n">
-        <v>385.28</v>
+        <v>356.58</v>
       </c>
       <c r="P379" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q379" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="R379" s="10" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="S379" s="7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="T379" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" ht="12.75" customHeight="1" s="11">
@@ -29743,17 +29743,17 @@
     <row r="394" ht="12.75" customHeight="1" s="11">
       <c r="B394" s="10" t="inlineStr">
         <is>
-          <t>176-78-1170</t>
+          <t>105-31-1824</t>
         </is>
       </c>
       <c r="C394" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D394" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E394" s="10" t="inlineStr">
@@ -29768,48 +29768,48 @@
       </c>
       <c r="G394" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H394" s="10" t="n">
-        <v>33.81</v>
+        <v>69.52</v>
       </c>
       <c r="I394" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J394" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="K394" s="10" t="n">
-        <v>106.5015</v>
+        <v>510.972</v>
       </c>
       <c r="L394" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M394" s="9" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="N394" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O394" s="10" t="n">
-        <v>101.43</v>
+        <v>486.64</v>
       </c>
       <c r="P394" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q394" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="R394" s="10" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="S394" s="7" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T394" s="0" t="n">
         <v>15</v>
@@ -29818,17 +29818,17 @@
     <row r="395" ht="12.75" customHeight="1" s="11">
       <c r="B395" s="10" t="inlineStr">
         <is>
-          <t>105-31-1824</t>
+          <t>176-78-1170</t>
         </is>
       </c>
       <c r="C395" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D395" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E395" s="10" t="inlineStr">
@@ -29843,48 +29843,48 @@
       </c>
       <c r="G395" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H395" s="10" t="n">
-        <v>69.52</v>
+        <v>33.81</v>
       </c>
       <c r="I395" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J395" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="K395" s="10" t="n">
-        <v>510.972</v>
+        <v>106.5015</v>
       </c>
       <c r="L395" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M395" s="9" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:11:00</t>
         </is>
       </c>
       <c r="N395" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O395" s="10" t="n">
-        <v>486.64</v>
+        <v>101.43</v>
       </c>
       <c r="P395" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q395" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="R395" s="10" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="S395" s="7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T395" s="0" t="n">
         <v>15</v>
@@ -31918,7 +31918,7 @@
     <row r="423" ht="12.75" customHeight="1" s="11">
       <c r="B423" s="10" t="inlineStr">
         <is>
-          <t>346-12-3257</t>
+          <t>891-01-7034</t>
         </is>
       </c>
       <c r="C423" s="10" t="inlineStr">
@@ -31928,17 +31928,17 @@
       </c>
       <c r="D423" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E423" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F423" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G423" s="10" t="inlineStr">
@@ -31947,23 +31947,23 @@
         </is>
       </c>
       <c r="H423" s="10" t="n">
-        <v>19.24</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="I423" s="10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J423" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="K423" s="10" t="n">
-        <v>181.818</v>
+        <v>470.673</v>
       </c>
       <c r="L423" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M423" s="9" t="inlineStr">
         <is>
-          <t>16:28:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N423" s="10" t="inlineStr">
@@ -31972,28 +31972,28 @@
         </is>
       </c>
       <c r="O423" s="10" t="n">
-        <v>173.16</v>
+        <v>448.26</v>
       </c>
       <c r="P423" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q423" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="R423" s="10" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="S423" s="7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T423" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="424" ht="12.75" customHeight="1" s="11">
       <c r="B424" s="10" t="inlineStr">
         <is>
-          <t>891-01-7034</t>
+          <t>283-79-9594</t>
         </is>
       </c>
       <c r="C424" s="10" t="inlineStr">
@@ -32003,7 +32003,7 @@
       </c>
       <c r="D424" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E424" s="10" t="inlineStr">
@@ -32018,57 +32018,57 @@
       </c>
       <c r="G424" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H424" s="10" t="n">
-        <v>74.70999999999999</v>
+        <v>48.51</v>
       </c>
       <c r="I424" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J424" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="K424" s="10" t="n">
-        <v>470.673</v>
+        <v>356.5485</v>
       </c>
       <c r="L424" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M424" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="N424" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O424" s="10" t="n">
-        <v>448.26</v>
+        <v>339.57</v>
       </c>
       <c r="P424" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q424" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="R424" s="10" t="n">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="S424" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T424" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" ht="12.75" customHeight="1" s="11">
       <c r="B425" s="10" t="inlineStr">
         <is>
-          <t>283-79-9594</t>
+          <t>346-12-3257</t>
         </is>
       </c>
       <c r="C425" s="10" t="inlineStr">
@@ -32078,66 +32078,66 @@
       </c>
       <c r="D425" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E425" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F425" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G425" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H425" s="10" t="n">
-        <v>48.51</v>
+        <v>19.24</v>
       </c>
       <c r="I425" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J425" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="K425" s="10" t="n">
-        <v>356.5485</v>
+        <v>181.818</v>
       </c>
       <c r="L425" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M425" s="9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:28:00</t>
         </is>
       </c>
       <c r="N425" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O425" s="10" t="n">
-        <v>339.57</v>
+        <v>173.16</v>
       </c>
       <c r="P425" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q425" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="R425" s="10" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="S425" s="7" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T425" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426" ht="12.75" customHeight="1" s="11">
@@ -33043,17 +33043,17 @@
     <row r="438" ht="12.75" customHeight="1" s="11">
       <c r="B438" s="10" t="inlineStr">
         <is>
-          <t>875-46-5808</t>
+          <t>742-04-5161</t>
         </is>
       </c>
       <c r="C438" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D438" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E438" s="10" t="inlineStr">
@@ -33068,67 +33068,67 @@
       </c>
       <c r="G438" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H438" s="10" t="n">
-        <v>25.9</v>
+        <v>72.78</v>
       </c>
       <c r="I438" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J438" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="K438" s="10" t="n">
-        <v>271.95</v>
+        <v>764.1900000000001</v>
       </c>
       <c r="L438" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M438" s="9" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N438" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O438" s="10" t="n">
-        <v>259</v>
+        <v>727.8</v>
       </c>
       <c r="P438" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q438" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="R438" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="S438" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T438" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" ht="12.75" customHeight="1" s="11">
       <c r="B439" s="10" t="inlineStr">
         <is>
-          <t>742-04-5161</t>
+          <t>875-46-5808</t>
         </is>
       </c>
       <c r="C439" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D439" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E439" s="10" t="inlineStr">
@@ -33143,51 +33143,51 @@
       </c>
       <c r="G439" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H439" s="10" t="n">
-        <v>72.78</v>
+        <v>25.9</v>
       </c>
       <c r="I439" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J439" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="K439" s="10" t="n">
-        <v>764.1900000000001</v>
+        <v>271.95</v>
       </c>
       <c r="L439" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M439" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:51:00</t>
         </is>
       </c>
       <c r="N439" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O439" s="10" t="n">
-        <v>727.8</v>
+        <v>259</v>
       </c>
       <c r="P439" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q439" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="R439" s="10" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S439" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="T439" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="440" ht="12.75" customHeight="1" s="11">
@@ -34318,22 +34318,22 @@
     <row r="455" ht="12.75" customHeight="1" s="11">
       <c r="B455" s="10" t="inlineStr">
         <is>
-          <t>162-65-8559</t>
+          <t>186-79-9562</t>
         </is>
       </c>
       <c r="C455" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D455" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E455" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F455" s="10" t="inlineStr">
@@ -34343,27 +34343,27 @@
       </c>
       <c r="G455" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H455" s="10" t="n">
-        <v>68.98</v>
+        <v>71.77</v>
       </c>
       <c r="I455" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J455" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="K455" s="10" t="n">
-        <v>72.429</v>
+        <v>527.5095</v>
       </c>
       <c r="L455" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M455" s="9" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>14:06:00</t>
         </is>
       </c>
       <c r="N455" s="10" t="inlineStr">
@@ -34372,73 +34372,73 @@
         </is>
       </c>
       <c r="O455" s="10" t="n">
-        <v>68.98</v>
+        <v>502.39</v>
       </c>
       <c r="P455" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q455" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="R455" s="10" t="n">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="S455" s="7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T455" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456" ht="12.75" customHeight="1" s="11">
       <c r="B456" s="10" t="inlineStr">
         <is>
-          <t>186-79-9562</t>
+          <t>211-05-0490</t>
         </is>
       </c>
       <c r="C456" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D456" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E456" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F456" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G456" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H456" s="10" t="n">
-        <v>71.77</v>
+        <v>51.92</v>
       </c>
       <c r="I456" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J456" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="K456" s="10" t="n">
-        <v>527.5095</v>
+        <v>272.58</v>
       </c>
       <c r="L456" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M456" s="9" t="inlineStr">
         <is>
-          <t>14:06:00</t>
+          <t>13:42:00</t>
         </is>
       </c>
       <c r="N456" s="10" t="inlineStr">
@@ -34447,28 +34447,28 @@
         </is>
       </c>
       <c r="O456" s="10" t="n">
-        <v>502.39</v>
+        <v>259.6</v>
       </c>
       <c r="P456" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q456" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="R456" s="10" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="S456" s="7" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="T456" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="11">
       <c r="B457" s="10" t="inlineStr">
         <is>
-          <t>211-05-0490</t>
+          <t>162-65-8559</t>
         </is>
       </c>
       <c r="C457" s="10" t="inlineStr">
@@ -34478,7 +34478,7 @@
       </c>
       <c r="D457" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E457" s="10" t="inlineStr">
@@ -34488,32 +34488,32 @@
       </c>
       <c r="F457" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G457" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H457" s="10" t="n">
-        <v>51.92</v>
+        <v>68.98</v>
       </c>
       <c r="I457" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J457" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="K457" s="10" t="n">
-        <v>272.58</v>
+        <v>72.429</v>
       </c>
       <c r="L457" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M457" s="9" t="inlineStr">
         <is>
-          <t>13:42:00</t>
+          <t>20:13:00</t>
         </is>
       </c>
       <c r="N457" s="10" t="inlineStr">
@@ -34522,22 +34522,22 @@
         </is>
       </c>
       <c r="O457" s="10" t="n">
-        <v>259.6</v>
+        <v>68.98</v>
       </c>
       <c r="P457" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q457" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="R457" s="10" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="S457" s="7" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="T457" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="11">
@@ -35443,7 +35443,7 @@
     <row r="470" ht="12.75" customHeight="1" s="11">
       <c r="B470" s="10" t="inlineStr">
         <is>
-          <t>433-75-6987</t>
+          <t>188-55-0967</t>
         </is>
       </c>
       <c r="C470" s="10" t="inlineStr">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="D470" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E470" s="10" t="inlineStr">
@@ -35463,7 +35463,7 @@
       </c>
       <c r="F470" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G470" s="10" t="inlineStr">
@@ -35472,53 +35472,53 @@
         </is>
       </c>
       <c r="H470" s="10" t="n">
-        <v>55.97</v>
+        <v>66.47</v>
       </c>
       <c r="I470" s="10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J470" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="K470" s="10" t="n">
-        <v>411.3795</v>
+        <v>697.9349999999999</v>
       </c>
       <c r="L470" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M470" s="9" t="inlineStr">
         <is>
-          <t>19:06:00</t>
+          <t>15:01:00</t>
         </is>
       </c>
       <c r="N470" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O470" s="10" t="n">
-        <v>391.79</v>
+        <v>664.7</v>
       </c>
       <c r="P470" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q470" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="R470" s="10" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="S470" s="7" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T470" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="471" ht="12.75" customHeight="1" s="11">
       <c r="B471" s="10" t="inlineStr">
         <is>
-          <t>188-55-0967</t>
+          <t>433-75-6987</t>
         </is>
       </c>
       <c r="C471" s="10" t="inlineStr">
@@ -35528,7 +35528,7 @@
       </c>
       <c r="D471" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E471" s="10" t="inlineStr">
@@ -35538,7 +35538,7 @@
       </c>
       <c r="F471" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G471" s="10" t="inlineStr">
@@ -35547,53 +35547,53 @@
         </is>
       </c>
       <c r="H471" s="10" t="n">
-        <v>66.47</v>
+        <v>55.97</v>
       </c>
       <c r="I471" s="10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J471" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="K471" s="10" t="n">
-        <v>697.9349999999999</v>
+        <v>411.3795</v>
       </c>
       <c r="L471" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M471" s="9" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>19:06:00</t>
         </is>
       </c>
       <c r="N471" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O471" s="10" t="n">
-        <v>664.7</v>
+        <v>391.79</v>
       </c>
       <c r="P471" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q471" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="R471" s="10" t="n">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="S471" s="7" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="T471" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="472" ht="12.75" customHeight="1" s="11">
       <c r="B472" s="10" t="inlineStr">
         <is>
-          <t>732-67-5346</t>
+          <t>124-31-1458</t>
         </is>
       </c>
       <c r="C472" s="10" t="inlineStr">
@@ -35603,72 +35603,72 @@
       </c>
       <c r="D472" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E472" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F472" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G472" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H472" s="10" t="n">
-        <v>13.79</v>
+        <v>79.59</v>
       </c>
       <c r="I472" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J472" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="K472" s="10" t="n">
-        <v>72.39749999999999</v>
+        <v>250.7085</v>
       </c>
       <c r="L472" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M472" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="N472" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O472" s="10" t="n">
-        <v>68.95</v>
+        <v>238.77</v>
       </c>
       <c r="P472" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q472" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="R472" s="10" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="S472" s="7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T472" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473" ht="12.75" customHeight="1" s="11">
       <c r="B473" s="10" t="inlineStr">
         <is>
-          <t>124-31-1458</t>
+          <t>732-67-5346</t>
         </is>
       </c>
       <c r="C473" s="10" t="inlineStr">
@@ -35678,66 +35678,66 @@
       </c>
       <c r="D473" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E473" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F473" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G473" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H473" s="10" t="n">
-        <v>79.59</v>
+        <v>13.79</v>
       </c>
       <c r="I473" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J473" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="K473" s="10" t="n">
-        <v>250.7085</v>
+        <v>72.39749999999999</v>
       </c>
       <c r="L473" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M473" s="9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N473" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O473" s="10" t="n">
-        <v>238.77</v>
+        <v>68.95</v>
       </c>
       <c r="P473" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q473" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="R473" s="10" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="S473" s="7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T473" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="474" ht="12.75" customHeight="1" s="11">
@@ -38068,7 +38068,7 @@
     <row r="505" ht="12.75" customHeight="1" s="11">
       <c r="B505" s="10" t="inlineStr">
         <is>
-          <t>400-60-7251</t>
+          <t>459-45-2396</t>
         </is>
       </c>
       <c r="C505" s="10" t="inlineStr">
@@ -38078,72 +38078,72 @@
       </c>
       <c r="D505" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E505" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F505" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G505" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H505" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I505" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J505" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="K505" s="10" t="n">
-        <v>77.7735</v>
+        <v>313.74</v>
       </c>
       <c r="L505" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M505" s="9" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
       <c r="N505" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O505" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>298.8</v>
       </c>
       <c r="P505" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q505" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="R505" s="10" t="n">
-        <v>9.9</v>
+        <v>5.8</v>
       </c>
       <c r="S505" s="7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T505" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="506" ht="12.75" customHeight="1" s="11">
       <c r="B506" s="10" t="inlineStr">
         <is>
-          <t>459-45-2396</t>
+          <t>400-60-7251</t>
         </is>
       </c>
       <c r="C506" s="10" t="inlineStr">
@@ -38153,66 +38153,66 @@
       </c>
       <c r="D506" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E506" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F506" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G506" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H506" s="10" t="n">
-        <v>99.59999999999999</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="I506" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J506" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="K506" s="10" t="n">
-        <v>313.74</v>
+        <v>77.7735</v>
       </c>
       <c r="L506" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M506" s="9" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="N506" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O506" s="10" t="n">
-        <v>298.8</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="P506" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q506" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="R506" s="10" t="n">
-        <v>5.8</v>
+        <v>9.9</v>
       </c>
       <c r="S506" s="7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T506" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" ht="12.75" customHeight="1" s="11">
@@ -41443,76 +41443,76 @@
     <row r="550" ht="12.75" customHeight="1" s="11">
       <c r="B550" s="10" t="inlineStr">
         <is>
-          <t>239-10-7476</t>
+          <t>339-18-7061</t>
         </is>
       </c>
       <c r="C550" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D550" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E550" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F550" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G550" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H550" s="10" t="n">
-        <v>77.95</v>
+        <v>92.98</v>
       </c>
       <c r="I550" s="10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J550" s="10" t="n">
-        <v>23.385</v>
+        <v>9.298</v>
       </c>
       <c r="K550" s="10" t="n">
-        <v>491.085</v>
+        <v>195.258</v>
       </c>
       <c r="L550" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M550" s="9" t="inlineStr">
         <is>
-          <t>16:37:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N550" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O550" s="10" t="n">
-        <v>467.7</v>
+        <v>185.96</v>
       </c>
       <c r="P550" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q550" s="10" t="n">
-        <v>23.385</v>
+        <v>9.298</v>
       </c>
       <c r="R550" s="10" t="n">
         <v>8</v>
       </c>
       <c r="S550" s="7" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="T550" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" ht="12.75" customHeight="1" s="11">
@@ -41593,76 +41593,76 @@
     <row r="552" ht="12.75" customHeight="1" s="11">
       <c r="B552" s="10" t="inlineStr">
         <is>
-          <t>339-18-7061</t>
+          <t>239-10-7476</t>
         </is>
       </c>
       <c r="C552" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D552" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E552" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F552" s="10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G552" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H552" s="10" t="n">
-        <v>92.98</v>
+        <v>77.95</v>
       </c>
       <c r="I552" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J552" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="K552" s="10" t="n">
-        <v>195.258</v>
+        <v>491.085</v>
       </c>
       <c r="L552" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M552" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>16:37:00</t>
         </is>
       </c>
       <c r="N552" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O552" s="10" t="n">
-        <v>185.96</v>
+        <v>467.7</v>
       </c>
       <c r="P552" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q552" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="R552" s="10" t="n">
         <v>8</v>
       </c>
       <c r="S552" s="7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="T552" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553" ht="12.75" customHeight="1" s="11">
@@ -42643,7 +42643,7 @@
     <row r="566" ht="12.75" customHeight="1" s="11">
       <c r="B566" s="10" t="inlineStr">
         <is>
-          <t>885-56-0389</t>
+          <t>821-07-3596</t>
         </is>
       </c>
       <c r="C566" s="10" t="inlineStr">
@@ -42653,17 +42653,17 @@
       </c>
       <c r="D566" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E566" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F566" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G566" s="10" t="inlineStr">
@@ -42672,58 +42672,58 @@
         </is>
       </c>
       <c r="H566" s="10" t="n">
-        <v>52.35</v>
+        <v>16.45</v>
       </c>
       <c r="I566" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J566" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="K566" s="10" t="n">
-        <v>54.9675</v>
+        <v>69.09</v>
       </c>
       <c r="L566" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M566" s="9" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="N566" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O566" s="10" t="n">
-        <v>52.35</v>
+        <v>65.8</v>
       </c>
       <c r="P566" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q566" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="R566" s="10" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="S566" s="7" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T566" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="567" ht="12.75" customHeight="1" s="11">
       <c r="B567" s="10" t="inlineStr">
         <is>
-          <t>554-53-3790</t>
+          <t>271-88-8734</t>
         </is>
       </c>
       <c r="C567" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D567" s="7" t="inlineStr">
@@ -42733,72 +42733,72 @@
       </c>
       <c r="E567" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F567" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G567" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H567" s="10" t="n">
-        <v>37.02</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="I567" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J567" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="K567" s="10" t="n">
-        <v>233.226</v>
+        <v>1020.705</v>
       </c>
       <c r="L567" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M567" s="9" t="inlineStr">
         <is>
-          <t>18:33:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="N567" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O567" s="10" t="n">
-        <v>222.12</v>
+        <v>972.1</v>
       </c>
       <c r="P567" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q567" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="R567" s="10" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S567" s="7" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="T567" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="568" ht="12.75" customHeight="1" s="11">
       <c r="B568" s="10" t="inlineStr">
         <is>
-          <t>271-88-8734</t>
+          <t>554-53-3790</t>
         </is>
       </c>
       <c r="C568" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D568" s="7" t="inlineStr">
@@ -42808,67 +42808,67 @@
       </c>
       <c r="E568" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F568" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G568" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H568" s="10" t="n">
-        <v>97.20999999999999</v>
+        <v>37.02</v>
       </c>
       <c r="I568" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J568" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="K568" s="10" t="n">
-        <v>1020.705</v>
+        <v>233.226</v>
       </c>
       <c r="L568" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M568" s="9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>18:33:00</t>
         </is>
       </c>
       <c r="N568" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O568" s="10" t="n">
-        <v>972.1</v>
+        <v>222.12</v>
       </c>
       <c r="P568" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q568" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="R568" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="S568" s="7" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="T568" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="569" ht="12.75" customHeight="1" s="11">
       <c r="B569" s="10" t="inlineStr">
         <is>
-          <t>821-07-3596</t>
+          <t>885-56-0389</t>
         </is>
       </c>
       <c r="C569" s="10" t="inlineStr">
@@ -42878,17 +42878,17 @@
       </c>
       <c r="D569" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E569" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F569" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G569" s="10" t="inlineStr">
@@ -42897,47 +42897,47 @@
         </is>
       </c>
       <c r="H569" s="10" t="n">
-        <v>16.45</v>
+        <v>52.35</v>
       </c>
       <c r="I569" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J569" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="K569" s="10" t="n">
-        <v>69.09</v>
+        <v>54.9675</v>
       </c>
       <c r="L569" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M569" s="9" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>17:49:00</t>
         </is>
       </c>
       <c r="N569" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O569" s="10" t="n">
-        <v>65.8</v>
+        <v>52.35</v>
       </c>
       <c r="P569" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q569" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="R569" s="10" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="S569" s="7" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="T569" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="570" ht="12.75" customHeight="1" s="11">
@@ -43843,17 +43843,17 @@
     <row r="582" ht="12.75" customHeight="1" s="11">
       <c r="B582" s="10" t="inlineStr">
         <is>
-          <t>190-59-3964</t>
+          <t>440-59-5691</t>
         </is>
       </c>
       <c r="C582" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D582" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E582" s="10" t="inlineStr">
@@ -43863,32 +43863,32 @@
       </c>
       <c r="F582" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G582" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H582" s="10" t="n">
-        <v>47.16</v>
+        <v>37.15</v>
       </c>
       <c r="I582" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J582" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="K582" s="10" t="n">
-        <v>247.59</v>
+        <v>273.0525</v>
       </c>
       <c r="L582" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M582" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>13:12:00</t>
         </is>
       </c>
       <c r="N582" s="10" t="inlineStr">
@@ -43897,38 +43897,38 @@
         </is>
       </c>
       <c r="O582" s="10" t="n">
-        <v>235.8</v>
+        <v>260.05</v>
       </c>
       <c r="P582" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q582" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="R582" s="10" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="S582" s="7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T582" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="583" ht="12.75" customHeight="1" s="11">
       <c r="B583" s="10" t="inlineStr">
         <is>
-          <t>440-59-5691</t>
+          <t>190-59-3964</t>
         </is>
       </c>
       <c r="C583" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D583" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E583" s="10" t="inlineStr">
@@ -43938,32 +43938,32 @@
       </c>
       <c r="F583" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G583" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H583" s="10" t="n">
-        <v>37.15</v>
+        <v>47.16</v>
       </c>
       <c r="I583" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J583" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="K583" s="10" t="n">
-        <v>273.0525</v>
+        <v>247.59</v>
       </c>
       <c r="L583" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M583" s="9" t="inlineStr">
         <is>
-          <t>13:12:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N583" s="10" t="inlineStr">
@@ -43972,22 +43972,22 @@
         </is>
       </c>
       <c r="O583" s="10" t="n">
-        <v>260.05</v>
+        <v>235.8</v>
       </c>
       <c r="P583" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q583" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="R583" s="10" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="S583" s="7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T583" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584" ht="12.75" customHeight="1" s="11">
@@ -44368,82 +44368,82 @@
     <row r="589" ht="12.75" customHeight="1" s="11">
       <c r="B589" s="10" t="inlineStr">
         <is>
-          <t>585-11-6748</t>
+          <t>585-86-8361</t>
         </is>
       </c>
       <c r="C589" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D589" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E589" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F589" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G589" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H589" s="10" t="n">
-        <v>96.8</v>
+        <v>27.28</v>
       </c>
       <c r="I589" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J589" s="10" t="n">
-        <v>14.52</v>
+        <v>6.82</v>
       </c>
       <c r="K589" s="10" t="n">
-        <v>304.92</v>
+        <v>143.22</v>
       </c>
       <c r="L589" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M589" s="9" t="inlineStr">
         <is>
-          <t>13:05:00</t>
+          <t>10:31:00</t>
         </is>
       </c>
       <c r="N589" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O589" s="10" t="n">
-        <v>290.4</v>
+        <v>136.4</v>
       </c>
       <c r="P589" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q589" s="10" t="n">
-        <v>14.52</v>
+        <v>6.82</v>
       </c>
       <c r="R589" s="10" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="S589" s="7" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="T589" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590" ht="12.75" customHeight="1" s="11">
       <c r="B590" s="10" t="inlineStr">
         <is>
-          <t>602-16-6955</t>
+          <t>585-11-6748</t>
         </is>
       </c>
       <c r="C590" s="10" t="inlineStr">
@@ -44453,17 +44453,17 @@
       </c>
       <c r="D590" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E590" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F590" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G590" s="10" t="inlineStr">
@@ -44472,58 +44472,58 @@
         </is>
       </c>
       <c r="H590" s="10" t="n">
-        <v>76.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="I590" s="10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J590" s="10" t="n">
-        <v>38.3</v>
+        <v>14.52</v>
       </c>
       <c r="K590" s="10" t="n">
-        <v>804.3</v>
+        <v>304.92</v>
       </c>
       <c r="L590" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M590" s="9" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>13:05:00</t>
         </is>
       </c>
       <c r="N590" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O590" s="10" t="n">
-        <v>766</v>
+        <v>290.4</v>
       </c>
       <c r="P590" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q590" s="10" t="n">
-        <v>38.3</v>
+        <v>14.52</v>
       </c>
       <c r="R590" s="10" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="S590" s="7" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T590" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="591" ht="12.75" customHeight="1" s="11">
       <c r="B591" s="10" t="inlineStr">
         <is>
-          <t>585-86-8361</t>
+          <t>602-16-6955</t>
         </is>
       </c>
       <c r="C591" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D591" s="7" t="inlineStr">
@@ -44543,51 +44543,51 @@
       </c>
       <c r="G591" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H591" s="10" t="n">
-        <v>27.28</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I591" s="10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J591" s="10" t="n">
-        <v>6.82</v>
+        <v>38.3</v>
       </c>
       <c r="K591" s="10" t="n">
-        <v>143.22</v>
+        <v>804.3</v>
       </c>
       <c r="L591" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M591" s="9" t="inlineStr">
         <is>
-          <t>10:31:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="N591" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O591" s="10" t="n">
-        <v>136.4</v>
+        <v>766</v>
       </c>
       <c r="P591" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q591" s="10" t="n">
-        <v>6.82</v>
+        <v>38.3</v>
       </c>
       <c r="R591" s="10" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="S591" s="7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="T591" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592" ht="12.75" customHeight="1" s="11">
@@ -44968,172 +44968,172 @@
     <row r="597" ht="12.75" customHeight="1" s="11">
       <c r="B597" s="10" t="inlineStr">
         <is>
-          <t>227-07-4446</t>
+          <t>765-26-6951</t>
         </is>
       </c>
       <c r="C597" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D597" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E597" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F597" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G597" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H597" s="10" t="n">
-        <v>78.13</v>
+        <v>72.61</v>
       </c>
       <c r="I597" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J597" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="K597" s="10" t="n">
-        <v>820.365</v>
+        <v>457.443</v>
       </c>
       <c r="L597" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M597" s="9" t="inlineStr">
         <is>
-          <t>20:51:00</t>
+          <t>10:39:00</t>
         </is>
       </c>
       <c r="N597" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O597" s="10" t="n">
-        <v>781.3</v>
+        <v>435.66</v>
       </c>
       <c r="P597" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q597" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="R597" s="10" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="S597" s="7" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T597" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="598" ht="12.75" customHeight="1" s="11">
       <c r="B598" s="10" t="inlineStr">
         <is>
-          <t>765-26-6951</t>
+          <t>227-07-4446</t>
         </is>
       </c>
       <c r="C598" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D598" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E598" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F598" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G598" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H598" s="10" t="n">
-        <v>72.61</v>
+        <v>78.13</v>
       </c>
       <c r="I598" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J598" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="K598" s="10" t="n">
-        <v>457.443</v>
+        <v>820.365</v>
       </c>
       <c r="L598" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M598" s="9" t="inlineStr">
         <is>
-          <t>10:39:00</t>
+          <t>20:51:00</t>
         </is>
       </c>
       <c r="N598" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O598" s="10" t="n">
-        <v>435.66</v>
+        <v>781.3</v>
       </c>
       <c r="P598" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q598" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="R598" s="10" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="S598" s="7" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T598" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="599" ht="12.75" customHeight="1" s="11">
       <c r="B599" s="10" t="inlineStr">
         <is>
-          <t>860-73-6466</t>
+          <t>539-21-7227</t>
         </is>
       </c>
       <c r="C599" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D599" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E599" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F599" s="10" t="inlineStr">
@@ -45147,68 +45147,68 @@
         </is>
       </c>
       <c r="H599" s="10" t="n">
-        <v>39.47</v>
+        <v>51.54</v>
       </c>
       <c r="I599" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J599" s="10" t="n">
-        <v>3.947</v>
+        <v>12.885</v>
       </c>
       <c r="K599" s="10" t="n">
-        <v>82.887</v>
+        <v>270.585</v>
       </c>
       <c r="L599" s="13" t="n">
         <v>45288</v>
       </c>
       <c r="M599" s="9" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="N599" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O599" s="10" t="n">
-        <v>78.94</v>
+        <v>257.7</v>
       </c>
       <c r="P599" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q599" s="10" t="n">
-        <v>3.947</v>
+        <v>12.885</v>
       </c>
       <c r="R599" s="10" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="S599" s="7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T599" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="600" ht="12.75" customHeight="1" s="11">
       <c r="B600" s="10" t="inlineStr">
         <is>
-          <t>539-21-7227</t>
+          <t>860-73-6466</t>
         </is>
       </c>
       <c r="C600" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D600" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E600" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F600" s="10" t="inlineStr">
@@ -45222,47 +45222,47 @@
         </is>
       </c>
       <c r="H600" s="10" t="n">
-        <v>51.54</v>
+        <v>39.47</v>
       </c>
       <c r="I600" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J600" s="10" t="n">
-        <v>12.885</v>
+        <v>3.947</v>
       </c>
       <c r="K600" s="10" t="n">
-        <v>270.585</v>
+        <v>82.887</v>
       </c>
       <c r="L600" s="13" t="n">
         <v>45288</v>
       </c>
       <c r="M600" s="9" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:16:00</t>
         </is>
       </c>
       <c r="N600" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O600" s="10" t="n">
-        <v>257.7</v>
+        <v>78.94</v>
       </c>
       <c r="P600" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q600" s="10" t="n">
-        <v>12.885</v>
+        <v>3.947</v>
       </c>
       <c r="R600" s="10" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="S600" s="7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="T600" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="601" ht="12.75" customHeight="1" s="11">
@@ -46168,22 +46168,22 @@
     <row r="613" ht="12.75" customHeight="1" s="11">
       <c r="B613" s="10" t="inlineStr">
         <is>
-          <t>501-61-1753</t>
+          <t>556-86-3144</t>
         </is>
       </c>
       <c r="C613" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D613" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E613" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F613" s="10" t="inlineStr">
@@ -46193,72 +46193,72 @@
       </c>
       <c r="G613" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H613" s="10" t="n">
-        <v>63.15</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="I613" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J613" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="K613" s="10" t="n">
-        <v>397.845</v>
+        <v>78.00449999999999</v>
       </c>
       <c r="L613" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M613" s="9" t="inlineStr">
         <is>
-          <t>20:24:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N613" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O613" s="10" t="n">
-        <v>378.9</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="P613" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q613" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="R613" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="S613" s="7" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="T613" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="614" ht="12.75" customHeight="1" s="11">
       <c r="B614" s="10" t="inlineStr">
         <is>
-          <t>556-86-3144</t>
+          <t>501-61-1753</t>
         </is>
       </c>
       <c r="C614" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D614" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E614" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F614" s="10" t="inlineStr">
@@ -46268,51 +46268,51 @@
       </c>
       <c r="G614" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H614" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>63.15</v>
       </c>
       <c r="I614" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J614" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="K614" s="10" t="n">
-        <v>78.00449999999999</v>
+        <v>397.845</v>
       </c>
       <c r="L614" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M614" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:24:00</t>
         </is>
       </c>
       <c r="N614" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O614" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>378.9</v>
       </c>
       <c r="P614" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q614" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="R614" s="10" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S614" s="7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T614" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="615" ht="12.75" customHeight="1" s="11">
@@ -47143,17 +47143,17 @@
     <row r="626" ht="12.75" customHeight="1" s="11">
       <c r="B626" s="10" t="inlineStr">
         <is>
-          <t>886-54-6089</t>
+          <t>137-63-5492</t>
         </is>
       </c>
       <c r="C626" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D626" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E626" s="10" t="inlineStr">
@@ -47163,72 +47163,72 @@
       </c>
       <c r="F626" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G626" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H626" s="10" t="n">
-        <v>11.43</v>
+        <v>58.76</v>
       </c>
       <c r="I626" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J626" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="K626" s="10" t="n">
-        <v>72.009</v>
+        <v>616.98</v>
       </c>
       <c r="L626" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M626" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N626" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O626" s="10" t="n">
-        <v>68.58</v>
+        <v>587.6</v>
       </c>
       <c r="P626" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q626" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="R626" s="10" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="S626" s="7" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="T626" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="627" ht="12.75" customHeight="1" s="11">
       <c r="B627" s="10" t="inlineStr">
         <is>
-          <t>137-63-5492</t>
+          <t>886-54-6089</t>
         </is>
       </c>
       <c r="C627" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D627" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E627" s="10" t="inlineStr">
@@ -47238,62 +47238,62 @@
       </c>
       <c r="F627" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G627" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H627" s="10" t="n">
-        <v>58.76</v>
+        <v>11.43</v>
       </c>
       <c r="I627" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J627" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="K627" s="10" t="n">
-        <v>616.98</v>
+        <v>72.009</v>
       </c>
       <c r="L627" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M627" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N627" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O627" s="10" t="n">
-        <v>587.6</v>
+        <v>68.58</v>
       </c>
       <c r="P627" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q627" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="R627" s="10" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="S627" s="7" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="T627" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="628" ht="12.75" customHeight="1" s="11">
       <c r="B628" s="10" t="inlineStr">
         <is>
-          <t>608-05-3804</t>
+          <t>214-30-2776</t>
         </is>
       </c>
       <c r="C628" s="10" t="inlineStr">
@@ -47303,7 +47303,7 @@
       </c>
       <c r="D628" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E628" s="10" t="inlineStr">
@@ -47313,7 +47313,7 @@
       </c>
       <c r="F628" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G628" s="10" t="inlineStr">
@@ -47322,53 +47322,53 @@
         </is>
       </c>
       <c r="H628" s="10" t="n">
-        <v>39.75</v>
+        <v>34.49</v>
       </c>
       <c r="I628" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J628" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="K628" s="10" t="n">
-        <v>41.7375</v>
+        <v>181.0725</v>
       </c>
       <c r="L628" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M628" s="9" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>19:44:00</t>
         </is>
       </c>
       <c r="N628" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O628" s="10" t="n">
-        <v>39.75</v>
+        <v>172.45</v>
       </c>
       <c r="P628" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q628" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="R628" s="10" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="S628" s="7" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="T628" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="629" ht="12.75" customHeight="1" s="11">
       <c r="B629" s="10" t="inlineStr">
         <is>
-          <t>214-30-2776</t>
+          <t>853-23-2453</t>
         </is>
       </c>
       <c r="C629" s="10" t="inlineStr">
@@ -47378,7 +47378,7 @@
       </c>
       <c r="D629" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E629" s="10" t="inlineStr">
@@ -47388,62 +47388,62 @@
       </c>
       <c r="F629" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G629" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H629" s="10" t="n">
-        <v>34.49</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="I629" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J629" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="K629" s="10" t="n">
-        <v>181.0725</v>
+        <v>318.108</v>
       </c>
       <c r="L629" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M629" s="9" t="inlineStr">
         <is>
-          <t>19:44:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N629" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O629" s="10" t="n">
-        <v>172.45</v>
+        <v>302.96</v>
       </c>
       <c r="P629" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q629" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="R629" s="10" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="S629" s="7" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T629" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="630" ht="12.75" customHeight="1" s="11">
       <c r="B630" s="10" t="inlineStr">
         <is>
-          <t>853-23-2453</t>
+          <t>608-05-3804</t>
         </is>
       </c>
       <c r="C630" s="10" t="inlineStr">
@@ -47453,7 +47453,7 @@
       </c>
       <c r="D630" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E630" s="10" t="inlineStr">
@@ -47468,27 +47468,27 @@
       </c>
       <c r="G630" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H630" s="10" t="n">
-        <v>75.73999999999999</v>
+        <v>39.75</v>
       </c>
       <c r="I630" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J630" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="K630" s="10" t="n">
-        <v>318.108</v>
+        <v>41.7375</v>
       </c>
       <c r="L630" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M630" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>20:19:00</t>
         </is>
       </c>
       <c r="N630" s="10" t="inlineStr">
@@ -47497,28 +47497,28 @@
         </is>
       </c>
       <c r="O630" s="10" t="n">
-        <v>302.96</v>
+        <v>39.75</v>
       </c>
       <c r="P630" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q630" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="R630" s="10" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="S630" s="7" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="T630" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="631" ht="12.75" customHeight="1" s="11">
       <c r="B631" s="10" t="inlineStr">
         <is>
-          <t>299-29-0180</t>
+          <t>110-48-7033</t>
         </is>
       </c>
       <c r="C631" s="10" t="inlineStr">
@@ -47528,7 +47528,7 @@
       </c>
       <c r="D631" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E631" s="10" t="inlineStr">
@@ -47538,32 +47538,32 @@
       </c>
       <c r="F631" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G631" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H631" s="10" t="n">
-        <v>52.18</v>
+        <v>32.62</v>
       </c>
       <c r="I631" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J631" s="10" t="n">
-        <v>18.263</v>
+        <v>6.524</v>
       </c>
       <c r="K631" s="10" t="n">
-        <v>383.523</v>
+        <v>137.004</v>
       </c>
       <c r="L631" s="13" t="n">
         <v>45334</v>
       </c>
       <c r="M631" s="9" t="inlineStr">
         <is>
-          <t>10:54:00</t>
+          <t>14:12:00</t>
         </is>
       </c>
       <c r="N631" s="10" t="inlineStr">
@@ -47572,28 +47572,28 @@
         </is>
       </c>
       <c r="O631" s="10" t="n">
-        <v>365.26</v>
+        <v>130.48</v>
       </c>
       <c r="P631" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q631" s="10" t="n">
-        <v>18.263</v>
+        <v>6.524</v>
       </c>
       <c r="R631" s="10" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S631" s="7" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T631" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632" ht="12.75" customHeight="1" s="11">
       <c r="B632" s="10" t="inlineStr">
         <is>
-          <t>110-48-7033</t>
+          <t>299-29-0180</t>
         </is>
       </c>
       <c r="C632" s="10" t="inlineStr">
@@ -47603,7 +47603,7 @@
       </c>
       <c r="D632" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E632" s="10" t="inlineStr">
@@ -47613,32 +47613,32 @@
       </c>
       <c r="F632" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G632" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H632" s="10" t="n">
-        <v>32.62</v>
+        <v>52.18</v>
       </c>
       <c r="I632" s="10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J632" s="10" t="n">
-        <v>6.524</v>
+        <v>18.263</v>
       </c>
       <c r="K632" s="10" t="n">
-        <v>137.004</v>
+        <v>383.523</v>
       </c>
       <c r="L632" s="13" t="n">
         <v>45334</v>
       </c>
       <c r="M632" s="9" t="inlineStr">
         <is>
-          <t>14:12:00</t>
+          <t>10:54:00</t>
         </is>
       </c>
       <c r="N632" s="10" t="inlineStr">
@@ -47647,22 +47647,22 @@
         </is>
       </c>
       <c r="O632" s="10" t="n">
-        <v>130.48</v>
+        <v>365.26</v>
       </c>
       <c r="P632" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q632" s="10" t="n">
-        <v>6.524</v>
+        <v>18.263</v>
       </c>
       <c r="R632" s="10" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S632" s="7" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="T632" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633" ht="12.75" customHeight="1" s="11">
@@ -48718,17 +48718,17 @@
     <row r="647" ht="12.75" customHeight="1" s="11">
       <c r="B647" s="10" t="inlineStr">
         <is>
-          <t>630-74-5166</t>
+          <t>616-87-0016</t>
         </is>
       </c>
       <c r="C647" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D647" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E647" s="10" t="inlineStr">
@@ -48743,67 +48743,67 @@
       </c>
       <c r="G647" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H647" s="10" t="n">
-        <v>62.13</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="I647" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J647" s="10" t="n">
-        <v>18.639</v>
+        <v>33.439</v>
       </c>
       <c r="K647" s="10" t="n">
-        <v>391.419</v>
+        <v>702.2190000000001</v>
       </c>
       <c r="L647" s="13" t="n">
         <v>45347</v>
       </c>
       <c r="M647" s="9" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>14:36:00</t>
         </is>
       </c>
       <c r="N647" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O647" s="10" t="n">
-        <v>372.78</v>
+        <v>668.78</v>
       </c>
       <c r="P647" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q647" s="10" t="n">
-        <v>18.639</v>
+        <v>33.439</v>
       </c>
       <c r="R647" s="10" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="S647" s="7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T647" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648" ht="12.75" customHeight="1" s="11">
       <c r="B648" s="10" t="inlineStr">
         <is>
-          <t>616-87-0016</t>
+          <t>630-74-5166</t>
         </is>
       </c>
       <c r="C648" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D648" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E648" s="10" t="inlineStr">
@@ -48818,51 +48818,51 @@
       </c>
       <c r="G648" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H648" s="10" t="n">
-        <v>95.54000000000001</v>
+        <v>62.13</v>
       </c>
       <c r="I648" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J648" s="10" t="n">
-        <v>33.439</v>
+        <v>18.639</v>
       </c>
       <c r="K648" s="10" t="n">
-        <v>702.2190000000001</v>
+        <v>391.419</v>
       </c>
       <c r="L648" s="13" t="n">
         <v>45347</v>
       </c>
       <c r="M648" s="9" t="inlineStr">
         <is>
-          <t>14:36:00</t>
+          <t>20:19:00</t>
         </is>
       </c>
       <c r="N648" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O648" s="10" t="n">
-        <v>668.78</v>
+        <v>372.78</v>
       </c>
       <c r="P648" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q648" s="10" t="n">
-        <v>33.439</v>
+        <v>18.639</v>
       </c>
       <c r="R648" s="10" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="S648" s="7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T648" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="649" ht="12.75" customHeight="1" s="11">
@@ -49843,151 +49843,151 @@
     <row r="662" ht="12.75" customHeight="1" s="11">
       <c r="B662" s="10" t="inlineStr">
         <is>
-          <t>219-61-4139</t>
+          <t>274-05-5470</t>
         </is>
       </c>
       <c r="C662" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D662" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E662" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F662" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G662" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H662" s="10" t="n">
-        <v>83.08</v>
+        <v>73.47</v>
       </c>
       <c r="I662" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J662" s="10" t="n">
-        <v>4.154</v>
+        <v>14.694</v>
       </c>
       <c r="K662" s="10" t="n">
-        <v>87.23399999999999</v>
+        <v>308.574</v>
       </c>
       <c r="L662" s="13" t="n">
         <v>45373</v>
       </c>
       <c r="M662" s="9" t="inlineStr">
         <is>
-          <t>17:16:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="N662" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O662" s="10" t="n">
-        <v>83.08</v>
+        <v>293.88</v>
       </c>
       <c r="P662" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q662" s="10" t="n">
-        <v>4.154</v>
+        <v>14.694</v>
       </c>
       <c r="R662" s="10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="S662" s="7" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T662" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="663" ht="12.75" customHeight="1" s="11">
       <c r="B663" s="10" t="inlineStr">
         <is>
-          <t>274-05-5470</t>
+          <t>219-61-4139</t>
         </is>
       </c>
       <c r="C663" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D663" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E663" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F663" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G663" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H663" s="10" t="n">
-        <v>73.47</v>
+        <v>83.08</v>
       </c>
       <c r="I663" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J663" s="10" t="n">
-        <v>14.694</v>
+        <v>4.154</v>
       </c>
       <c r="K663" s="10" t="n">
-        <v>308.574</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="L663" s="13" t="n">
         <v>45373</v>
       </c>
       <c r="M663" s="9" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:16:00</t>
         </is>
       </c>
       <c r="N663" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O663" s="10" t="n">
-        <v>293.88</v>
+        <v>83.08</v>
       </c>
       <c r="P663" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q663" s="10" t="n">
-        <v>14.694</v>
+        <v>4.154</v>
       </c>
       <c r="R663" s="10" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="S663" s="7" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="T663" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="664" ht="12.75" customHeight="1" s="11">
@@ -50968,22 +50968,22 @@
     <row r="677" ht="12.75" customHeight="1" s="11">
       <c r="B677" s="10" t="inlineStr">
         <is>
-          <t>631-41-3108</t>
+          <t>525-88-7307</t>
         </is>
       </c>
       <c r="C677" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D677" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E677" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F677" s="10" t="inlineStr">
@@ -50993,48 +50993,48 @@
       </c>
       <c r="G677" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H677" s="10" t="n">
-        <v>46.33</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="I677" s="10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J677" s="10" t="n">
-        <v>16.2155</v>
+        <v>3.791</v>
       </c>
       <c r="K677" s="10" t="n">
-        <v>340.5255</v>
+        <v>79.611</v>
       </c>
       <c r="L677" s="13" t="n">
         <v>45389</v>
       </c>
       <c r="M677" s="9" t="inlineStr">
         <is>
-          <t>13:23:00</t>
+          <t>13:19:00</t>
         </is>
       </c>
       <c r="N677" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O677" s="10" t="n">
-        <v>324.31</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="P677" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q677" s="10" t="n">
-        <v>16.2155</v>
+        <v>3.791</v>
       </c>
       <c r="R677" s="10" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="S677" s="7" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="T677" s="0" t="n">
         <v>13</v>
@@ -51043,22 +51043,22 @@
     <row r="678" ht="12.75" customHeight="1" s="11">
       <c r="B678" s="10" t="inlineStr">
         <is>
-          <t>525-88-7307</t>
+          <t>631-41-3108</t>
         </is>
       </c>
       <c r="C678" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D678" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E678" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F678" s="10" t="inlineStr">
@@ -51068,48 +51068,48 @@
       </c>
       <c r="G678" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H678" s="10" t="n">
-        <v>75.81999999999999</v>
+        <v>46.33</v>
       </c>
       <c r="I678" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J678" s="10" t="n">
-        <v>3.791</v>
+        <v>16.2155</v>
       </c>
       <c r="K678" s="10" t="n">
-        <v>79.611</v>
+        <v>340.5255</v>
       </c>
       <c r="L678" s="13" t="n">
         <v>45389</v>
       </c>
       <c r="M678" s="9" t="inlineStr">
         <is>
-          <t>13:19:00</t>
+          <t>13:23:00</t>
         </is>
       </c>
       <c r="N678" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O678" s="10" t="n">
-        <v>75.81999999999999</v>
+        <v>324.31</v>
       </c>
       <c r="P678" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q678" s="10" t="n">
-        <v>3.791</v>
+        <v>16.2155</v>
       </c>
       <c r="R678" s="10" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="S678" s="7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="T678" s="0" t="n">
         <v>13</v>
@@ -56818,17 +56818,17 @@
     <row r="755" ht="12.75" customHeight="1" s="11">
       <c r="B755" s="10" t="inlineStr">
         <is>
-          <t>114-35-5271</t>
+          <t>345-08-4992</t>
         </is>
       </c>
       <c r="C755" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D755" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E755" s="10" t="inlineStr">
@@ -56838,53 +56838,53 @@
       </c>
       <c r="F755" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G755" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H755" s="10" t="n">
-        <v>57.91</v>
+        <v>33.99</v>
       </c>
       <c r="I755" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J755" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="K755" s="10" t="n">
-        <v>486.444</v>
+        <v>214.137</v>
       </c>
       <c r="L755" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M755" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:37:00</t>
         </is>
       </c>
       <c r="N755" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O755" s="10" t="n">
-        <v>463.28</v>
+        <v>203.94</v>
       </c>
       <c r="P755" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q755" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="R755" s="10" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="S755" s="7" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T755" s="0" t="n">
         <v>15</v>
@@ -56893,17 +56893,17 @@
     <row r="756" ht="12.75" customHeight="1" s="11">
       <c r="B756" s="10" t="inlineStr">
         <is>
-          <t>345-08-4992</t>
+          <t>114-35-5271</t>
         </is>
       </c>
       <c r="C756" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D756" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E756" s="10" t="inlineStr">
@@ -56913,53 +56913,53 @@
       </c>
       <c r="F756" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G756" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H756" s="10" t="n">
-        <v>33.99</v>
+        <v>57.91</v>
       </c>
       <c r="I756" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J756" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="K756" s="10" t="n">
-        <v>214.137</v>
+        <v>486.444</v>
       </c>
       <c r="L756" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M756" s="9" t="inlineStr">
         <is>
-          <t>15:37:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N756" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O756" s="10" t="n">
-        <v>203.94</v>
+        <v>463.28</v>
       </c>
       <c r="P756" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q756" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="R756" s="10" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="S756" s="7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T756" s="0" t="n">
         <v>15</v>
@@ -56968,22 +56968,22 @@
     <row r="757" ht="12.75" customHeight="1" s="11">
       <c r="B757" s="10" t="inlineStr">
         <is>
-          <t>531-80-1784</t>
+          <t>608-27-6295</t>
         </is>
       </c>
       <c r="C757" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D757" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E757" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F757" s="10" t="inlineStr">
@@ -56997,44 +56997,44 @@
         </is>
       </c>
       <c r="H757" s="10" t="n">
-        <v>26.02</v>
+        <v>52.89</v>
       </c>
       <c r="I757" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J757" s="10" t="n">
-        <v>9.106999999999999</v>
+        <v>15.867</v>
       </c>
       <c r="K757" s="10" t="n">
-        <v>191.247</v>
+        <v>333.207</v>
       </c>
       <c r="L757" s="13" t="n">
         <v>45478</v>
       </c>
       <c r="M757" s="9" t="inlineStr">
         <is>
-          <t>17:38:00</t>
+          <t>17:34:00</t>
         </is>
       </c>
       <c r="N757" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O757" s="10" t="n">
-        <v>182.14</v>
+        <v>317.34</v>
       </c>
       <c r="P757" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q757" s="10" t="n">
-        <v>9.106999999999999</v>
+        <v>15.867</v>
       </c>
       <c r="R757" s="10" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S757" s="7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="T757" s="0" t="n">
         <v>17</v>
@@ -57043,22 +57043,22 @@
     <row r="758" ht="12.75" customHeight="1" s="11">
       <c r="B758" s="10" t="inlineStr">
         <is>
-          <t>608-27-6295</t>
+          <t>531-80-1784</t>
         </is>
       </c>
       <c r="C758" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D758" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E758" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F758" s="10" t="inlineStr">
@@ -57072,44 +57072,44 @@
         </is>
       </c>
       <c r="H758" s="10" t="n">
-        <v>52.89</v>
+        <v>26.02</v>
       </c>
       <c r="I758" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J758" s="10" t="n">
-        <v>15.867</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="K758" s="10" t="n">
-        <v>333.207</v>
+        <v>191.247</v>
       </c>
       <c r="L758" s="13" t="n">
         <v>45478</v>
       </c>
       <c r="M758" s="9" t="inlineStr">
         <is>
-          <t>17:34:00</t>
+          <t>17:38:00</t>
         </is>
       </c>
       <c r="N758" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O758" s="10" t="n">
-        <v>317.34</v>
+        <v>182.14</v>
       </c>
       <c r="P758" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q758" s="10" t="n">
-        <v>15.867</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="R758" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="S758" s="7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T758" s="0" t="n">
         <v>17</v>
@@ -58093,17 +58093,17 @@
     <row r="772" ht="12.75" customHeight="1" s="11">
       <c r="B772" s="10" t="inlineStr">
         <is>
-          <t>401-09-4232</t>
+          <t>105-10-6182</t>
         </is>
       </c>
       <c r="C772" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D772" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E772" s="10" t="inlineStr">
@@ -58118,27 +58118,27 @@
       </c>
       <c r="G772" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H772" s="10" t="n">
-        <v>86.69</v>
+        <v>21.48</v>
       </c>
       <c r="I772" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J772" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="K772" s="10" t="n">
-        <v>455.1225</v>
+        <v>45.108</v>
       </c>
       <c r="L772" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M772" s="9" t="inlineStr">
         <is>
-          <t>18:38:00</t>
+          <t>12:22:00</t>
         </is>
       </c>
       <c r="N772" s="10" t="inlineStr">
@@ -58147,38 +58147,38 @@
         </is>
       </c>
       <c r="O772" s="10" t="n">
-        <v>433.45</v>
+        <v>42.96</v>
       </c>
       <c r="P772" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q772" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="R772" s="10" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="S772" s="7" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="T772" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="773" ht="12.75" customHeight="1" s="11">
       <c r="B773" s="10" t="inlineStr">
         <is>
-          <t>105-10-6182</t>
+          <t>401-09-4232</t>
         </is>
       </c>
       <c r="C773" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D773" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E773" s="10" t="inlineStr">
@@ -58193,27 +58193,27 @@
       </c>
       <c r="G773" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H773" s="10" t="n">
-        <v>21.48</v>
+        <v>86.69</v>
       </c>
       <c r="I773" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J773" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="K773" s="10" t="n">
-        <v>45.108</v>
+        <v>455.1225</v>
       </c>
       <c r="L773" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M773" s="9" t="inlineStr">
         <is>
-          <t>12:22:00</t>
+          <t>18:38:00</t>
         </is>
       </c>
       <c r="N773" s="10" t="inlineStr">
@@ -58222,22 +58222,22 @@
         </is>
       </c>
       <c r="O773" s="10" t="n">
-        <v>42.96</v>
+        <v>433.45</v>
       </c>
       <c r="P773" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q773" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="R773" s="10" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="S773" s="7" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="T773" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774" ht="12.75" customHeight="1" s="11">
@@ -59218,7 +59218,7 @@
     <row r="787" ht="12.75" customHeight="1" s="11">
       <c r="B787" s="10" t="inlineStr">
         <is>
-          <t>560-30-5617</t>
+          <t>869-11-3082</t>
         </is>
       </c>
       <c r="C787" s="10" t="inlineStr">
@@ -59228,66 +59228,66 @@
       </c>
       <c r="D787" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E787" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F787" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G787" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H787" s="10" t="n">
-        <v>24.77</v>
+        <v>96.16</v>
       </c>
       <c r="I787" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J787" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="K787" s="10" t="n">
-        <v>130.0425</v>
+        <v>403.872</v>
       </c>
       <c r="L787" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M787" s="9" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>20:03:00</t>
         </is>
       </c>
       <c r="N787" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O787" s="10" t="n">
-        <v>123.85</v>
+        <v>384.64</v>
       </c>
       <c r="P787" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q787" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="R787" s="10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S787" s="7" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="T787" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="788" ht="12.75" customHeight="1" s="11">
@@ -59368,7 +59368,7 @@
     <row r="789" ht="12.75" customHeight="1" s="11">
       <c r="B789" s="10" t="inlineStr">
         <is>
-          <t>869-11-3082</t>
+          <t>560-30-5617</t>
         </is>
       </c>
       <c r="C789" s="10" t="inlineStr">
@@ -59378,66 +59378,66 @@
       </c>
       <c r="D789" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E789" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F789" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G789" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H789" s="10" t="n">
-        <v>96.16</v>
+        <v>24.77</v>
       </c>
       <c r="I789" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J789" s="10" t="n">
-        <v>19.232</v>
+        <v>6.1925</v>
       </c>
       <c r="K789" s="10" t="n">
-        <v>403.872</v>
+        <v>130.0425</v>
       </c>
       <c r="L789" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M789" s="9" t="inlineStr">
         <is>
-          <t>20:03:00</t>
+          <t>18:27:00</t>
         </is>
       </c>
       <c r="N789" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O789" s="10" t="n">
-        <v>384.64</v>
+        <v>123.85</v>
       </c>
       <c r="P789" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q789" s="10" t="n">
-        <v>19.232</v>
+        <v>6.1925</v>
       </c>
       <c r="R789" s="10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S789" s="7" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="T789" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="790" ht="12.75" customHeight="1" s="11">
@@ -60343,17 +60343,17 @@
     <row r="802" ht="12.75" customHeight="1" s="11">
       <c r="B802" s="10" t="inlineStr">
         <is>
-          <t>714-02-3114</t>
+          <t>696-90-2548</t>
         </is>
       </c>
       <c r="C802" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D802" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E802" s="10" t="inlineStr">
@@ -60363,7 +60363,7 @@
       </c>
       <c r="F802" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G802" s="10" t="inlineStr">
@@ -60372,63 +60372,63 @@
         </is>
       </c>
       <c r="H802" s="10" t="n">
-        <v>98.8</v>
+        <v>25.84</v>
       </c>
       <c r="I802" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J802" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="K802" s="10" t="n">
-        <v>207.48</v>
+        <v>81.396</v>
       </c>
       <c r="L802" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M802" s="9" t="inlineStr">
         <is>
-          <t>11:39:00</t>
+          <t>18:55:00</t>
         </is>
       </c>
       <c r="N802" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O802" s="10" t="n">
-        <v>197.6</v>
+        <v>77.52</v>
       </c>
       <c r="P802" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q802" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="R802" s="10" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="S802" s="7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T802" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="803" ht="12.75" customHeight="1" s="11">
       <c r="B803" s="10" t="inlineStr">
         <is>
-          <t>696-90-2548</t>
+          <t>714-02-3114</t>
         </is>
       </c>
       <c r="C803" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D803" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E803" s="10" t="inlineStr">
@@ -60438,7 +60438,7 @@
       </c>
       <c r="F803" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G803" s="10" t="inlineStr">
@@ -60447,47 +60447,47 @@
         </is>
       </c>
       <c r="H803" s="10" t="n">
-        <v>25.84</v>
+        <v>98.8</v>
       </c>
       <c r="I803" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J803" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K803" s="10" t="n">
-        <v>81.396</v>
+        <v>207.48</v>
       </c>
       <c r="L803" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M803" s="9" t="inlineStr">
         <is>
-          <t>18:55:00</t>
+          <t>11:39:00</t>
         </is>
       </c>
       <c r="N803" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O803" s="10" t="n">
-        <v>77.52</v>
+        <v>197.6</v>
       </c>
       <c r="P803" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q803" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="R803" s="10" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="S803" s="7" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T803" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="804" ht="12.75" customHeight="1" s="11">
@@ -63943,12 +63943,12 @@
     <row r="850" ht="12.75" customHeight="1" s="11">
       <c r="B850" s="10" t="inlineStr">
         <is>
-          <t>576-31-4774</t>
+          <t>865-92-6136</t>
         </is>
       </c>
       <c r="C850" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D850" s="7" t="inlineStr">
@@ -63963,32 +63963,32 @@
       </c>
       <c r="F850" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G850" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H850" s="10" t="n">
-        <v>73.41</v>
+        <v>52.75</v>
       </c>
       <c r="I850" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J850" s="10" t="n">
-        <v>11.0115</v>
+        <v>7.9125</v>
       </c>
       <c r="K850" s="10" t="n">
-        <v>231.2415</v>
+        <v>166.1625</v>
       </c>
       <c r="L850" s="13" t="n">
         <v>45586</v>
       </c>
       <c r="M850" s="9" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>10:16:00</t>
         </is>
       </c>
       <c r="N850" s="10" t="inlineStr">
@@ -63997,33 +63997,33 @@
         </is>
       </c>
       <c r="O850" s="10" t="n">
-        <v>220.23</v>
+        <v>158.25</v>
       </c>
       <c r="P850" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q850" s="10" t="n">
-        <v>11.0115</v>
+        <v>7.9125</v>
       </c>
       <c r="R850" s="10" t="n">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S850" s="7" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="T850" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="851" ht="12.75" customHeight="1" s="11">
       <c r="B851" s="10" t="inlineStr">
         <is>
-          <t>865-92-6136</t>
+          <t>576-31-4774</t>
         </is>
       </c>
       <c r="C851" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D851" s="7" t="inlineStr">
@@ -64038,32 +64038,32 @@
       </c>
       <c r="F851" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G851" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H851" s="10" t="n">
-        <v>52.75</v>
+        <v>73.41</v>
       </c>
       <c r="I851" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J851" s="10" t="n">
-        <v>7.9125</v>
+        <v>11.0115</v>
       </c>
       <c r="K851" s="10" t="n">
-        <v>166.1625</v>
+        <v>231.2415</v>
       </c>
       <c r="L851" s="13" t="n">
         <v>45586</v>
       </c>
       <c r="M851" s="9" t="inlineStr">
         <is>
-          <t>10:16:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="N851" s="10" t="inlineStr">
@@ -64072,22 +64072,22 @@
         </is>
       </c>
       <c r="O851" s="10" t="n">
-        <v>158.25</v>
+        <v>220.23</v>
       </c>
       <c r="P851" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q851" s="10" t="n">
-        <v>7.9125</v>
+        <v>11.0115</v>
       </c>
       <c r="R851" s="10" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="S851" s="7" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="T851" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="852" ht="12.75" customHeight="1" s="11">
@@ -66193,22 +66193,22 @@
     <row r="880" ht="12.75" customHeight="1" s="11">
       <c r="B880" s="10" t="inlineStr">
         <is>
-          <t>633-91-1052</t>
+          <t>135-13-8269</t>
         </is>
       </c>
       <c r="C880" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D880" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E880" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F880" s="10" t="inlineStr">
@@ -66218,27 +66218,27 @@
       </c>
       <c r="G880" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H880" s="10" t="n">
-        <v>12.03</v>
+        <v>78.88</v>
       </c>
       <c r="I880" s="10" t="n">
         <v>2</v>
       </c>
       <c r="J880" s="10" t="n">
-        <v>1.203</v>
+        <v>7.888</v>
       </c>
       <c r="K880" s="10" t="n">
-        <v>25.263</v>
+        <v>165.648</v>
       </c>
       <c r="L880" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M880" s="9" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:04:00</t>
         </is>
       </c>
       <c r="N880" s="10" t="inlineStr">
@@ -66247,38 +66247,38 @@
         </is>
       </c>
       <c r="O880" s="10" t="n">
-        <v>24.06</v>
+        <v>157.76</v>
       </c>
       <c r="P880" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q880" s="10" t="n">
-        <v>1.203</v>
+        <v>7.888</v>
       </c>
       <c r="R880" s="10" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="S880" s="7" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T880" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="881" ht="12.75" customHeight="1" s="11">
       <c r="B881" s="10" t="inlineStr">
         <is>
-          <t>135-13-8269</t>
+          <t>807-14-7833</t>
         </is>
       </c>
       <c r="C881" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D881" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E881" s="10" t="inlineStr">
@@ -66293,57 +66293,57 @@
       </c>
       <c r="G881" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H881" s="10" t="n">
-        <v>78.88</v>
+        <v>17.42</v>
       </c>
       <c r="I881" s="10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J881" s="10" t="n">
-        <v>7.888</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K881" s="10" t="n">
-        <v>165.648</v>
+        <v>182.91</v>
       </c>
       <c r="L881" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M881" s="9" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="N881" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O881" s="10" t="n">
-        <v>157.76</v>
+        <v>174.2</v>
       </c>
       <c r="P881" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q881" s="10" t="n">
-        <v>7.888</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="R881" s="10" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="S881" s="7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T881" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="882" ht="12.75" customHeight="1" s="11">
       <c r="B882" s="10" t="inlineStr">
         <is>
-          <t>807-14-7833</t>
+          <t>633-91-1052</t>
         </is>
       </c>
       <c r="C882" s="10" t="inlineStr">
@@ -66353,12 +66353,12 @@
       </c>
       <c r="D882" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E882" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F882" s="10" t="inlineStr">
@@ -66368,51 +66368,51 @@
       </c>
       <c r="G882" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H882" s="10" t="n">
-        <v>17.42</v>
+        <v>12.03</v>
       </c>
       <c r="I882" s="10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J882" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>1.203</v>
       </c>
       <c r="K882" s="10" t="n">
-        <v>182.91</v>
+        <v>25.263</v>
       </c>
       <c r="L882" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M882" s="9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:51:00</t>
         </is>
       </c>
       <c r="N882" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O882" s="10" t="n">
-        <v>174.2</v>
+        <v>24.06</v>
       </c>
       <c r="P882" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q882" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>1.203</v>
       </c>
       <c r="R882" s="10" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="S882" s="7" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T882" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="883" ht="12.75" customHeight="1" s="11">
@@ -69643,52 +69643,52 @@
     <row r="926" ht="12.75" customHeight="1" s="11">
       <c r="B926" s="10" t="inlineStr">
         <is>
-          <t>374-38-5555</t>
+          <t>856-66-2701</t>
         </is>
       </c>
       <c r="C926" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D926" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E926" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F926" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G926" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H926" s="10" t="n">
-        <v>63.71</v>
+        <v>53.3</v>
       </c>
       <c r="I926" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J926" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="K926" s="10" t="n">
-        <v>334.4775</v>
+        <v>167.895</v>
       </c>
       <c r="L926" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M926" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:19:00</t>
         </is>
       </c>
       <c r="N926" s="10" t="inlineStr">
@@ -69697,73 +69697,73 @@
         </is>
       </c>
       <c r="O926" s="10" t="n">
-        <v>318.55</v>
+        <v>159.9</v>
       </c>
       <c r="P926" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q926" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="R926" s="10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S926" s="7" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T926" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="927" ht="12.75" customHeight="1" s="11">
       <c r="B927" s="10" t="inlineStr">
         <is>
-          <t>856-66-2701</t>
+          <t>374-38-5555</t>
         </is>
       </c>
       <c r="C927" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D927" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E927" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F927" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G927" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H927" s="10" t="n">
-        <v>53.3</v>
+        <v>63.71</v>
       </c>
       <c r="I927" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J927" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="K927" s="10" t="n">
-        <v>167.895</v>
+        <v>334.4775</v>
       </c>
       <c r="L927" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M927" s="9" t="inlineStr">
         <is>
-          <t>14:19:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N927" s="10" t="inlineStr">
@@ -69772,22 +69772,22 @@
         </is>
       </c>
       <c r="O927" s="10" t="n">
-        <v>159.9</v>
+        <v>318.55</v>
       </c>
       <c r="P927" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q927" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="R927" s="10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="S927" s="7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T927" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="928" ht="12.75" customHeight="1" s="11">
@@ -72043,22 +72043,22 @@
     <row r="958" ht="12.75" customHeight="1" s="11">
       <c r="B958" s="10" t="inlineStr">
         <is>
-          <t>347-72-6115</t>
+          <t>605-72-4132</t>
         </is>
       </c>
       <c r="C958" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D958" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E958" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F958" s="10" t="inlineStr">
@@ -72068,57 +72068,57 @@
       </c>
       <c r="G958" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H958" s="10" t="n">
-        <v>90.73999999999999</v>
+        <v>94.47</v>
       </c>
       <c r="I958" s="10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J958" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="K958" s="10" t="n">
-        <v>666.939</v>
+        <v>793.548</v>
       </c>
       <c r="L958" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M958" s="9" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>15:12:00</t>
         </is>
       </c>
       <c r="N958" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O958" s="10" t="n">
-        <v>635.1799999999999</v>
+        <v>755.76</v>
       </c>
       <c r="P958" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q958" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="R958" s="10" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="S958" s="7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T958" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="959" ht="12.75" customHeight="1" s="11">
       <c r="B959" s="10" t="inlineStr">
         <is>
-          <t>291-21-5991</t>
+          <t>347-72-6115</t>
         </is>
       </c>
       <c r="C959" s="10" t="inlineStr">
@@ -72128,7 +72128,7 @@
       </c>
       <c r="D959" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E959" s="10" t="inlineStr">
@@ -72138,107 +72138,107 @@
       </c>
       <c r="F959" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G959" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H959" s="10" t="n">
-        <v>61.29</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="I959" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J959" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="K959" s="10" t="n">
-        <v>321.7725</v>
+        <v>666.939</v>
       </c>
       <c r="L959" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M959" s="9" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>18:03:00</t>
         </is>
       </c>
       <c r="N959" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O959" s="10" t="n">
-        <v>306.45</v>
+        <v>635.1799999999999</v>
       </c>
       <c r="P959" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q959" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="R959" s="10" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="S959" s="7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="T959" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="960" ht="12.75" customHeight="1" s="11">
       <c r="B960" s="10" t="inlineStr">
         <is>
-          <t>605-72-4132</t>
+          <t>291-21-5991</t>
         </is>
       </c>
       <c r="C960" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D960" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E960" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F960" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G960" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H960" s="10" t="n">
-        <v>94.47</v>
+        <v>61.29</v>
       </c>
       <c r="I960" s="10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J960" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="K960" s="10" t="n">
-        <v>793.548</v>
+        <v>321.7725</v>
       </c>
       <c r="L960" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M960" s="9" t="inlineStr">
         <is>
-          <t>15:12:00</t>
+          <t>14:28:00</t>
         </is>
       </c>
       <c r="N960" s="10" t="inlineStr">
@@ -72247,22 +72247,22 @@
         </is>
       </c>
       <c r="O960" s="10" t="n">
-        <v>755.76</v>
+        <v>306.45</v>
       </c>
       <c r="P960" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q960" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="R960" s="10" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="S960" s="7" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="T960" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="961" ht="12.75" customHeight="1" s="11">
@@ -72868,7 +72868,7 @@
     <row r="969" ht="12.75" customHeight="1" s="11">
       <c r="B969" s="10" t="inlineStr">
         <is>
-          <t>735-32-9839</t>
+          <t>526-86-8552</t>
         </is>
       </c>
       <c r="C969" s="10" t="inlineStr">
@@ -72888,72 +72888,72 @@
       </c>
       <c r="F969" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G969" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H969" s="10" t="n">
-        <v>98.7</v>
+        <v>21.82</v>
       </c>
       <c r="I969" s="10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J969" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="K969" s="10" t="n">
-        <v>829.08</v>
+        <v>229.11</v>
       </c>
       <c r="L969" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M969" s="9" t="inlineStr">
         <is>
-          <t>10:36:00</t>
+          <t>17:36:00</t>
         </is>
       </c>
       <c r="N969" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O969" s="10" t="n">
-        <v>789.6</v>
+        <v>218.2</v>
       </c>
       <c r="P969" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q969" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="R969" s="10" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="S969" s="7" t="n">
         <v>35</v>
       </c>
       <c r="T969" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="970" ht="12.75" customHeight="1" s="11">
       <c r="B970" s="10" t="inlineStr">
         <is>
-          <t>542-41-0513</t>
+          <t>735-32-9839</t>
         </is>
       </c>
       <c r="C970" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D970" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E970" s="10" t="inlineStr">
@@ -72963,72 +72963,72 @@
       </c>
       <c r="F970" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G970" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H970" s="10" t="n">
-        <v>57.49</v>
+        <v>98.7</v>
       </c>
       <c r="I970" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J970" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="K970" s="10" t="n">
-        <v>241.458</v>
+        <v>829.08</v>
       </c>
       <c r="L970" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M970" s="9" t="inlineStr">
         <is>
-          <t>11:57:00</t>
+          <t>10:36:00</t>
         </is>
       </c>
       <c r="N970" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O970" s="10" t="n">
-        <v>229.96</v>
+        <v>789.6</v>
       </c>
       <c r="P970" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q970" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="R970" s="10" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="S970" s="7" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="T970" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="971" ht="12.75" customHeight="1" s="11">
       <c r="B971" s="10" t="inlineStr">
         <is>
-          <t>526-86-8552</t>
+          <t>542-41-0513</t>
         </is>
       </c>
       <c r="C971" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D971" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E971" s="10" t="inlineStr">
@@ -73043,27 +73043,27 @@
       </c>
       <c r="G971" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H971" s="10" t="n">
-        <v>21.82</v>
+        <v>57.49</v>
       </c>
       <c r="I971" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J971" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="K971" s="10" t="n">
-        <v>229.11</v>
+        <v>241.458</v>
       </c>
       <c r="L971" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M971" s="9" t="inlineStr">
         <is>
-          <t>17:36:00</t>
+          <t>11:57:00</t>
         </is>
       </c>
       <c r="N971" s="10" t="inlineStr">
@@ -73072,22 +73072,22 @@
         </is>
       </c>
       <c r="O971" s="10" t="n">
-        <v>218.2</v>
+        <v>229.96</v>
       </c>
       <c r="P971" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q971" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="R971" s="10" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="S971" s="7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="T971" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="972" ht="12.75" customHeight="1" s="11">
@@ -75568,7 +75568,7 @@
     <row r="1005">
       <c r="B1005" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C1005" s="0" t="inlineStr">
@@ -75597,23 +75597,23 @@
         </is>
       </c>
       <c r="H1005" s="0" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I1005" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J1005" s="0" t="n">
-        <v>28</v>
+        <v>8.25</v>
       </c>
       <c r="K1005" s="0" t="n">
-        <v>588</v>
+        <v>173.25</v>
       </c>
       <c r="L1005" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1005" s="0" t="inlineStr">
         <is>
-          <t>19:05:00</t>
+          <t>15:04:00</t>
         </is>
       </c>
       <c r="N1005" s="0" t="inlineStr">
@@ -75622,38 +75622,38 @@
         </is>
       </c>
       <c r="O1005" s="0" t="n">
-        <v>560</v>
+        <v>165</v>
       </c>
       <c r="P1005" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1005" s="0" t="n">
-        <v>28</v>
+        <v>8.25</v>
       </c>
       <c r="R1005" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S1005" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="T1005" t="n">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="T1005" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="1006">
       <c r="B1006" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>333-33-33</t>
         </is>
       </c>
       <c r="C1006" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1006" s="0" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E1006" s="0" t="inlineStr">
@@ -75672,23 +75672,23 @@
         </is>
       </c>
       <c r="H1006" s="0" t="n">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="I1006" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J1006" s="0" t="n">
-        <v>8.25</v>
+        <v>176.25</v>
       </c>
       <c r="K1006" s="0" t="n">
-        <v>173.25</v>
+        <v>3701.25</v>
       </c>
       <c r="L1006" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1006" s="0" t="inlineStr">
         <is>
-          <t>15:04:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="N1006" s="0" t="inlineStr">
@@ -75697,38 +75697,38 @@
         </is>
       </c>
       <c r="O1006" s="0" t="n">
-        <v>165</v>
+        <v>3525</v>
       </c>
       <c r="P1006" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1006" s="0" t="n">
-        <v>8.25</v>
+        <v>176.25</v>
       </c>
       <c r="R1006" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S1006" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="T1006" t="n">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="T1006" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="1007">
       <c r="B1007" s="0" t="inlineStr">
         <is>
-          <t>333-33-33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1007" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D1007" s="0" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E1007" s="0" t="inlineStr">
@@ -75747,23 +75747,23 @@
         </is>
       </c>
       <c r="H1007" s="0" t="n">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="I1007" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J1007" s="0" t="n">
-        <v>176.25</v>
+        <v>28</v>
       </c>
       <c r="K1007" s="0" t="n">
-        <v>3701.25</v>
+        <v>588</v>
       </c>
       <c r="L1007" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1007" s="0" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:05:00</t>
         </is>
       </c>
       <c r="N1007" s="0" t="inlineStr">
@@ -75772,22 +75772,97 @@
         </is>
       </c>
       <c r="O1007" s="0" t="n">
-        <v>3525</v>
+        <v>560</v>
       </c>
       <c r="P1007" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1007" s="0" t="n">
-        <v>176.25</v>
+        <v>28</v>
       </c>
       <c r="R1007" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S1007" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="T1007" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="B1008" s="0" t="inlineStr">
+        <is>
+          <t>4444-44-444</t>
+        </is>
+      </c>
+      <c r="C1008" s="0" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1008" s="0" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E1008" s="0" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1008" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1008" s="0" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1008" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I1008" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S1007" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="T1007" t="n">
-        <v>16</v>
+      <c r="J1008" s="0" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="K1008" s="0" t="n">
+        <v>639.45</v>
+      </c>
+      <c r="L1008" s="14" t="n">
+        <v>45802</v>
+      </c>
+      <c r="M1008" s="0" t="inlineStr">
+        <is>
+          <t>15:02:00</t>
+        </is>
+      </c>
+      <c r="N1008" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1008" s="0" t="n">
+        <v>609</v>
+      </c>
+      <c r="P1008" s="0" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1008" s="0" t="n">
+        <v>30.45000000000005</v>
+      </c>
+      <c r="R1008" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S1008" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="T1008" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -12,10 +12,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T1008"/>
+  <dimension ref="B2:T1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,7 +4019,7 @@
     <row r="51" ht="12.75" customHeight="1" s="11">
       <c r="B51" s="10" t="inlineStr">
         <is>
-          <t>867-47-1948</t>
+          <t>318-81-2368</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr">
@@ -4028,7 +4029,7 @@
       </c>
       <c r="D51" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr">
@@ -4043,27 +4044,27 @@
       </c>
       <c r="G51" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H51" s="10" t="n">
-        <v>15.8</v>
+        <v>46.2</v>
       </c>
       <c r="I51" s="10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J51" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="K51" s="10" t="n">
-        <v>165.9</v>
+        <v>48.51</v>
       </c>
       <c r="L51" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M51" s="9" t="inlineStr">
         <is>
-          <t>12:07:00</t>
+          <t>12:16:00</t>
         </is>
       </c>
       <c r="N51" s="10" t="inlineStr">
@@ -4072,19 +4073,19 @@
         </is>
       </c>
       <c r="O51" s="10" t="n">
-        <v>158</v>
+        <v>46.2</v>
       </c>
       <c r="P51" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q51" s="10" t="n">
-        <v>7.9</v>
+        <v>2.31</v>
       </c>
       <c r="R51" s="10" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="S51" s="7" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>12</v>
@@ -4093,7 +4094,7 @@
     <row r="52" ht="12.75" customHeight="1" s="11">
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>801-88-0346</t>
+          <t>867-47-1948</t>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
@@ -4103,7 +4104,7 @@
       </c>
       <c r="D52" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E52" s="10" t="inlineStr">
@@ -4118,57 +4119,57 @@
       </c>
       <c r="G52" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H52" s="10" t="n">
-        <v>76.06</v>
+        <v>15.8</v>
       </c>
       <c r="I52" s="10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J52" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="K52" s="10" t="n">
-        <v>239.589</v>
+        <v>165.9</v>
       </c>
       <c r="L52" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M52" s="9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:07:00</t>
         </is>
       </c>
       <c r="N52" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O52" s="10" t="n">
-        <v>228.18</v>
+        <v>158</v>
       </c>
       <c r="P52" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q52" s="10" t="n">
-        <v>11.409</v>
+        <v>7.9</v>
       </c>
       <c r="R52" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="S52" s="7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1" s="11">
       <c r="B53" s="10" t="inlineStr">
         <is>
-          <t>318-81-2368</t>
+          <t>801-88-0346</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr">
@@ -4178,7 +4179,7 @@
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E53" s="10" t="inlineStr">
@@ -4193,51 +4194,51 @@
       </c>
       <c r="G53" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H53" s="10" t="n">
-        <v>46.2</v>
+        <v>76.06</v>
       </c>
       <c r="I53" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="K53" s="10" t="n">
-        <v>48.51</v>
+        <v>239.589</v>
       </c>
       <c r="L53" s="13" t="n">
         <v>44609</v>
       </c>
       <c r="M53" s="9" t="inlineStr">
         <is>
-          <t>12:16:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="N53" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O53" s="10" t="n">
-        <v>46.2</v>
+        <v>228.18</v>
       </c>
       <c r="P53" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q53" s="10" t="n">
-        <v>2.31</v>
+        <v>11.409</v>
       </c>
       <c r="R53" s="10" t="n">
-        <v>6.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S53" s="7" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1" s="11">
@@ -5143,22 +5144,22 @@
     <row r="66" ht="12.75" customHeight="1" s="11">
       <c r="B66" s="10" t="inlineStr">
         <is>
-          <t>471-41-2823</t>
+          <t>132-23-6451</t>
         </is>
       </c>
       <c r="C66" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D66" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F66" s="10" t="inlineStr">
@@ -5168,72 +5169,72 @@
       </c>
       <c r="G66" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H66" s="10" t="n">
-        <v>99.79000000000001</v>
+        <v>20.97</v>
       </c>
       <c r="I66" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J66" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="K66" s="10" t="n">
-        <v>209.559</v>
+        <v>110.0925</v>
       </c>
       <c r="L66" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M66" s="9" t="inlineStr">
         <is>
-          <t>20:37:00</t>
+          <t>13:21:00</t>
         </is>
       </c>
       <c r="N66" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O66" s="10" t="n">
-        <v>199.58</v>
+        <v>104.85</v>
       </c>
       <c r="P66" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q66" s="10" t="n">
-        <v>9.978999999999999</v>
+        <v>5.2425</v>
       </c>
       <c r="R66" s="10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S66" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T66" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1" s="11">
       <c r="B67" s="10" t="inlineStr">
         <is>
-          <t>132-23-6451</t>
+          <t>471-41-2823</t>
         </is>
       </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D67" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E67" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F67" s="10" t="inlineStr">
@@ -5243,51 +5244,51 @@
       </c>
       <c r="G67" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H67" s="10" t="n">
-        <v>20.97</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I67" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J67" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="K67" s="10" t="n">
-        <v>110.0925</v>
+        <v>209.559</v>
       </c>
       <c r="L67" s="13" t="n">
         <v>44640</v>
       </c>
       <c r="M67" s="9" t="inlineStr">
         <is>
-          <t>13:21:00</t>
+          <t>20:37:00</t>
         </is>
       </c>
       <c r="N67" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O67" s="10" t="n">
-        <v>104.85</v>
+        <v>199.58</v>
       </c>
       <c r="P67" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q67" s="10" t="n">
-        <v>5.2425</v>
+        <v>9.978999999999999</v>
       </c>
       <c r="R67" s="10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="S67" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="11">
@@ -15568,17 +15569,17 @@
     <row r="205" ht="12.75" customHeight="1" s="11">
       <c r="B205" s="10" t="inlineStr">
         <is>
-          <t>790-29-1172</t>
+          <t>597-78-7908</t>
         </is>
       </c>
       <c r="C205" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D205" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E205" s="10" t="inlineStr">
@@ -15588,56 +15589,56 @@
       </c>
       <c r="F205" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G205" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H205" s="10" t="n">
-        <v>57.34</v>
+        <v>90.22</v>
       </c>
       <c r="I205" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J205" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="K205" s="10" t="n">
-        <v>180.621</v>
+        <v>284.193</v>
       </c>
       <c r="L205" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M205" s="9" t="inlineStr">
         <is>
-          <t>18:59:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N205" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O205" s="10" t="n">
-        <v>172.02</v>
+        <v>270.66</v>
       </c>
       <c r="P205" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q205" s="10" t="n">
-        <v>8.601000000000001</v>
+        <v>13.533</v>
       </c>
       <c r="R205" s="10" t="n">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="S205" s="7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="T205" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" ht="12.75" customHeight="1" s="11">
@@ -15718,17 +15719,17 @@
     <row r="207" ht="12.75" customHeight="1" s="11">
       <c r="B207" s="10" t="inlineStr">
         <is>
-          <t>597-78-7908</t>
+          <t>790-29-1172</t>
         </is>
       </c>
       <c r="C207" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D207" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E207" s="10" t="inlineStr">
@@ -15738,56 +15739,56 @@
       </c>
       <c r="F207" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G207" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H207" s="10" t="n">
-        <v>90.22</v>
+        <v>57.34</v>
       </c>
       <c r="I207" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J207" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="K207" s="10" t="n">
-        <v>284.193</v>
+        <v>180.621</v>
       </c>
       <c r="L207" s="13" t="n">
         <v>44794</v>
       </c>
       <c r="M207" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>18:59:00</t>
         </is>
       </c>
       <c r="N207" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O207" s="10" t="n">
-        <v>270.66</v>
+        <v>172.02</v>
       </c>
       <c r="P207" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q207" s="10" t="n">
-        <v>13.533</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="R207" s="10" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="S207" s="7" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="T207" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" ht="12.75" customHeight="1" s="11">
@@ -16768,7 +16769,7 @@
     <row r="221" ht="12.75" customHeight="1" s="11">
       <c r="B221" s="10" t="inlineStr">
         <is>
-          <t>746-04-1077</t>
+          <t>529-56-3974</t>
         </is>
       </c>
       <c r="C221" s="10" t="inlineStr">
@@ -16778,7 +16779,7 @@
       </c>
       <c r="D221" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E221" s="10" t="inlineStr">
@@ -16788,67 +16789,67 @@
       </c>
       <c r="F221" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G221" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H221" s="10" t="n">
-        <v>84.63</v>
+        <v>25.51</v>
       </c>
       <c r="I221" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J221" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="K221" s="10" t="n">
-        <v>888.615</v>
+        <v>107.142</v>
       </c>
       <c r="L221" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M221" s="9" t="inlineStr">
         <is>
-          <t>11:36:00</t>
+          <t>17:03:00</t>
         </is>
       </c>
       <c r="N221" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O221" s="10" t="n">
-        <v>846.3</v>
+        <v>102.04</v>
       </c>
       <c r="P221" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q221" s="10" t="n">
-        <v>42.315</v>
+        <v>5.102</v>
       </c>
       <c r="R221" s="10" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="S221" s="7" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="T221" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" ht="12.75" customHeight="1" s="11">
       <c r="B222" s="10" t="inlineStr">
         <is>
-          <t>512-91-0811</t>
+          <t>746-04-1077</t>
         </is>
       </c>
       <c r="C222" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D222" s="7" t="inlineStr">
@@ -16858,37 +16859,37 @@
       </c>
       <c r="E222" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F222" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G222" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H222" s="10" t="n">
-        <v>89.75</v>
+        <v>84.63</v>
       </c>
       <c r="I222" s="10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J222" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="K222" s="10" t="n">
-        <v>94.2375</v>
+        <v>888.615</v>
       </c>
       <c r="L222" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M222" s="9" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>11:36:00</t>
         </is>
       </c>
       <c r="N222" s="10" t="inlineStr">
@@ -16897,43 +16898,43 @@
         </is>
       </c>
       <c r="O222" s="10" t="n">
-        <v>89.75</v>
+        <v>846.3</v>
       </c>
       <c r="P222" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q222" s="10" t="n">
-        <v>4.4875</v>
+        <v>42.315</v>
       </c>
       <c r="R222" s="10" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="S222" s="7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T222" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1" s="11">
       <c r="B223" s="10" t="inlineStr">
         <is>
-          <t>529-56-3974</t>
+          <t>512-91-0811</t>
         </is>
       </c>
       <c r="C223" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D223" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E223" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F223" s="10" t="inlineStr">
@@ -16943,51 +16944,51 @@
       </c>
       <c r="G223" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H223" s="10" t="n">
-        <v>25.51</v>
+        <v>89.75</v>
       </c>
       <c r="I223" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J223" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="K223" s="10" t="n">
-        <v>107.142</v>
+        <v>94.2375</v>
       </c>
       <c r="L223" s="13" t="n">
         <v>44806</v>
       </c>
       <c r="M223" s="9" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="N223" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O223" s="10" t="n">
-        <v>102.04</v>
+        <v>89.75</v>
       </c>
       <c r="P223" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q223" s="10" t="n">
-        <v>5.102</v>
+        <v>4.4875</v>
       </c>
       <c r="R223" s="10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="S223" s="7" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="T223" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1" s="11">
@@ -17818,22 +17819,22 @@
     <row r="235" ht="12.75" customHeight="1" s="11">
       <c r="B235" s="10" t="inlineStr">
         <is>
-          <t>779-06-0012</t>
+          <t>448-61-3783</t>
         </is>
       </c>
       <c r="C235" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D235" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E235" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F235" s="10" t="inlineStr">
@@ -17843,72 +17844,72 @@
       </c>
       <c r="G235" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H235" s="10" t="n">
-        <v>88.61</v>
+        <v>90.02</v>
       </c>
       <c r="I235" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J235" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="K235" s="10" t="n">
-        <v>93.04049999999999</v>
+        <v>756.168</v>
       </c>
       <c r="L235" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M235" s="9" t="inlineStr">
         <is>
-          <t>10:21:00</t>
+          <t>16:08:00</t>
         </is>
       </c>
       <c r="N235" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O235" s="10" t="n">
-        <v>88.61</v>
+        <v>720.16</v>
       </c>
       <c r="P235" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q235" s="10" t="n">
-        <v>4.4305</v>
+        <v>36.008</v>
       </c>
       <c r="R235" s="10" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="S235" s="7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T235" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1" s="11">
       <c r="B236" s="10" t="inlineStr">
         <is>
-          <t>448-61-3783</t>
+          <t>779-06-0012</t>
         </is>
       </c>
       <c r="C236" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D236" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E236" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F236" s="10" t="inlineStr">
@@ -17918,51 +17919,51 @@
       </c>
       <c r="G236" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H236" s="10" t="n">
-        <v>90.02</v>
+        <v>88.61</v>
       </c>
       <c r="I236" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J236" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="K236" s="10" t="n">
-        <v>756.168</v>
+        <v>93.04049999999999</v>
       </c>
       <c r="L236" s="13" t="n">
         <v>44820</v>
       </c>
       <c r="M236" s="9" t="inlineStr">
         <is>
-          <t>16:08:00</t>
+          <t>10:21:00</t>
         </is>
       </c>
       <c r="N236" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O236" s="10" t="n">
-        <v>720.16</v>
+        <v>88.61</v>
       </c>
       <c r="P236" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q236" s="10" t="n">
-        <v>36.008</v>
+        <v>4.4305</v>
       </c>
       <c r="R236" s="10" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="S236" s="7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T236" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1" s="11">
@@ -19093,7 +19094,7 @@
     <row r="252" ht="12.75" customHeight="1" s="11">
       <c r="B252" s="10" t="inlineStr">
         <is>
-          <t>347-34-2234</t>
+          <t>891-58-8335</t>
         </is>
       </c>
       <c r="C252" s="10" t="inlineStr">
@@ -19103,7 +19104,7 @@
       </c>
       <c r="D252" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E252" s="10" t="inlineStr">
@@ -19122,194 +19123,194 @@
         </is>
       </c>
       <c r="H252" s="10" t="n">
-        <v>55.07</v>
+        <v>29.61</v>
       </c>
       <c r="I252" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J252" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="K252" s="10" t="n">
-        <v>520.4115</v>
+        <v>217.6335</v>
       </c>
       <c r="L252" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M252" s="9" t="inlineStr">
         <is>
-          <t>13:40:00</t>
+          <t>15:53:00</t>
         </is>
       </c>
       <c r="N252" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O252" s="10" t="n">
-        <v>495.63</v>
+        <v>207.27</v>
       </c>
       <c r="P252" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q252" s="10" t="n">
-        <v>24.7815</v>
+        <v>10.3635</v>
       </c>
       <c r="R252" s="10" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="S252" s="7" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="T252" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1" s="11">
       <c r="B253" s="10" t="inlineStr">
         <is>
-          <t>891-58-8335</t>
+          <t>127-47-6963</t>
         </is>
       </c>
       <c r="C253" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D253" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E253" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F253" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G253" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H253" s="10" t="n">
-        <v>29.61</v>
+        <v>51.71</v>
       </c>
       <c r="I253" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J253" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="K253" s="10" t="n">
-        <v>217.6335</v>
+        <v>217.182</v>
       </c>
       <c r="L253" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M253" s="9" t="inlineStr">
         <is>
-          <t>15:53:00</t>
+          <t>13:53:00</t>
         </is>
       </c>
       <c r="N253" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O253" s="10" t="n">
-        <v>207.27</v>
+        <v>206.84</v>
       </c>
       <c r="P253" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q253" s="10" t="n">
-        <v>10.3635</v>
+        <v>10.342</v>
       </c>
       <c r="R253" s="10" t="n">
-        <v>6.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S253" s="7" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T253" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" ht="12.75" customHeight="1" s="11">
       <c r="B254" s="10" t="inlineStr">
         <is>
-          <t>127-47-6963</t>
+          <t>347-34-2234</t>
         </is>
       </c>
       <c r="C254" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D254" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E254" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F254" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G254" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H254" s="10" t="n">
-        <v>51.71</v>
+        <v>55.07</v>
       </c>
       <c r="I254" s="10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J254" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="K254" s="10" t="n">
-        <v>217.182</v>
+        <v>520.4115</v>
       </c>
       <c r="L254" s="13" t="n">
         <v>44844</v>
       </c>
       <c r="M254" s="9" t="inlineStr">
         <is>
-          <t>13:53:00</t>
+          <t>13:40:00</t>
         </is>
       </c>
       <c r="N254" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O254" s="10" t="n">
-        <v>206.84</v>
+        <v>495.63</v>
       </c>
       <c r="P254" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q254" s="10" t="n">
-        <v>10.342</v>
+        <v>24.7815</v>
       </c>
       <c r="R254" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S254" s="7" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T254" s="0" t="n">
         <v>13</v>
@@ -20293,7 +20294,7 @@
     <row r="268" ht="12.75" customHeight="1" s="11">
       <c r="B268" s="10" t="inlineStr">
         <is>
-          <t>364-33-8584</t>
+          <t>692-92-5582</t>
         </is>
       </c>
       <c r="C268" s="10" t="inlineStr">
@@ -20303,7 +20304,7 @@
       </c>
       <c r="D268" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E268" s="10" t="inlineStr">
@@ -20322,53 +20323,53 @@
         </is>
       </c>
       <c r="H268" s="10" t="n">
-        <v>17.63</v>
+        <v>54.84</v>
       </c>
       <c r="I268" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J268" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="K268" s="10" t="n">
-        <v>92.5575</v>
+        <v>172.746</v>
       </c>
       <c r="L268" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M268" s="9" t="inlineStr">
         <is>
-          <t>15:27:00</t>
+          <t>13:27:00</t>
         </is>
       </c>
       <c r="N268" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O268" s="10" t="n">
-        <v>88.15000000000001</v>
+        <v>164.52</v>
       </c>
       <c r="P268" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q268" s="10" t="n">
-        <v>4.4075</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="R268" s="10" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="S268" s="7" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="T268" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" ht="12.75" customHeight="1" s="11">
       <c r="B269" s="10" t="inlineStr">
         <is>
-          <t>692-92-5582</t>
+          <t>364-33-8584</t>
         </is>
       </c>
       <c r="C269" s="10" t="inlineStr">
@@ -20378,7 +20379,7 @@
       </c>
       <c r="D269" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E269" s="10" t="inlineStr">
@@ -20397,47 +20398,47 @@
         </is>
       </c>
       <c r="H269" s="10" t="n">
-        <v>54.84</v>
+        <v>17.63</v>
       </c>
       <c r="I269" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J269" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="K269" s="10" t="n">
-        <v>172.746</v>
+        <v>92.5575</v>
       </c>
       <c r="L269" s="13" t="n">
         <v>44857</v>
       </c>
       <c r="M269" s="9" t="inlineStr">
         <is>
-          <t>13:27:00</t>
+          <t>15:27:00</t>
         </is>
       </c>
       <c r="N269" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O269" s="10" t="n">
-        <v>164.52</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="P269" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q269" s="10" t="n">
-        <v>8.226000000000001</v>
+        <v>4.4075</v>
       </c>
       <c r="R269" s="10" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="S269" s="7" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T269" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" ht="12.75" customHeight="1" s="11">
@@ -21343,17 +21344,17 @@
     <row r="282" ht="12.75" customHeight="1" s="11">
       <c r="B282" s="10" t="inlineStr">
         <is>
-          <t>137-74-8729</t>
+          <t>366-43-6862</t>
         </is>
       </c>
       <c r="C282" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D282" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E282" s="10" t="inlineStr">
@@ -21363,32 +21364,32 @@
       </c>
       <c r="F282" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G282" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H282" s="10" t="n">
-        <v>12.19</v>
+        <v>52.89</v>
       </c>
       <c r="I282" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J282" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="K282" s="10" t="n">
-        <v>102.396</v>
+        <v>222.138</v>
       </c>
       <c r="L282" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M282" s="9" t="inlineStr">
         <is>
-          <t>12:47:00</t>
+          <t>16:32:00</t>
         </is>
       </c>
       <c r="N282" s="10" t="inlineStr">
@@ -21397,38 +21398,38 @@
         </is>
       </c>
       <c r="O282" s="10" t="n">
-        <v>97.52</v>
+        <v>211.56</v>
       </c>
       <c r="P282" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q282" s="10" t="n">
-        <v>4.876</v>
+        <v>10.578</v>
       </c>
       <c r="R282" s="10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="S282" s="7" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="T282" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1" s="11">
       <c r="B283" s="10" t="inlineStr">
         <is>
-          <t>595-94-9924</t>
+          <t>549-96-4200</t>
         </is>
       </c>
       <c r="C283" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D283" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E283" s="10" t="inlineStr">
@@ -21438,53 +21439,53 @@
       </c>
       <c r="F283" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G283" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H283" s="10" t="n">
-        <v>27.73</v>
+        <v>17.04</v>
       </c>
       <c r="I283" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J283" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="K283" s="10" t="n">
-        <v>145.5825</v>
+        <v>71.568</v>
       </c>
       <c r="L283" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M283" s="9" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="N283" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O283" s="10" t="n">
-        <v>138.65</v>
+        <v>68.16</v>
       </c>
       <c r="P283" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q283" s="10" t="n">
-        <v>6.9325</v>
+        <v>3.408</v>
       </c>
       <c r="R283" s="10" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="S283" s="7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T283" s="0" t="n">
         <v>20</v>
@@ -21493,7 +21494,7 @@
     <row r="284" ht="12.75" customHeight="1" s="11">
       <c r="B284" s="10" t="inlineStr">
         <is>
-          <t>549-96-4200</t>
+          <t>137-74-8729</t>
         </is>
       </c>
       <c r="C284" s="10" t="inlineStr">
@@ -21503,42 +21504,42 @@
       </c>
       <c r="D284" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E284" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F284" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G284" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H284" s="10" t="n">
-        <v>17.04</v>
+        <v>12.19</v>
       </c>
       <c r="I284" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J284" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="K284" s="10" t="n">
-        <v>71.568</v>
+        <v>102.396</v>
       </c>
       <c r="L284" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M284" s="9" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>12:47:00</t>
         </is>
       </c>
       <c r="N284" s="10" t="inlineStr">
@@ -21547,97 +21548,97 @@
         </is>
       </c>
       <c r="O284" s="10" t="n">
-        <v>68.16</v>
+        <v>97.52</v>
       </c>
       <c r="P284" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q284" s="10" t="n">
-        <v>3.408</v>
+        <v>4.876</v>
       </c>
       <c r="R284" s="10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="S284" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T284" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1" s="11">
       <c r="B285" s="10" t="inlineStr">
         <is>
-          <t>366-43-6862</t>
+          <t>595-94-9924</t>
         </is>
       </c>
       <c r="C285" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D285" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E285" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F285" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G285" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H285" s="10" t="n">
-        <v>52.89</v>
+        <v>27.73</v>
       </c>
       <c r="I285" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J285" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="K285" s="10" t="n">
-        <v>222.138</v>
+        <v>145.5825</v>
       </c>
       <c r="L285" s="13" t="n">
         <v>44882</v>
       </c>
       <c r="M285" s="9" t="inlineStr">
         <is>
-          <t>16:32:00</t>
+          <t>20:21:00</t>
         </is>
       </c>
       <c r="N285" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O285" s="10" t="n">
-        <v>211.56</v>
+        <v>138.65</v>
       </c>
       <c r="P285" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q285" s="10" t="n">
-        <v>10.578</v>
+        <v>6.9325</v>
       </c>
       <c r="R285" s="10" t="n">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="S285" s="7" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="T285" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1" s="11">
@@ -22618,151 +22619,151 @@
     <row r="299" ht="12.75" customHeight="1" s="11">
       <c r="B299" s="10" t="inlineStr">
         <is>
-          <t>420-97-3340</t>
+          <t>593-95-4461</t>
         </is>
       </c>
       <c r="C299" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D299" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E299" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F299" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G299" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H299" s="10" t="n">
-        <v>71.68000000000001</v>
+        <v>74.86</v>
       </c>
       <c r="I299" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J299" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="K299" s="10" t="n">
-        <v>225.792</v>
+        <v>78.60299999999999</v>
       </c>
       <c r="L299" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M299" s="9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:49:00</t>
         </is>
       </c>
       <c r="N299" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O299" s="10" t="n">
-        <v>215.04</v>
+        <v>74.86</v>
       </c>
       <c r="P299" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q299" s="10" t="n">
-        <v>10.752</v>
+        <v>3.743</v>
       </c>
       <c r="R299" s="10" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="S299" s="7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T299" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" ht="12.75" customHeight="1" s="11">
       <c r="B300" s="10" t="inlineStr">
         <is>
-          <t>593-95-4461</t>
+          <t>420-97-3340</t>
         </is>
       </c>
       <c r="C300" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D300" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E300" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F300" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G300" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H300" s="10" t="n">
-        <v>74.86</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="I300" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J300" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="K300" s="10" t="n">
-        <v>78.60299999999999</v>
+        <v>225.792</v>
       </c>
       <c r="L300" s="13" t="n">
         <v>44904</v>
       </c>
       <c r="M300" s="9" t="inlineStr">
         <is>
-          <t>14:49:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="N300" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O300" s="10" t="n">
-        <v>74.86</v>
+        <v>215.04</v>
       </c>
       <c r="P300" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q300" s="10" t="n">
-        <v>3.743</v>
+        <v>10.752</v>
       </c>
       <c r="R300" s="10" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S300" s="7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T300" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1" s="11">
@@ -24943,17 +24944,17 @@
     <row r="330" ht="12.75" customHeight="1" s="11">
       <c r="B330" s="10" t="inlineStr">
         <is>
-          <t>563-47-4072</t>
+          <t>233-67-5758</t>
         </is>
       </c>
       <c r="C330" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D330" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E330" s="10" t="inlineStr">
@@ -24963,7 +24964,7 @@
       </c>
       <c r="F330" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G330" s="10" t="inlineStr">
@@ -24972,63 +24973,63 @@
         </is>
       </c>
       <c r="H330" s="10" t="n">
-        <v>55.81</v>
+        <v>40.35</v>
       </c>
       <c r="I330" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J330" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="K330" s="10" t="n">
-        <v>351.603</v>
+        <v>42.3675</v>
       </c>
       <c r="L330" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M330" s="9" t="inlineStr">
         <is>
-          <t>11:52:00</t>
+          <t>13:46:00</t>
         </is>
       </c>
       <c r="N330" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O330" s="10" t="n">
-        <v>334.86</v>
+        <v>40.35</v>
       </c>
       <c r="P330" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q330" s="10" t="n">
-        <v>16.743</v>
+        <v>2.0175</v>
       </c>
       <c r="R330" s="10" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="S330" s="7" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T330" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" ht="12.75" customHeight="1" s="11">
       <c r="B331" s="10" t="inlineStr">
         <is>
-          <t>233-67-5758</t>
+          <t>563-47-4072</t>
         </is>
       </c>
       <c r="C331" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D331" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E331" s="10" t="inlineStr">
@@ -25038,7 +25039,7 @@
       </c>
       <c r="F331" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G331" s="10" t="inlineStr">
@@ -25047,47 +25048,47 @@
         </is>
       </c>
       <c r="H331" s="10" t="n">
-        <v>40.35</v>
+        <v>55.81</v>
       </c>
       <c r="I331" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J331" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="K331" s="10" t="n">
-        <v>42.3675</v>
+        <v>351.603</v>
       </c>
       <c r="L331" s="13" t="n">
         <v>44932</v>
       </c>
       <c r="M331" s="9" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>11:52:00</t>
         </is>
       </c>
       <c r="N331" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O331" s="10" t="n">
-        <v>40.35</v>
+        <v>334.86</v>
       </c>
       <c r="P331" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q331" s="10" t="n">
-        <v>2.0175</v>
+        <v>16.743</v>
       </c>
       <c r="R331" s="10" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="S331" s="7" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T331" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1" s="11">
@@ -26068,52 +26069,52 @@
     <row r="345" ht="12.75" customHeight="1" s="11">
       <c r="B345" s="10" t="inlineStr">
         <is>
-          <t>727-46-3608</t>
+          <t>460-35-4390</t>
         </is>
       </c>
       <c r="C345" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D345" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E345" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F345" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G345" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H345" s="10" t="n">
-        <v>20.01</v>
+        <v>30.68</v>
       </c>
       <c r="I345" s="10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J345" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="K345" s="10" t="n">
-        <v>189.0945</v>
+        <v>96.642</v>
       </c>
       <c r="L345" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M345" s="9" t="inlineStr">
         <is>
-          <t>15:47:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="N345" s="10" t="inlineStr">
@@ -26122,28 +26123,28 @@
         </is>
       </c>
       <c r="O345" s="10" t="n">
-        <v>180.09</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="P345" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q345" s="10" t="n">
-        <v>9.0045</v>
+        <v>4.602</v>
       </c>
       <c r="R345" s="10" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="S345" s="7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="T345" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" ht="12.75" customHeight="1" s="11">
       <c r="B346" s="10" t="inlineStr">
         <is>
-          <t>460-35-4390</t>
+          <t>422-29-8786</t>
         </is>
       </c>
       <c r="C346" s="10" t="inlineStr">
@@ -26153,7 +26154,7 @@
       </c>
       <c r="D346" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E346" s="10" t="inlineStr">
@@ -26163,7 +26164,7 @@
       </c>
       <c r="F346" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G346" s="10" t="inlineStr">
@@ -26172,38 +26173,38 @@
         </is>
       </c>
       <c r="H346" s="10" t="n">
-        <v>30.68</v>
+        <v>67.09</v>
       </c>
       <c r="I346" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J346" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="K346" s="10" t="n">
-        <v>96.642</v>
+        <v>352.2225</v>
       </c>
       <c r="L346" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M346" s="9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>16:47:00</t>
         </is>
       </c>
       <c r="N346" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O346" s="10" t="n">
-        <v>92.04000000000001</v>
+        <v>335.45</v>
       </c>
       <c r="P346" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q346" s="10" t="n">
-        <v>4.602</v>
+        <v>16.7725</v>
       </c>
       <c r="R346" s="10" t="n">
         <v>9.1</v>
@@ -26212,28 +26213,28 @@
         <v>23</v>
       </c>
       <c r="T346" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" ht="12.75" customHeight="1" s="11">
       <c r="B347" s="10" t="inlineStr">
         <is>
-          <t>422-29-8786</t>
+          <t>727-46-3608</t>
         </is>
       </c>
       <c r="C347" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D347" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E347" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F347" s="10" t="inlineStr">
@@ -26243,51 +26244,51 @@
       </c>
       <c r="G347" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H347" s="10" t="n">
-        <v>67.09</v>
+        <v>20.01</v>
       </c>
       <c r="I347" s="10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J347" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="K347" s="10" t="n">
-        <v>352.2225</v>
+        <v>189.0945</v>
       </c>
       <c r="L347" s="13" t="n">
         <v>44950</v>
       </c>
       <c r="M347" s="9" t="inlineStr">
         <is>
-          <t>16:47:00</t>
+          <t>15:47:00</t>
         </is>
       </c>
       <c r="N347" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O347" s="10" t="n">
-        <v>335.45</v>
+        <v>180.09</v>
       </c>
       <c r="P347" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q347" s="10" t="n">
-        <v>16.7725</v>
+        <v>9.0045</v>
       </c>
       <c r="R347" s="10" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="S347" s="7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="T347" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" ht="12.75" customHeight="1" s="11">
@@ -27193,7 +27194,7 @@
     <row r="360" ht="12.75" customHeight="1" s="11">
       <c r="B360" s="10" t="inlineStr">
         <is>
-          <t>655-85-5130</t>
+          <t>365-16-4334</t>
         </is>
       </c>
       <c r="C360" s="10" t="inlineStr">
@@ -27208,7 +27209,7 @@
       </c>
       <c r="E360" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F360" s="10" t="inlineStr">
@@ -27218,57 +27219,57 @@
       </c>
       <c r="G360" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H360" s="10" t="n">
-        <v>38.3</v>
+        <v>26.43</v>
       </c>
       <c r="I360" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J360" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="K360" s="10" t="n">
-        <v>160.86</v>
+        <v>222.012</v>
       </c>
       <c r="L360" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M360" s="9" t="inlineStr">
         <is>
-          <t>19:22:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N360" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O360" s="10" t="n">
-        <v>153.2</v>
+        <v>211.44</v>
       </c>
       <c r="P360" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q360" s="10" t="n">
-        <v>7.66</v>
+        <v>10.572</v>
       </c>
       <c r="R360" s="10" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="S360" s="7" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T360" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1" s="11">
       <c r="B361" s="10" t="inlineStr">
         <is>
-          <t>365-16-4334</t>
+          <t>655-85-5130</t>
         </is>
       </c>
       <c r="C361" s="10" t="inlineStr">
@@ -27283,7 +27284,7 @@
       </c>
       <c r="E361" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F361" s="10" t="inlineStr">
@@ -27293,67 +27294,67 @@
       </c>
       <c r="G361" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H361" s="10" t="n">
-        <v>26.43</v>
+        <v>38.3</v>
       </c>
       <c r="I361" s="10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J361" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="K361" s="10" t="n">
-        <v>222.012</v>
+        <v>160.86</v>
       </c>
       <c r="L361" s="13" t="n">
         <v>44971</v>
       </c>
       <c r="M361" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>19:22:00</t>
         </is>
       </c>
       <c r="N361" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O361" s="10" t="n">
-        <v>211.44</v>
+        <v>153.2</v>
       </c>
       <c r="P361" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q361" s="10" t="n">
-        <v>10.572</v>
+        <v>7.66</v>
       </c>
       <c r="R361" s="10" t="n">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="S361" s="7" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="T361" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1" s="11">
       <c r="B362" s="10" t="inlineStr">
         <is>
-          <t>704-10-4056</t>
+          <t>411-77-0180</t>
         </is>
       </c>
       <c r="C362" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D362" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E362" s="10" t="inlineStr">
@@ -27368,67 +27369,67 @@
       </c>
       <c r="G362" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H362" s="10" t="n">
-        <v>60.47</v>
+        <v>72.2</v>
       </c>
       <c r="I362" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J362" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="K362" s="10" t="n">
-        <v>190.4805</v>
+        <v>530.67</v>
       </c>
       <c r="L362" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M362" s="9" t="inlineStr">
         <is>
-          <t>10:55:00</t>
+          <t>20:14:00</t>
         </is>
       </c>
       <c r="N362" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O362" s="10" t="n">
-        <v>181.41</v>
+        <v>505.4</v>
       </c>
       <c r="P362" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q362" s="10" t="n">
-        <v>9.070499999999999</v>
+        <v>25.27</v>
       </c>
       <c r="R362" s="10" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="S362" s="7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="T362" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1" s="11">
       <c r="B363" s="10" t="inlineStr">
         <is>
-          <t>411-77-0180</t>
+          <t>704-10-4056</t>
         </is>
       </c>
       <c r="C363" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D363" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E363" s="10" t="inlineStr">
@@ -27443,51 +27444,51 @@
       </c>
       <c r="G363" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H363" s="10" t="n">
-        <v>72.2</v>
+        <v>60.47</v>
       </c>
       <c r="I363" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J363" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="K363" s="10" t="n">
-        <v>530.67</v>
+        <v>190.4805</v>
       </c>
       <c r="L363" s="13" t="n">
         <v>44972</v>
       </c>
       <c r="M363" s="9" t="inlineStr">
         <is>
-          <t>20:14:00</t>
+          <t>10:55:00</t>
         </is>
       </c>
       <c r="N363" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O363" s="10" t="n">
-        <v>505.4</v>
+        <v>181.41</v>
       </c>
       <c r="P363" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q363" s="10" t="n">
-        <v>25.27</v>
+        <v>9.070499999999999</v>
       </c>
       <c r="R363" s="10" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="S363" s="7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="T363" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" ht="12.75" customHeight="1" s="11">
@@ -28393,22 +28394,22 @@
     <row r="376" ht="12.75" customHeight="1" s="11">
       <c r="B376" s="10" t="inlineStr">
         <is>
-          <t>301-11-9629</t>
+          <t>271-77-8740</t>
         </is>
       </c>
       <c r="C376" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D376" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E376" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F376" s="10" t="inlineStr">
@@ -28422,68 +28423,68 @@
         </is>
       </c>
       <c r="H376" s="10" t="n">
-        <v>19.1</v>
+        <v>29.22</v>
       </c>
       <c r="I376" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J376" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="K376" s="10" t="n">
-        <v>140.385</v>
+        <v>184.086</v>
       </c>
       <c r="L376" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M376" s="9" t="inlineStr">
         <is>
-          <t>10:43:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="N376" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O376" s="10" t="n">
-        <v>133.7</v>
+        <v>175.32</v>
       </c>
       <c r="P376" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q376" s="10" t="n">
-        <v>6.685</v>
+        <v>8.766</v>
       </c>
       <c r="R376" s="10" t="n">
-        <v>9.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="S376" s="7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="T376" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" ht="12.75" customHeight="1" s="11">
       <c r="B377" s="10" t="inlineStr">
         <is>
-          <t>271-77-8740</t>
+          <t>301-11-9629</t>
         </is>
       </c>
       <c r="C377" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D377" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E377" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F377" s="10" t="inlineStr">
@@ -28497,63 +28498,63 @@
         </is>
       </c>
       <c r="H377" s="10" t="n">
-        <v>29.22</v>
+        <v>19.1</v>
       </c>
       <c r="I377" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J377" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="K377" s="10" t="n">
-        <v>184.086</v>
+        <v>140.385</v>
       </c>
       <c r="L377" s="13" t="n">
         <v>44988</v>
       </c>
       <c r="M377" s="9" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>10:43:00</t>
         </is>
       </c>
       <c r="N377" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O377" s="10" t="n">
-        <v>175.32</v>
+        <v>133.7</v>
       </c>
       <c r="P377" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q377" s="10" t="n">
-        <v>8.766</v>
+        <v>6.685</v>
       </c>
       <c r="R377" s="10" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S377" s="7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="T377" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1" s="11">
       <c r="B378" s="10" t="inlineStr">
         <is>
-          <t>266-20-6657</t>
+          <t>397-25-8725</t>
         </is>
       </c>
       <c r="C378" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D378" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E378" s="10" t="inlineStr">
@@ -28563,72 +28564,72 @@
       </c>
       <c r="F378" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G378" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H378" s="10" t="n">
-        <v>55.04</v>
+        <v>39.62</v>
       </c>
       <c r="I378" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J378" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="K378" s="10" t="n">
-        <v>404.544</v>
+        <v>374.409</v>
       </c>
       <c r="L378" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M378" s="9" t="inlineStr">
         <is>
-          <t>19:39:00</t>
+          <t>17:54:00</t>
         </is>
       </c>
       <c r="N378" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O378" s="10" t="n">
-        <v>385.28</v>
+        <v>356.58</v>
       </c>
       <c r="P378" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q378" s="10" t="n">
-        <v>19.264</v>
+        <v>17.829</v>
       </c>
       <c r="R378" s="10" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="S378" s="7" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="T378" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" ht="12.75" customHeight="1" s="11">
       <c r="B379" s="10" t="inlineStr">
         <is>
-          <t>397-25-8725</t>
+          <t>266-20-6657</t>
         </is>
       </c>
       <c r="C379" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D379" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E379" s="10" t="inlineStr">
@@ -28638,56 +28639,56 @@
       </c>
       <c r="F379" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G379" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H379" s="10" t="n">
-        <v>39.62</v>
+        <v>55.04</v>
       </c>
       <c r="I379" s="10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J379" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="K379" s="10" t="n">
-        <v>374.409</v>
+        <v>404.544</v>
       </c>
       <c r="L379" s="13" t="n">
         <v>44991</v>
       </c>
       <c r="M379" s="9" t="inlineStr">
         <is>
-          <t>17:54:00</t>
+          <t>19:39:00</t>
         </is>
       </c>
       <c r="N379" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O379" s="10" t="n">
-        <v>356.58</v>
+        <v>385.28</v>
       </c>
       <c r="P379" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q379" s="10" t="n">
-        <v>17.829</v>
+        <v>19.264</v>
       </c>
       <c r="R379" s="10" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="S379" s="7" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="T379" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="380" ht="12.75" customHeight="1" s="11">
@@ -29743,17 +29744,17 @@
     <row r="394" ht="12.75" customHeight="1" s="11">
       <c r="B394" s="10" t="inlineStr">
         <is>
-          <t>105-31-1824</t>
+          <t>176-78-1170</t>
         </is>
       </c>
       <c r="C394" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D394" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E394" s="10" t="inlineStr">
@@ -29768,48 +29769,48 @@
       </c>
       <c r="G394" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H394" s="10" t="n">
-        <v>69.52</v>
+        <v>33.81</v>
       </c>
       <c r="I394" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J394" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="K394" s="10" t="n">
-        <v>510.972</v>
+        <v>106.5015</v>
       </c>
       <c r="L394" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M394" s="9" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:11:00</t>
         </is>
       </c>
       <c r="N394" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O394" s="10" t="n">
-        <v>486.64</v>
+        <v>101.43</v>
       </c>
       <c r="P394" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q394" s="10" t="n">
-        <v>24.332</v>
+        <v>5.0715</v>
       </c>
       <c r="R394" s="10" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="S394" s="7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T394" s="0" t="n">
         <v>15</v>
@@ -29818,17 +29819,17 @@
     <row r="395" ht="12.75" customHeight="1" s="11">
       <c r="B395" s="10" t="inlineStr">
         <is>
-          <t>176-78-1170</t>
+          <t>105-31-1824</t>
         </is>
       </c>
       <c r="C395" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D395" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E395" s="10" t="inlineStr">
@@ -29843,48 +29844,48 @@
       </c>
       <c r="G395" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H395" s="10" t="n">
-        <v>33.81</v>
+        <v>69.52</v>
       </c>
       <c r="I395" s="10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J395" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="K395" s="10" t="n">
-        <v>106.5015</v>
+        <v>510.972</v>
       </c>
       <c r="L395" s="13" t="n">
         <v>45014</v>
       </c>
       <c r="M395" s="9" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="N395" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O395" s="10" t="n">
-        <v>101.43</v>
+        <v>486.64</v>
       </c>
       <c r="P395" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q395" s="10" t="n">
-        <v>5.0715</v>
+        <v>24.332</v>
       </c>
       <c r="R395" s="10" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="S395" s="7" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T395" s="0" t="n">
         <v>15</v>
@@ -31918,7 +31919,7 @@
     <row r="423" ht="12.75" customHeight="1" s="11">
       <c r="B423" s="10" t="inlineStr">
         <is>
-          <t>891-01-7034</t>
+          <t>283-79-9594</t>
         </is>
       </c>
       <c r="C423" s="10" t="inlineStr">
@@ -31928,7 +31929,7 @@
       </c>
       <c r="D423" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E423" s="10" t="inlineStr">
@@ -31943,57 +31944,57 @@
       </c>
       <c r="G423" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H423" s="10" t="n">
-        <v>74.70999999999999</v>
+        <v>48.51</v>
       </c>
       <c r="I423" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J423" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="K423" s="10" t="n">
-        <v>470.673</v>
+        <v>356.5485</v>
       </c>
       <c r="L423" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M423" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="N423" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O423" s="10" t="n">
-        <v>448.26</v>
+        <v>339.57</v>
       </c>
       <c r="P423" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q423" s="10" t="n">
-        <v>22.413</v>
+        <v>16.9785</v>
       </c>
       <c r="R423" s="10" t="n">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="S423" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T423" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" ht="12.75" customHeight="1" s="11">
       <c r="B424" s="10" t="inlineStr">
         <is>
-          <t>283-79-9594</t>
+          <t>346-12-3257</t>
         </is>
       </c>
       <c r="C424" s="10" t="inlineStr">
@@ -32003,72 +32004,72 @@
       </c>
       <c r="D424" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E424" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F424" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G424" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H424" s="10" t="n">
-        <v>48.51</v>
+        <v>19.24</v>
       </c>
       <c r="I424" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J424" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="K424" s="10" t="n">
-        <v>356.5485</v>
+        <v>181.818</v>
       </c>
       <c r="L424" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M424" s="9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:28:00</t>
         </is>
       </c>
       <c r="N424" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O424" s="10" t="n">
-        <v>339.57</v>
+        <v>173.16</v>
       </c>
       <c r="P424" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q424" s="10" t="n">
-        <v>16.9785</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="R424" s="10" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="S424" s="7" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T424" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425" ht="12.75" customHeight="1" s="11">
       <c r="B425" s="10" t="inlineStr">
         <is>
-          <t>346-12-3257</t>
+          <t>891-01-7034</t>
         </is>
       </c>
       <c r="C425" s="10" t="inlineStr">
@@ -32078,17 +32079,17 @@
       </c>
       <c r="D425" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E425" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F425" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G425" s="10" t="inlineStr">
@@ -32097,23 +32098,23 @@
         </is>
       </c>
       <c r="H425" s="10" t="n">
-        <v>19.24</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="I425" s="10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J425" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="K425" s="10" t="n">
-        <v>181.818</v>
+        <v>470.673</v>
       </c>
       <c r="L425" s="13" t="n">
         <v>45046</v>
       </c>
       <c r="M425" s="9" t="inlineStr">
         <is>
-          <t>16:28:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N425" s="10" t="inlineStr">
@@ -32122,22 +32123,22 @@
         </is>
       </c>
       <c r="O425" s="10" t="n">
-        <v>173.16</v>
+        <v>448.26</v>
       </c>
       <c r="P425" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q425" s="10" t="n">
-        <v>8.657999999999999</v>
+        <v>22.413</v>
       </c>
       <c r="R425" s="10" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="S425" s="7" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="T425" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" ht="12.75" customHeight="1" s="11">
@@ -33043,17 +33044,17 @@
     <row r="438" ht="12.75" customHeight="1" s="11">
       <c r="B438" s="10" t="inlineStr">
         <is>
-          <t>742-04-5161</t>
+          <t>875-46-5808</t>
         </is>
       </c>
       <c r="C438" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D438" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E438" s="10" t="inlineStr">
@@ -33068,67 +33069,67 @@
       </c>
       <c r="G438" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H438" s="10" t="n">
-        <v>72.78</v>
+        <v>25.9</v>
       </c>
       <c r="I438" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J438" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="K438" s="10" t="n">
-        <v>764.1900000000001</v>
+        <v>271.95</v>
       </c>
       <c r="L438" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M438" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:51:00</t>
         </is>
       </c>
       <c r="N438" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O438" s="10" t="n">
-        <v>727.8</v>
+        <v>259</v>
       </c>
       <c r="P438" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q438" s="10" t="n">
-        <v>36.39</v>
+        <v>12.95</v>
       </c>
       <c r="R438" s="10" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S438" s="7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="T438" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="439" ht="12.75" customHeight="1" s="11">
       <c r="B439" s="10" t="inlineStr">
         <is>
-          <t>875-46-5808</t>
+          <t>742-04-5161</t>
         </is>
       </c>
       <c r="C439" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D439" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E439" s="10" t="inlineStr">
@@ -33143,51 +33144,51 @@
       </c>
       <c r="G439" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H439" s="10" t="n">
-        <v>25.9</v>
+        <v>72.78</v>
       </c>
       <c r="I439" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J439" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="K439" s="10" t="n">
-        <v>271.95</v>
+        <v>764.1900000000001</v>
       </c>
       <c r="L439" s="13" t="n">
         <v>45069</v>
       </c>
       <c r="M439" s="9" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N439" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O439" s="10" t="n">
-        <v>259</v>
+        <v>727.8</v>
       </c>
       <c r="P439" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q439" s="10" t="n">
-        <v>12.95</v>
+        <v>36.39</v>
       </c>
       <c r="R439" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="S439" s="7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T439" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" ht="12.75" customHeight="1" s="11">
@@ -34318,52 +34319,52 @@
     <row r="455" ht="12.75" customHeight="1" s="11">
       <c r="B455" s="10" t="inlineStr">
         <is>
-          <t>186-79-9562</t>
+          <t>211-05-0490</t>
         </is>
       </c>
       <c r="C455" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D455" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E455" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F455" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G455" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H455" s="10" t="n">
-        <v>71.77</v>
+        <v>51.92</v>
       </c>
       <c r="I455" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J455" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="K455" s="10" t="n">
-        <v>527.5095</v>
+        <v>272.58</v>
       </c>
       <c r="L455" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M455" s="9" t="inlineStr">
         <is>
-          <t>14:06:00</t>
+          <t>13:42:00</t>
         </is>
       </c>
       <c r="N455" s="10" t="inlineStr">
@@ -34372,28 +34373,28 @@
         </is>
       </c>
       <c r="O455" s="10" t="n">
-        <v>502.39</v>
+        <v>259.6</v>
       </c>
       <c r="P455" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q455" s="10" t="n">
-        <v>25.1195</v>
+        <v>12.98</v>
       </c>
       <c r="R455" s="10" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="S455" s="7" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="T455" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" ht="12.75" customHeight="1" s="11">
       <c r="B456" s="10" t="inlineStr">
         <is>
-          <t>211-05-0490</t>
+          <t>162-65-8559</t>
         </is>
       </c>
       <c r="C456" s="10" t="inlineStr">
@@ -34403,7 +34404,7 @@
       </c>
       <c r="D456" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E456" s="10" t="inlineStr">
@@ -34413,32 +34414,32 @@
       </c>
       <c r="F456" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G456" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H456" s="10" t="n">
-        <v>51.92</v>
+        <v>68.98</v>
       </c>
       <c r="I456" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J456" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="K456" s="10" t="n">
-        <v>272.58</v>
+        <v>72.429</v>
       </c>
       <c r="L456" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M456" s="9" t="inlineStr">
         <is>
-          <t>13:42:00</t>
+          <t>20:13:00</t>
         </is>
       </c>
       <c r="N456" s="10" t="inlineStr">
@@ -34447,43 +34448,43 @@
         </is>
       </c>
       <c r="O456" s="10" t="n">
-        <v>259.6</v>
+        <v>68.98</v>
       </c>
       <c r="P456" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q456" s="10" t="n">
-        <v>12.98</v>
+        <v>3.449</v>
       </c>
       <c r="R456" s="10" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="S456" s="7" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="T456" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="457" ht="12.75" customHeight="1" s="11">
       <c r="B457" s="10" t="inlineStr">
         <is>
-          <t>162-65-8559</t>
+          <t>186-79-9562</t>
         </is>
       </c>
       <c r="C457" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D457" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E457" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F457" s="10" t="inlineStr">
@@ -34493,27 +34494,27 @@
       </c>
       <c r="G457" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H457" s="10" t="n">
-        <v>68.98</v>
+        <v>71.77</v>
       </c>
       <c r="I457" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J457" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="K457" s="10" t="n">
-        <v>72.429</v>
+        <v>527.5095</v>
       </c>
       <c r="L457" s="13" t="n">
         <v>45095</v>
       </c>
       <c r="M457" s="9" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>14:06:00</t>
         </is>
       </c>
       <c r="N457" s="10" t="inlineStr">
@@ -34522,22 +34523,22 @@
         </is>
       </c>
       <c r="O457" s="10" t="n">
-        <v>68.98</v>
+        <v>502.39</v>
       </c>
       <c r="P457" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q457" s="10" t="n">
-        <v>3.449</v>
+        <v>25.1195</v>
       </c>
       <c r="R457" s="10" t="n">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="S457" s="7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T457" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1" s="11">
@@ -35443,7 +35444,7 @@
     <row r="470" ht="12.75" customHeight="1" s="11">
       <c r="B470" s="10" t="inlineStr">
         <is>
-          <t>188-55-0967</t>
+          <t>433-75-6987</t>
         </is>
       </c>
       <c r="C470" s="10" t="inlineStr">
@@ -35453,7 +35454,7 @@
       </c>
       <c r="D470" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E470" s="10" t="inlineStr">
@@ -35463,7 +35464,7 @@
       </c>
       <c r="F470" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G470" s="10" t="inlineStr">
@@ -35472,53 +35473,53 @@
         </is>
       </c>
       <c r="H470" s="10" t="n">
-        <v>66.47</v>
+        <v>55.97</v>
       </c>
       <c r="I470" s="10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J470" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="K470" s="10" t="n">
-        <v>697.9349999999999</v>
+        <v>411.3795</v>
       </c>
       <c r="L470" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M470" s="9" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>19:06:00</t>
         </is>
       </c>
       <c r="N470" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O470" s="10" t="n">
-        <v>664.7</v>
+        <v>391.79</v>
       </c>
       <c r="P470" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q470" s="10" t="n">
-        <v>33.235</v>
+        <v>19.5895</v>
       </c>
       <c r="R470" s="10" t="n">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="S470" s="7" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="T470" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471" ht="12.75" customHeight="1" s="11">
       <c r="B471" s="10" t="inlineStr">
         <is>
-          <t>433-75-6987</t>
+          <t>188-55-0967</t>
         </is>
       </c>
       <c r="C471" s="10" t="inlineStr">
@@ -35528,7 +35529,7 @@
       </c>
       <c r="D471" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E471" s="10" t="inlineStr">
@@ -35538,7 +35539,7 @@
       </c>
       <c r="F471" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G471" s="10" t="inlineStr">
@@ -35547,53 +35548,53 @@
         </is>
       </c>
       <c r="H471" s="10" t="n">
-        <v>55.97</v>
+        <v>66.47</v>
       </c>
       <c r="I471" s="10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J471" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="K471" s="10" t="n">
-        <v>411.3795</v>
+        <v>697.9349999999999</v>
       </c>
       <c r="L471" s="13" t="n">
         <v>45114</v>
       </c>
       <c r="M471" s="9" t="inlineStr">
         <is>
-          <t>19:06:00</t>
+          <t>15:01:00</t>
         </is>
       </c>
       <c r="N471" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O471" s="10" t="n">
-        <v>391.79</v>
+        <v>664.7</v>
       </c>
       <c r="P471" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q471" s="10" t="n">
-        <v>19.5895</v>
+        <v>33.235</v>
       </c>
       <c r="R471" s="10" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="S471" s="7" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T471" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" ht="12.75" customHeight="1" s="11">
       <c r="B472" s="10" t="inlineStr">
         <is>
-          <t>124-31-1458</t>
+          <t>732-67-5346</t>
         </is>
       </c>
       <c r="C472" s="10" t="inlineStr">
@@ -35603,72 +35604,72 @@
       </c>
       <c r="D472" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E472" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F472" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G472" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H472" s="10" t="n">
-        <v>79.59</v>
+        <v>13.79</v>
       </c>
       <c r="I472" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J472" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="K472" s="10" t="n">
-        <v>250.7085</v>
+        <v>72.39749999999999</v>
       </c>
       <c r="L472" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M472" s="9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>19:07:00</t>
         </is>
       </c>
       <c r="N472" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O472" s="10" t="n">
-        <v>238.77</v>
+        <v>68.95</v>
       </c>
       <c r="P472" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q472" s="10" t="n">
-        <v>11.9385</v>
+        <v>3.4475</v>
       </c>
       <c r="R472" s="10" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="S472" s="7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T472" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="473" ht="12.75" customHeight="1" s="11">
       <c r="B473" s="10" t="inlineStr">
         <is>
-          <t>732-67-5346</t>
+          <t>124-31-1458</t>
         </is>
       </c>
       <c r="C473" s="10" t="inlineStr">
@@ -35678,66 +35679,66 @@
       </c>
       <c r="D473" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E473" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F473" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G473" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H473" s="10" t="n">
-        <v>13.79</v>
+        <v>79.59</v>
       </c>
       <c r="I473" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J473" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="K473" s="10" t="n">
-        <v>72.39749999999999</v>
+        <v>250.7085</v>
       </c>
       <c r="L473" s="13" t="n">
         <v>45116</v>
       </c>
       <c r="M473" s="9" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="N473" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O473" s="10" t="n">
-        <v>68.95</v>
+        <v>238.77</v>
       </c>
       <c r="P473" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q473" s="10" t="n">
-        <v>3.4475</v>
+        <v>11.9385</v>
       </c>
       <c r="R473" s="10" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="S473" s="7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T473" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" ht="12.75" customHeight="1" s="11">
@@ -38068,7 +38069,7 @@
     <row r="505" ht="12.75" customHeight="1" s="11">
       <c r="B505" s="10" t="inlineStr">
         <is>
-          <t>459-45-2396</t>
+          <t>400-60-7251</t>
         </is>
       </c>
       <c r="C505" s="10" t="inlineStr">
@@ -38078,72 +38079,72 @@
       </c>
       <c r="D505" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E505" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F505" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G505" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H505" s="10" t="n">
-        <v>99.59999999999999</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="I505" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J505" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="K505" s="10" t="n">
-        <v>313.74</v>
+        <v>77.7735</v>
       </c>
       <c r="L505" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M505" s="9" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="N505" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O505" s="10" t="n">
-        <v>298.8</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="P505" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q505" s="10" t="n">
-        <v>14.94</v>
+        <v>3.7035</v>
       </c>
       <c r="R505" s="10" t="n">
-        <v>5.8</v>
+        <v>9.9</v>
       </c>
       <c r="S505" s="7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T505" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506" ht="12.75" customHeight="1" s="11">
       <c r="B506" s="10" t="inlineStr">
         <is>
-          <t>400-60-7251</t>
+          <t>459-45-2396</t>
         </is>
       </c>
       <c r="C506" s="10" t="inlineStr">
@@ -38153,66 +38154,66 @@
       </c>
       <c r="D506" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E506" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F506" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G506" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H506" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I506" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J506" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="K506" s="10" t="n">
-        <v>77.7735</v>
+        <v>313.74</v>
       </c>
       <c r="L506" s="13" t="n">
         <v>45159</v>
       </c>
       <c r="M506" s="9" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>18:45:00</t>
         </is>
       </c>
       <c r="N506" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O506" s="10" t="n">
-        <v>74.06999999999999</v>
+        <v>298.8</v>
       </c>
       <c r="P506" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q506" s="10" t="n">
-        <v>3.7035</v>
+        <v>14.94</v>
       </c>
       <c r="R506" s="10" t="n">
-        <v>9.9</v>
+        <v>5.8</v>
       </c>
       <c r="S506" s="7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T506" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" ht="12.75" customHeight="1" s="11">
@@ -41443,76 +41444,76 @@
     <row r="550" ht="12.75" customHeight="1" s="11">
       <c r="B550" s="10" t="inlineStr">
         <is>
-          <t>339-18-7061</t>
+          <t>239-10-7476</t>
         </is>
       </c>
       <c r="C550" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D550" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E550" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F550" s="10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G550" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H550" s="10" t="n">
-        <v>92.98</v>
+        <v>77.95</v>
       </c>
       <c r="I550" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J550" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="K550" s="10" t="n">
-        <v>195.258</v>
+        <v>491.085</v>
       </c>
       <c r="L550" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M550" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>16:37:00</t>
         </is>
       </c>
       <c r="N550" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O550" s="10" t="n">
-        <v>185.96</v>
+        <v>467.7</v>
       </c>
       <c r="P550" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q550" s="10" t="n">
-        <v>9.298</v>
+        <v>23.385</v>
       </c>
       <c r="R550" s="10" t="n">
         <v>8</v>
       </c>
       <c r="S550" s="7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="T550" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551" ht="12.75" customHeight="1" s="11">
@@ -41593,76 +41594,76 @@
     <row r="552" ht="12.75" customHeight="1" s="11">
       <c r="B552" s="10" t="inlineStr">
         <is>
-          <t>239-10-7476</t>
+          <t>339-18-7061</t>
         </is>
       </c>
       <c r="C552" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D552" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E552" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F552" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G552" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H552" s="10" t="n">
-        <v>77.95</v>
+        <v>92.98</v>
       </c>
       <c r="I552" s="10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J552" s="10" t="n">
-        <v>23.385</v>
+        <v>9.298</v>
       </c>
       <c r="K552" s="10" t="n">
-        <v>491.085</v>
+        <v>195.258</v>
       </c>
       <c r="L552" s="13" t="n">
         <v>45223</v>
       </c>
       <c r="M552" s="9" t="inlineStr">
         <is>
-          <t>16:37:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N552" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O552" s="10" t="n">
-        <v>467.7</v>
+        <v>185.96</v>
       </c>
       <c r="P552" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q552" s="10" t="n">
-        <v>23.385</v>
+        <v>9.298</v>
       </c>
       <c r="R552" s="10" t="n">
         <v>8</v>
       </c>
       <c r="S552" s="7" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="T552" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" ht="12.75" customHeight="1" s="11">
@@ -42643,7 +42644,7 @@
     <row r="566" ht="12.75" customHeight="1" s="11">
       <c r="B566" s="10" t="inlineStr">
         <is>
-          <t>821-07-3596</t>
+          <t>885-56-0389</t>
         </is>
       </c>
       <c r="C566" s="10" t="inlineStr">
@@ -42653,17 +42654,17 @@
       </c>
       <c r="D566" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E566" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F566" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G566" s="10" t="inlineStr">
@@ -42672,58 +42673,58 @@
         </is>
       </c>
       <c r="H566" s="10" t="n">
-        <v>16.45</v>
+        <v>52.35</v>
       </c>
       <c r="I566" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J566" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="K566" s="10" t="n">
-        <v>69.09</v>
+        <v>54.9675</v>
       </c>
       <c r="L566" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M566" s="9" t="inlineStr">
         <is>
-          <t>14:53:00</t>
+          <t>17:49:00</t>
         </is>
       </c>
       <c r="N566" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O566" s="10" t="n">
-        <v>65.8</v>
+        <v>52.35</v>
       </c>
       <c r="P566" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q566" s="10" t="n">
-        <v>3.29</v>
+        <v>2.6175</v>
       </c>
       <c r="R566" s="10" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="S566" s="7" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="T566" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="567" ht="12.75" customHeight="1" s="11">
       <c r="B567" s="10" t="inlineStr">
         <is>
-          <t>271-88-8734</t>
+          <t>554-53-3790</t>
         </is>
       </c>
       <c r="C567" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D567" s="7" t="inlineStr">
@@ -42733,72 +42734,72 @@
       </c>
       <c r="E567" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F567" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G567" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H567" s="10" t="n">
-        <v>97.20999999999999</v>
+        <v>37.02</v>
       </c>
       <c r="I567" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J567" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="K567" s="10" t="n">
-        <v>1020.705</v>
+        <v>233.226</v>
       </c>
       <c r="L567" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M567" s="9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>18:33:00</t>
         </is>
       </c>
       <c r="N567" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O567" s="10" t="n">
-        <v>972.1</v>
+        <v>222.12</v>
       </c>
       <c r="P567" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q567" s="10" t="n">
-        <v>48.605</v>
+        <v>11.106</v>
       </c>
       <c r="R567" s="10" t="n">
-        <v>8.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="S567" s="7" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="T567" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568" ht="12.75" customHeight="1" s="11">
       <c r="B568" s="10" t="inlineStr">
         <is>
-          <t>554-53-3790</t>
+          <t>271-88-8734</t>
         </is>
       </c>
       <c r="C568" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D568" s="7" t="inlineStr">
@@ -42808,67 +42809,67 @@
       </c>
       <c r="E568" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F568" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G568" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H568" s="10" t="n">
-        <v>37.02</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="I568" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J568" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="K568" s="10" t="n">
-        <v>233.226</v>
+        <v>1020.705</v>
       </c>
       <c r="L568" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M568" s="9" t="inlineStr">
         <is>
-          <t>18:33:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="N568" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O568" s="10" t="n">
-        <v>222.12</v>
+        <v>972.1</v>
       </c>
       <c r="P568" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q568" s="10" t="n">
-        <v>11.106</v>
+        <v>48.605</v>
       </c>
       <c r="R568" s="10" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S568" s="7" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="T568" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569" ht="12.75" customHeight="1" s="11">
       <c r="B569" s="10" t="inlineStr">
         <is>
-          <t>885-56-0389</t>
+          <t>821-07-3596</t>
         </is>
       </c>
       <c r="C569" s="10" t="inlineStr">
@@ -42878,17 +42879,17 @@
       </c>
       <c r="D569" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E569" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F569" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G569" s="10" t="inlineStr">
@@ -42897,47 +42898,47 @@
         </is>
       </c>
       <c r="H569" s="10" t="n">
-        <v>52.35</v>
+        <v>16.45</v>
       </c>
       <c r="I569" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J569" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="K569" s="10" t="n">
-        <v>54.9675</v>
+        <v>69.09</v>
       </c>
       <c r="L569" s="13" t="n">
         <v>45245</v>
       </c>
       <c r="M569" s="9" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>14:53:00</t>
         </is>
       </c>
       <c r="N569" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O569" s="10" t="n">
-        <v>52.35</v>
+        <v>65.8</v>
       </c>
       <c r="P569" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q569" s="10" t="n">
-        <v>2.6175</v>
+        <v>3.29</v>
       </c>
       <c r="R569" s="10" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="S569" s="7" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T569" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="570" ht="12.75" customHeight="1" s="11">
@@ -43843,17 +43844,17 @@
     <row r="582" ht="12.75" customHeight="1" s="11">
       <c r="B582" s="10" t="inlineStr">
         <is>
-          <t>440-59-5691</t>
+          <t>190-59-3964</t>
         </is>
       </c>
       <c r="C582" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D582" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E582" s="10" t="inlineStr">
@@ -43863,32 +43864,32 @@
       </c>
       <c r="F582" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G582" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H582" s="10" t="n">
-        <v>37.15</v>
+        <v>47.16</v>
       </c>
       <c r="I582" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J582" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="K582" s="10" t="n">
-        <v>273.0525</v>
+        <v>247.59</v>
       </c>
       <c r="L582" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M582" s="9" t="inlineStr">
         <is>
-          <t>13:12:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N582" s="10" t="inlineStr">
@@ -43897,38 +43898,38 @@
         </is>
       </c>
       <c r="O582" s="10" t="n">
-        <v>260.05</v>
+        <v>235.8</v>
       </c>
       <c r="P582" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q582" s="10" t="n">
-        <v>13.0025</v>
+        <v>11.79</v>
       </c>
       <c r="R582" s="10" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="S582" s="7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T582" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583" ht="12.75" customHeight="1" s="11">
       <c r="B583" s="10" t="inlineStr">
         <is>
-          <t>190-59-3964</t>
+          <t>440-59-5691</t>
         </is>
       </c>
       <c r="C583" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D583" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E583" s="10" t="inlineStr">
@@ -43938,32 +43939,32 @@
       </c>
       <c r="F583" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G583" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H583" s="10" t="n">
-        <v>47.16</v>
+        <v>37.15</v>
       </c>
       <c r="I583" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J583" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="K583" s="10" t="n">
-        <v>247.59</v>
+        <v>273.0525</v>
       </c>
       <c r="L583" s="13" t="n">
         <v>45265</v>
       </c>
       <c r="M583" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>13:12:00</t>
         </is>
       </c>
       <c r="N583" s="10" t="inlineStr">
@@ -43972,22 +43973,22 @@
         </is>
       </c>
       <c r="O583" s="10" t="n">
-        <v>235.8</v>
+        <v>260.05</v>
       </c>
       <c r="P583" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q583" s="10" t="n">
-        <v>11.79</v>
+        <v>13.0025</v>
       </c>
       <c r="R583" s="10" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="S583" s="7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T583" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" ht="12.75" customHeight="1" s="11">
@@ -44368,12 +44369,12 @@
     <row r="589" ht="12.75" customHeight="1" s="11">
       <c r="B589" s="10" t="inlineStr">
         <is>
-          <t>585-86-8361</t>
+          <t>602-16-6955</t>
         </is>
       </c>
       <c r="C589" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D589" s="7" t="inlineStr">
@@ -44393,132 +44394,132 @@
       </c>
       <c r="G589" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H589" s="10" t="n">
-        <v>27.28</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I589" s="10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J589" s="10" t="n">
-        <v>6.82</v>
+        <v>38.3</v>
       </c>
       <c r="K589" s="10" t="n">
-        <v>143.22</v>
+        <v>804.3</v>
       </c>
       <c r="L589" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M589" s="9" t="inlineStr">
         <is>
-          <t>10:31:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="N589" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O589" s="10" t="n">
-        <v>136.4</v>
+        <v>766</v>
       </c>
       <c r="P589" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q589" s="10" t="n">
-        <v>6.82</v>
+        <v>38.3</v>
       </c>
       <c r="R589" s="10" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="S589" s="7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="T589" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="590" ht="12.75" customHeight="1" s="11">
       <c r="B590" s="10" t="inlineStr">
         <is>
-          <t>585-11-6748</t>
+          <t>585-86-8361</t>
         </is>
       </c>
       <c r="C590" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D590" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E590" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F590" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G590" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H590" s="10" t="n">
-        <v>96.8</v>
+        <v>27.28</v>
       </c>
       <c r="I590" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J590" s="10" t="n">
-        <v>14.52</v>
+        <v>6.82</v>
       </c>
       <c r="K590" s="10" t="n">
-        <v>304.92</v>
+        <v>143.22</v>
       </c>
       <c r="L590" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M590" s="9" t="inlineStr">
         <is>
-          <t>13:05:00</t>
+          <t>10:31:00</t>
         </is>
       </c>
       <c r="N590" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O590" s="10" t="n">
-        <v>290.4</v>
+        <v>136.4</v>
       </c>
       <c r="P590" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q590" s="10" t="n">
-        <v>14.52</v>
+        <v>6.82</v>
       </c>
       <c r="R590" s="10" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="S590" s="7" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="T590" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591" ht="12.75" customHeight="1" s="11">
       <c r="B591" s="10" t="inlineStr">
         <is>
-          <t>602-16-6955</t>
+          <t>585-11-6748</t>
         </is>
       </c>
       <c r="C591" s="10" t="inlineStr">
@@ -44528,17 +44529,17 @@
       </c>
       <c r="D591" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E591" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F591" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G591" s="10" t="inlineStr">
@@ -44547,47 +44548,47 @@
         </is>
       </c>
       <c r="H591" s="10" t="n">
-        <v>76.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="I591" s="10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J591" s="10" t="n">
-        <v>38.3</v>
+        <v>14.52</v>
       </c>
       <c r="K591" s="10" t="n">
-        <v>804.3</v>
+        <v>304.92</v>
       </c>
       <c r="L591" s="13" t="n">
         <v>45274</v>
       </c>
       <c r="M591" s="9" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>13:05:00</t>
         </is>
       </c>
       <c r="N591" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O591" s="10" t="n">
-        <v>766</v>
+        <v>290.4</v>
       </c>
       <c r="P591" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q591" s="10" t="n">
-        <v>38.3</v>
+        <v>14.52</v>
       </c>
       <c r="R591" s="10" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="S591" s="7" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T591" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="592" ht="12.75" customHeight="1" s="11">
@@ -44968,172 +44969,172 @@
     <row r="597" ht="12.75" customHeight="1" s="11">
       <c r="B597" s="10" t="inlineStr">
         <is>
-          <t>765-26-6951</t>
+          <t>227-07-4446</t>
         </is>
       </c>
       <c r="C597" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D597" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E597" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F597" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G597" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H597" s="10" t="n">
-        <v>72.61</v>
+        <v>78.13</v>
       </c>
       <c r="I597" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J597" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="K597" s="10" t="n">
-        <v>457.443</v>
+        <v>820.365</v>
       </c>
       <c r="L597" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M597" s="9" t="inlineStr">
         <is>
-          <t>10:39:00</t>
+          <t>20:51:00</t>
         </is>
       </c>
       <c r="N597" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O597" s="10" t="n">
-        <v>435.66</v>
+        <v>781.3</v>
       </c>
       <c r="P597" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q597" s="10" t="n">
-        <v>21.783</v>
+        <v>39.065</v>
       </c>
       <c r="R597" s="10" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="S597" s="7" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T597" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598" ht="12.75" customHeight="1" s="11">
       <c r="B598" s="10" t="inlineStr">
         <is>
-          <t>227-07-4446</t>
+          <t>765-26-6951</t>
         </is>
       </c>
       <c r="C598" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D598" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E598" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F598" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G598" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H598" s="10" t="n">
-        <v>78.13</v>
+        <v>72.61</v>
       </c>
       <c r="I598" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J598" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="K598" s="10" t="n">
-        <v>820.365</v>
+        <v>457.443</v>
       </c>
       <c r="L598" s="13" t="n">
         <v>45286</v>
       </c>
       <c r="M598" s="9" t="inlineStr">
         <is>
-          <t>20:51:00</t>
+          <t>10:39:00</t>
         </is>
       </c>
       <c r="N598" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O598" s="10" t="n">
-        <v>781.3</v>
+        <v>435.66</v>
       </c>
       <c r="P598" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q598" s="10" t="n">
-        <v>39.065</v>
+        <v>21.783</v>
       </c>
       <c r="R598" s="10" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="S598" s="7" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="T598" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" ht="12.75" customHeight="1" s="11">
       <c r="B599" s="10" t="inlineStr">
         <is>
-          <t>539-21-7227</t>
+          <t>860-73-6466</t>
         </is>
       </c>
       <c r="C599" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D599" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E599" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F599" s="10" t="inlineStr">
@@ -45147,68 +45148,68 @@
         </is>
       </c>
       <c r="H599" s="10" t="n">
-        <v>51.54</v>
+        <v>39.47</v>
       </c>
       <c r="I599" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J599" s="10" t="n">
-        <v>12.885</v>
+        <v>3.947</v>
       </c>
       <c r="K599" s="10" t="n">
-        <v>270.585</v>
+        <v>82.887</v>
       </c>
       <c r="L599" s="13" t="n">
         <v>45288</v>
       </c>
       <c r="M599" s="9" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:16:00</t>
         </is>
       </c>
       <c r="N599" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O599" s="10" t="n">
-        <v>257.7</v>
+        <v>78.94</v>
       </c>
       <c r="P599" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q599" s="10" t="n">
-        <v>12.885</v>
+        <v>3.947</v>
       </c>
       <c r="R599" s="10" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="S599" s="7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="T599" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="600" ht="12.75" customHeight="1" s="11">
       <c r="B600" s="10" t="inlineStr">
         <is>
-          <t>860-73-6466</t>
+          <t>539-21-7227</t>
         </is>
       </c>
       <c r="C600" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D600" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E600" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F600" s="10" t="inlineStr">
@@ -45222,47 +45223,47 @@
         </is>
       </c>
       <c r="H600" s="10" t="n">
-        <v>39.47</v>
+        <v>51.54</v>
       </c>
       <c r="I600" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J600" s="10" t="n">
-        <v>3.947</v>
+        <v>12.885</v>
       </c>
       <c r="K600" s="10" t="n">
-        <v>82.887</v>
+        <v>270.585</v>
       </c>
       <c r="L600" s="13" t="n">
         <v>45288</v>
       </c>
       <c r="M600" s="9" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="N600" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O600" s="10" t="n">
-        <v>78.94</v>
+        <v>257.7</v>
       </c>
       <c r="P600" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q600" s="10" t="n">
-        <v>3.947</v>
+        <v>12.885</v>
       </c>
       <c r="R600" s="10" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="S600" s="7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T600" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="601" ht="12.75" customHeight="1" s="11">
@@ -46168,22 +46169,22 @@
     <row r="613" ht="12.75" customHeight="1" s="11">
       <c r="B613" s="10" t="inlineStr">
         <is>
-          <t>556-86-3144</t>
+          <t>501-61-1753</t>
         </is>
       </c>
       <c r="C613" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D613" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E613" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F613" s="10" t="inlineStr">
@@ -46193,72 +46194,72 @@
       </c>
       <c r="G613" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H613" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>63.15</v>
       </c>
       <c r="I613" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J613" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="K613" s="10" t="n">
-        <v>78.00449999999999</v>
+        <v>397.845</v>
       </c>
       <c r="L613" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M613" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:24:00</t>
         </is>
       </c>
       <c r="N613" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O613" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>378.9</v>
       </c>
       <c r="P613" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q613" s="10" t="n">
-        <v>3.7145</v>
+        <v>18.945</v>
       </c>
       <c r="R613" s="10" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S613" s="7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T613" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614" ht="12.75" customHeight="1" s="11">
       <c r="B614" s="10" t="inlineStr">
         <is>
-          <t>501-61-1753</t>
+          <t>556-86-3144</t>
         </is>
       </c>
       <c r="C614" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D614" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E614" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F614" s="10" t="inlineStr">
@@ -46268,51 +46269,51 @@
       </c>
       <c r="G614" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H614" s="10" t="n">
-        <v>63.15</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="I614" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J614" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="K614" s="10" t="n">
-        <v>397.845</v>
+        <v>78.00449999999999</v>
       </c>
       <c r="L614" s="13" t="n">
         <v>45307</v>
       </c>
       <c r="M614" s="9" t="inlineStr">
         <is>
-          <t>20:24:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N614" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O614" s="10" t="n">
-        <v>378.9</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="P614" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q614" s="10" t="n">
-        <v>18.945</v>
+        <v>3.7145</v>
       </c>
       <c r="R614" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="S614" s="7" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="T614" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="615" ht="12.75" customHeight="1" s="11">
@@ -47143,17 +47144,17 @@
     <row r="626" ht="12.75" customHeight="1" s="11">
       <c r="B626" s="10" t="inlineStr">
         <is>
-          <t>137-63-5492</t>
+          <t>886-54-6089</t>
         </is>
       </c>
       <c r="C626" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D626" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E626" s="10" t="inlineStr">
@@ -47163,72 +47164,72 @@
       </c>
       <c r="F626" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G626" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H626" s="10" t="n">
-        <v>58.76</v>
+        <v>11.43</v>
       </c>
       <c r="I626" s="10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J626" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="K626" s="10" t="n">
-        <v>616.98</v>
+        <v>72.009</v>
       </c>
       <c r="L626" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M626" s="9" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>17:24:00</t>
         </is>
       </c>
       <c r="N626" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O626" s="10" t="n">
-        <v>587.6</v>
+        <v>68.58</v>
       </c>
       <c r="P626" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q626" s="10" t="n">
-        <v>29.38</v>
+        <v>3.429</v>
       </c>
       <c r="R626" s="10" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="S626" s="7" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="T626" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="627" ht="12.75" customHeight="1" s="11">
       <c r="B627" s="10" t="inlineStr">
         <is>
-          <t>886-54-6089</t>
+          <t>137-63-5492</t>
         </is>
       </c>
       <c r="C627" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D627" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E627" s="10" t="inlineStr">
@@ -47238,62 +47239,62 @@
       </c>
       <c r="F627" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G627" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H627" s="10" t="n">
-        <v>11.43</v>
+        <v>58.76</v>
       </c>
       <c r="I627" s="10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J627" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="K627" s="10" t="n">
-        <v>72.009</v>
+        <v>616.98</v>
       </c>
       <c r="L627" s="13" t="n">
         <v>45331</v>
       </c>
       <c r="M627" s="9" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>14:26:00</t>
         </is>
       </c>
       <c r="N627" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O627" s="10" t="n">
-        <v>68.58</v>
+        <v>587.6</v>
       </c>
       <c r="P627" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q627" s="10" t="n">
-        <v>3.429</v>
+        <v>29.38</v>
       </c>
       <c r="R627" s="10" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="S627" s="7" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="T627" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628" ht="12.75" customHeight="1" s="11">
       <c r="B628" s="10" t="inlineStr">
         <is>
-          <t>214-30-2776</t>
+          <t>853-23-2453</t>
         </is>
       </c>
       <c r="C628" s="10" t="inlineStr">
@@ -47303,7 +47304,7 @@
       </c>
       <c r="D628" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E628" s="10" t="inlineStr">
@@ -47313,62 +47314,62 @@
       </c>
       <c r="F628" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G628" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H628" s="10" t="n">
-        <v>34.49</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="I628" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J628" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="K628" s="10" t="n">
-        <v>181.0725</v>
+        <v>318.108</v>
       </c>
       <c r="L628" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M628" s="9" t="inlineStr">
         <is>
-          <t>19:44:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="N628" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O628" s="10" t="n">
-        <v>172.45</v>
+        <v>302.96</v>
       </c>
       <c r="P628" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q628" s="10" t="n">
-        <v>8.6225</v>
+        <v>15.148</v>
       </c>
       <c r="R628" s="10" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="S628" s="7" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T628" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" ht="12.75" customHeight="1" s="11">
       <c r="B629" s="10" t="inlineStr">
         <is>
-          <t>853-23-2453</t>
+          <t>608-05-3804</t>
         </is>
       </c>
       <c r="C629" s="10" t="inlineStr">
@@ -47378,7 +47379,7 @@
       </c>
       <c r="D629" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E629" s="10" t="inlineStr">
@@ -47393,27 +47394,27 @@
       </c>
       <c r="G629" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H629" s="10" t="n">
-        <v>75.73999999999999</v>
+        <v>39.75</v>
       </c>
       <c r="I629" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J629" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="K629" s="10" t="n">
-        <v>318.108</v>
+        <v>41.7375</v>
       </c>
       <c r="L629" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M629" s="9" t="inlineStr">
         <is>
-          <t>14:35:00</t>
+          <t>20:19:00</t>
         </is>
       </c>
       <c r="N629" s="10" t="inlineStr">
@@ -47422,28 +47423,28 @@
         </is>
       </c>
       <c r="O629" s="10" t="n">
-        <v>302.96</v>
+        <v>39.75</v>
       </c>
       <c r="P629" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q629" s="10" t="n">
-        <v>15.148</v>
+        <v>1.9875</v>
       </c>
       <c r="R629" s="10" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="S629" s="7" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="T629" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="630" ht="12.75" customHeight="1" s="11">
       <c r="B630" s="10" t="inlineStr">
         <is>
-          <t>608-05-3804</t>
+          <t>214-30-2776</t>
         </is>
       </c>
       <c r="C630" s="10" t="inlineStr">
@@ -47453,7 +47454,7 @@
       </c>
       <c r="D630" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E630" s="10" t="inlineStr">
@@ -47463,7 +47464,7 @@
       </c>
       <c r="F630" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G630" s="10" t="inlineStr">
@@ -47472,53 +47473,53 @@
         </is>
       </c>
       <c r="H630" s="10" t="n">
-        <v>39.75</v>
+        <v>34.49</v>
       </c>
       <c r="I630" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J630" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="K630" s="10" t="n">
-        <v>41.7375</v>
+        <v>181.0725</v>
       </c>
       <c r="L630" s="13" t="n">
         <v>45332</v>
       </c>
       <c r="M630" s="9" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>19:44:00</t>
         </is>
       </c>
       <c r="N630" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O630" s="10" t="n">
-        <v>39.75</v>
+        <v>172.45</v>
       </c>
       <c r="P630" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q630" s="10" t="n">
-        <v>1.9875</v>
+        <v>8.6225</v>
       </c>
       <c r="R630" s="10" t="n">
-        <v>6.1</v>
+        <v>9</v>
       </c>
       <c r="S630" s="7" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="T630" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="631" ht="12.75" customHeight="1" s="11">
       <c r="B631" s="10" t="inlineStr">
         <is>
-          <t>110-48-7033</t>
+          <t>299-29-0180</t>
         </is>
       </c>
       <c r="C631" s="10" t="inlineStr">
@@ -47528,7 +47529,7 @@
       </c>
       <c r="D631" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E631" s="10" t="inlineStr">
@@ -47538,32 +47539,32 @@
       </c>
       <c r="F631" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G631" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H631" s="10" t="n">
-        <v>32.62</v>
+        <v>52.18</v>
       </c>
       <c r="I631" s="10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J631" s="10" t="n">
-        <v>6.524</v>
+        <v>18.263</v>
       </c>
       <c r="K631" s="10" t="n">
-        <v>137.004</v>
+        <v>383.523</v>
       </c>
       <c r="L631" s="13" t="n">
         <v>45334</v>
       </c>
       <c r="M631" s="9" t="inlineStr">
         <is>
-          <t>14:12:00</t>
+          <t>10:54:00</t>
         </is>
       </c>
       <c r="N631" s="10" t="inlineStr">
@@ -47572,28 +47573,28 @@
         </is>
       </c>
       <c r="O631" s="10" t="n">
-        <v>130.48</v>
+        <v>365.26</v>
       </c>
       <c r="P631" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q631" s="10" t="n">
-        <v>6.524</v>
+        <v>18.263</v>
       </c>
       <c r="R631" s="10" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S631" s="7" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="T631" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" ht="12.75" customHeight="1" s="11">
       <c r="B632" s="10" t="inlineStr">
         <is>
-          <t>299-29-0180</t>
+          <t>110-48-7033</t>
         </is>
       </c>
       <c r="C632" s="10" t="inlineStr">
@@ -47603,7 +47604,7 @@
       </c>
       <c r="D632" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E632" s="10" t="inlineStr">
@@ -47613,32 +47614,32 @@
       </c>
       <c r="F632" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G632" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H632" s="10" t="n">
-        <v>52.18</v>
+        <v>32.62</v>
       </c>
       <c r="I632" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J632" s="10" t="n">
-        <v>18.263</v>
+        <v>6.524</v>
       </c>
       <c r="K632" s="10" t="n">
-        <v>383.523</v>
+        <v>137.004</v>
       </c>
       <c r="L632" s="13" t="n">
         <v>45334</v>
       </c>
       <c r="M632" s="9" t="inlineStr">
         <is>
-          <t>10:54:00</t>
+          <t>14:12:00</t>
         </is>
       </c>
       <c r="N632" s="10" t="inlineStr">
@@ -47647,22 +47648,22 @@
         </is>
       </c>
       <c r="O632" s="10" t="n">
-        <v>365.26</v>
+        <v>130.48</v>
       </c>
       <c r="P632" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q632" s="10" t="n">
-        <v>18.263</v>
+        <v>6.524</v>
       </c>
       <c r="R632" s="10" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S632" s="7" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T632" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633" ht="12.75" customHeight="1" s="11">
@@ -48718,17 +48719,17 @@
     <row r="647" ht="12.75" customHeight="1" s="11">
       <c r="B647" s="10" t="inlineStr">
         <is>
-          <t>616-87-0016</t>
+          <t>630-74-5166</t>
         </is>
       </c>
       <c r="C647" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D647" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E647" s="10" t="inlineStr">
@@ -48743,67 +48744,67 @@
       </c>
       <c r="G647" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H647" s="10" t="n">
-        <v>95.54000000000001</v>
+        <v>62.13</v>
       </c>
       <c r="I647" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J647" s="10" t="n">
-        <v>33.439</v>
+        <v>18.639</v>
       </c>
       <c r="K647" s="10" t="n">
-        <v>702.2190000000001</v>
+        <v>391.419</v>
       </c>
       <c r="L647" s="13" t="n">
         <v>45347</v>
       </c>
       <c r="M647" s="9" t="inlineStr">
         <is>
-          <t>14:36:00</t>
+          <t>20:19:00</t>
         </is>
       </c>
       <c r="N647" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O647" s="10" t="n">
-        <v>668.78</v>
+        <v>372.78</v>
       </c>
       <c r="P647" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q647" s="10" t="n">
-        <v>33.439</v>
+        <v>18.639</v>
       </c>
       <c r="R647" s="10" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="S647" s="7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T647" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="648" ht="12.75" customHeight="1" s="11">
       <c r="B648" s="10" t="inlineStr">
         <is>
-          <t>630-74-5166</t>
+          <t>616-87-0016</t>
         </is>
       </c>
       <c r="C648" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D648" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E648" s="10" t="inlineStr">
@@ -48818,51 +48819,51 @@
       </c>
       <c r="G648" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H648" s="10" t="n">
-        <v>62.13</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="I648" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J648" s="10" t="n">
-        <v>18.639</v>
+        <v>33.439</v>
       </c>
       <c r="K648" s="10" t="n">
-        <v>391.419</v>
+        <v>702.2190000000001</v>
       </c>
       <c r="L648" s="13" t="n">
         <v>45347</v>
       </c>
       <c r="M648" s="9" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>14:36:00</t>
         </is>
       </c>
       <c r="N648" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O648" s="10" t="n">
-        <v>372.78</v>
+        <v>668.78</v>
       </c>
       <c r="P648" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q648" s="10" t="n">
-        <v>18.639</v>
+        <v>33.439</v>
       </c>
       <c r="R648" s="10" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="S648" s="7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T648" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="649" ht="12.75" customHeight="1" s="11">
@@ -49843,151 +49844,151 @@
     <row r="662" ht="12.75" customHeight="1" s="11">
       <c r="B662" s="10" t="inlineStr">
         <is>
-          <t>274-05-5470</t>
+          <t>219-61-4139</t>
         </is>
       </c>
       <c r="C662" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D662" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E662" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F662" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G662" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H662" s="10" t="n">
-        <v>73.47</v>
+        <v>83.08</v>
       </c>
       <c r="I662" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J662" s="10" t="n">
-        <v>14.694</v>
+        <v>4.154</v>
       </c>
       <c r="K662" s="10" t="n">
-        <v>308.574</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="L662" s="13" t="n">
         <v>45373</v>
       </c>
       <c r="M662" s="9" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:16:00</t>
         </is>
       </c>
       <c r="N662" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O662" s="10" t="n">
-        <v>293.88</v>
+        <v>83.08</v>
       </c>
       <c r="P662" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q662" s="10" t="n">
-        <v>14.694</v>
+        <v>4.154</v>
       </c>
       <c r="R662" s="10" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="S662" s="7" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="T662" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="663" ht="12.75" customHeight="1" s="11">
       <c r="B663" s="10" t="inlineStr">
         <is>
-          <t>219-61-4139</t>
+          <t>274-05-5470</t>
         </is>
       </c>
       <c r="C663" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D663" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E663" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F663" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G663" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H663" s="10" t="n">
-        <v>83.08</v>
+        <v>73.47</v>
       </c>
       <c r="I663" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J663" s="10" t="n">
-        <v>4.154</v>
+        <v>14.694</v>
       </c>
       <c r="K663" s="10" t="n">
-        <v>87.23399999999999</v>
+        <v>308.574</v>
       </c>
       <c r="L663" s="13" t="n">
         <v>45373</v>
       </c>
       <c r="M663" s="9" t="inlineStr">
         <is>
-          <t>17:16:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="N663" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O663" s="10" t="n">
-        <v>83.08</v>
+        <v>293.88</v>
       </c>
       <c r="P663" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q663" s="10" t="n">
-        <v>4.154</v>
+        <v>14.694</v>
       </c>
       <c r="R663" s="10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="S663" s="7" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="T663" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="664" ht="12.75" customHeight="1" s="11">
@@ -50968,22 +50969,22 @@
     <row r="677" ht="12.75" customHeight="1" s="11">
       <c r="B677" s="10" t="inlineStr">
         <is>
-          <t>525-88-7307</t>
+          <t>631-41-3108</t>
         </is>
       </c>
       <c r="C677" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D677" s="7" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E677" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F677" s="10" t="inlineStr">
@@ -50993,48 +50994,48 @@
       </c>
       <c r="G677" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H677" s="10" t="n">
-        <v>75.81999999999999</v>
+        <v>46.33</v>
       </c>
       <c r="I677" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J677" s="10" t="n">
-        <v>3.791</v>
+        <v>16.2155</v>
       </c>
       <c r="K677" s="10" t="n">
-        <v>79.611</v>
+        <v>340.5255</v>
       </c>
       <c r="L677" s="13" t="n">
         <v>45389</v>
       </c>
       <c r="M677" s="9" t="inlineStr">
         <is>
-          <t>13:19:00</t>
+          <t>13:23:00</t>
         </is>
       </c>
       <c r="N677" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O677" s="10" t="n">
-        <v>75.81999999999999</v>
+        <v>324.31</v>
       </c>
       <c r="P677" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q677" s="10" t="n">
-        <v>3.791</v>
+        <v>16.2155</v>
       </c>
       <c r="R677" s="10" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="S677" s="7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="T677" s="0" t="n">
         <v>13</v>
@@ -51043,22 +51044,22 @@
     <row r="678" ht="12.75" customHeight="1" s="11">
       <c r="B678" s="10" t="inlineStr">
         <is>
-          <t>631-41-3108</t>
+          <t>525-88-7307</t>
         </is>
       </c>
       <c r="C678" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D678" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="E678" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F678" s="10" t="inlineStr">
@@ -51068,48 +51069,48 @@
       </c>
       <c r="G678" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H678" s="10" t="n">
-        <v>46.33</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="I678" s="10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J678" s="10" t="n">
-        <v>16.2155</v>
+        <v>3.791</v>
       </c>
       <c r="K678" s="10" t="n">
-        <v>340.5255</v>
+        <v>79.611</v>
       </c>
       <c r="L678" s="13" t="n">
         <v>45389</v>
       </c>
       <c r="M678" s="9" t="inlineStr">
         <is>
-          <t>13:23:00</t>
+          <t>13:19:00</t>
         </is>
       </c>
       <c r="N678" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O678" s="10" t="n">
-        <v>324.31</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="P678" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q678" s="10" t="n">
-        <v>16.2155</v>
+        <v>3.791</v>
       </c>
       <c r="R678" s="10" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="S678" s="7" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="T678" s="0" t="n">
         <v>13</v>
@@ -56818,17 +56819,17 @@
     <row r="755" ht="12.75" customHeight="1" s="11">
       <c r="B755" s="10" t="inlineStr">
         <is>
-          <t>345-08-4992</t>
+          <t>114-35-5271</t>
         </is>
       </c>
       <c r="C755" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D755" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E755" s="10" t="inlineStr">
@@ -56838,53 +56839,53 @@
       </c>
       <c r="F755" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G755" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H755" s="10" t="n">
-        <v>33.99</v>
+        <v>57.91</v>
       </c>
       <c r="I755" s="10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J755" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="K755" s="10" t="n">
-        <v>214.137</v>
+        <v>486.444</v>
       </c>
       <c r="L755" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M755" s="9" t="inlineStr">
         <is>
-          <t>15:37:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="N755" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O755" s="10" t="n">
-        <v>203.94</v>
+        <v>463.28</v>
       </c>
       <c r="P755" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q755" s="10" t="n">
-        <v>10.197</v>
+        <v>23.164</v>
       </c>
       <c r="R755" s="10" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="S755" s="7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T755" s="0" t="n">
         <v>15</v>
@@ -56893,17 +56894,17 @@
     <row r="756" ht="12.75" customHeight="1" s="11">
       <c r="B756" s="10" t="inlineStr">
         <is>
-          <t>114-35-5271</t>
+          <t>345-08-4992</t>
         </is>
       </c>
       <c r="C756" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D756" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E756" s="10" t="inlineStr">
@@ -56913,53 +56914,53 @@
       </c>
       <c r="F756" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G756" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H756" s="10" t="n">
-        <v>57.91</v>
+        <v>33.99</v>
       </c>
       <c r="I756" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J756" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="K756" s="10" t="n">
-        <v>486.444</v>
+        <v>214.137</v>
       </c>
       <c r="L756" s="13" t="n">
         <v>45477</v>
       </c>
       <c r="M756" s="9" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:37:00</t>
         </is>
       </c>
       <c r="N756" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O756" s="10" t="n">
-        <v>463.28</v>
+        <v>203.94</v>
       </c>
       <c r="P756" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q756" s="10" t="n">
-        <v>23.164</v>
+        <v>10.197</v>
       </c>
       <c r="R756" s="10" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="S756" s="7" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T756" s="0" t="n">
         <v>15</v>
@@ -56968,22 +56969,22 @@
     <row r="757" ht="12.75" customHeight="1" s="11">
       <c r="B757" s="10" t="inlineStr">
         <is>
-          <t>608-27-6295</t>
+          <t>531-80-1784</t>
         </is>
       </c>
       <c r="C757" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D757" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E757" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F757" s="10" t="inlineStr">
@@ -56997,44 +56998,44 @@
         </is>
       </c>
       <c r="H757" s="10" t="n">
-        <v>52.89</v>
+        <v>26.02</v>
       </c>
       <c r="I757" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J757" s="10" t="n">
-        <v>15.867</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="K757" s="10" t="n">
-        <v>333.207</v>
+        <v>191.247</v>
       </c>
       <c r="L757" s="13" t="n">
         <v>45478</v>
       </c>
       <c r="M757" s="9" t="inlineStr">
         <is>
-          <t>17:34:00</t>
+          <t>17:38:00</t>
         </is>
       </c>
       <c r="N757" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O757" s="10" t="n">
-        <v>317.34</v>
+        <v>182.14</v>
       </c>
       <c r="P757" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q757" s="10" t="n">
-        <v>15.867</v>
+        <v>9.106999999999999</v>
       </c>
       <c r="R757" s="10" t="n">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="S757" s="7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T757" s="0" t="n">
         <v>17</v>
@@ -57043,22 +57044,22 @@
     <row r="758" ht="12.75" customHeight="1" s="11">
       <c r="B758" s="10" t="inlineStr">
         <is>
-          <t>531-80-1784</t>
+          <t>608-27-6295</t>
         </is>
       </c>
       <c r="C758" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D758" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E758" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F758" s="10" t="inlineStr">
@@ -57072,44 +57073,44 @@
         </is>
       </c>
       <c r="H758" s="10" t="n">
-        <v>26.02</v>
+        <v>52.89</v>
       </c>
       <c r="I758" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J758" s="10" t="n">
-        <v>9.106999999999999</v>
+        <v>15.867</v>
       </c>
       <c r="K758" s="10" t="n">
-        <v>191.247</v>
+        <v>333.207</v>
       </c>
       <c r="L758" s="13" t="n">
         <v>45478</v>
       </c>
       <c r="M758" s="9" t="inlineStr">
         <is>
-          <t>17:38:00</t>
+          <t>17:34:00</t>
         </is>
       </c>
       <c r="N758" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O758" s="10" t="n">
-        <v>182.14</v>
+        <v>317.34</v>
       </c>
       <c r="P758" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q758" s="10" t="n">
-        <v>9.106999999999999</v>
+        <v>15.867</v>
       </c>
       <c r="R758" s="10" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S758" s="7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="T758" s="0" t="n">
         <v>17</v>
@@ -58093,17 +58094,17 @@
     <row r="772" ht="12.75" customHeight="1" s="11">
       <c r="B772" s="10" t="inlineStr">
         <is>
-          <t>105-10-6182</t>
+          <t>401-09-4232</t>
         </is>
       </c>
       <c r="C772" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D772" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E772" s="10" t="inlineStr">
@@ -58118,27 +58119,27 @@
       </c>
       <c r="G772" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H772" s="10" t="n">
-        <v>21.48</v>
+        <v>86.69</v>
       </c>
       <c r="I772" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J772" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="K772" s="10" t="n">
-        <v>45.108</v>
+        <v>455.1225</v>
       </c>
       <c r="L772" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M772" s="9" t="inlineStr">
         <is>
-          <t>12:22:00</t>
+          <t>18:38:00</t>
         </is>
       </c>
       <c r="N772" s="10" t="inlineStr">
@@ -58147,38 +58148,38 @@
         </is>
       </c>
       <c r="O772" s="10" t="n">
-        <v>42.96</v>
+        <v>433.45</v>
       </c>
       <c r="P772" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q772" s="10" t="n">
-        <v>2.148</v>
+        <v>21.6725</v>
       </c>
       <c r="R772" s="10" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="S772" s="7" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="T772" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="773" ht="12.75" customHeight="1" s="11">
       <c r="B773" s="10" t="inlineStr">
         <is>
-          <t>401-09-4232</t>
+          <t>105-10-6182</t>
         </is>
       </c>
       <c r="C773" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D773" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E773" s="10" t="inlineStr">
@@ -58193,27 +58194,27 @@
       </c>
       <c r="G773" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H773" s="10" t="n">
-        <v>86.69</v>
+        <v>21.48</v>
       </c>
       <c r="I773" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J773" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="K773" s="10" t="n">
-        <v>455.1225</v>
+        <v>45.108</v>
       </c>
       <c r="L773" s="13" t="n">
         <v>45489</v>
       </c>
       <c r="M773" s="9" t="inlineStr">
         <is>
-          <t>18:38:00</t>
+          <t>12:22:00</t>
         </is>
       </c>
       <c r="N773" s="10" t="inlineStr">
@@ -58222,22 +58223,22 @@
         </is>
       </c>
       <c r="O773" s="10" t="n">
-        <v>433.45</v>
+        <v>42.96</v>
       </c>
       <c r="P773" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q773" s="10" t="n">
-        <v>21.6725</v>
+        <v>2.148</v>
       </c>
       <c r="R773" s="10" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="S773" s="7" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="T773" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="774" ht="12.75" customHeight="1" s="11">
@@ -59218,7 +59219,7 @@
     <row r="787" ht="12.75" customHeight="1" s="11">
       <c r="B787" s="10" t="inlineStr">
         <is>
-          <t>869-11-3082</t>
+          <t>560-30-5617</t>
         </is>
       </c>
       <c r="C787" s="10" t="inlineStr">
@@ -59228,66 +59229,66 @@
       </c>
       <c r="D787" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E787" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F787" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G787" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H787" s="10" t="n">
-        <v>96.16</v>
+        <v>24.77</v>
       </c>
       <c r="I787" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J787" s="10" t="n">
-        <v>19.232</v>
+        <v>6.1925</v>
       </c>
       <c r="K787" s="10" t="n">
-        <v>403.872</v>
+        <v>130.0425</v>
       </c>
       <c r="L787" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M787" s="9" t="inlineStr">
         <is>
-          <t>20:03:00</t>
+          <t>18:27:00</t>
         </is>
       </c>
       <c r="N787" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O787" s="10" t="n">
-        <v>384.64</v>
+        <v>123.85</v>
       </c>
       <c r="P787" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q787" s="10" t="n">
-        <v>19.232</v>
+        <v>6.1925</v>
       </c>
       <c r="R787" s="10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S787" s="7" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="T787" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="788" ht="12.75" customHeight="1" s="11">
@@ -59368,7 +59369,7 @@
     <row r="789" ht="12.75" customHeight="1" s="11">
       <c r="B789" s="10" t="inlineStr">
         <is>
-          <t>560-30-5617</t>
+          <t>869-11-3082</t>
         </is>
       </c>
       <c r="C789" s="10" t="inlineStr">
@@ -59378,66 +59379,66 @@
       </c>
       <c r="D789" s="7" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E789" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F789" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G789" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H789" s="10" t="n">
-        <v>24.77</v>
+        <v>96.16</v>
       </c>
       <c r="I789" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J789" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="K789" s="10" t="n">
-        <v>130.0425</v>
+        <v>403.872</v>
       </c>
       <c r="L789" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="M789" s="9" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>20:03:00</t>
         </is>
       </c>
       <c r="N789" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O789" s="10" t="n">
-        <v>123.85</v>
+        <v>384.64</v>
       </c>
       <c r="P789" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q789" s="10" t="n">
-        <v>6.1925</v>
+        <v>19.232</v>
       </c>
       <c r="R789" s="10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S789" s="7" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="T789" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="790" ht="12.75" customHeight="1" s="11">
@@ -60343,17 +60344,17 @@
     <row r="802" ht="12.75" customHeight="1" s="11">
       <c r="B802" s="10" t="inlineStr">
         <is>
-          <t>696-90-2548</t>
+          <t>714-02-3114</t>
         </is>
       </c>
       <c r="C802" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D802" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E802" s="10" t="inlineStr">
@@ -60363,7 +60364,7 @@
       </c>
       <c r="F802" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G802" s="10" t="inlineStr">
@@ -60372,63 +60373,63 @@
         </is>
       </c>
       <c r="H802" s="10" t="n">
-        <v>25.84</v>
+        <v>98.8</v>
       </c>
       <c r="I802" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J802" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K802" s="10" t="n">
-        <v>81.396</v>
+        <v>207.48</v>
       </c>
       <c r="L802" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M802" s="9" t="inlineStr">
         <is>
-          <t>18:55:00</t>
+          <t>11:39:00</t>
         </is>
       </c>
       <c r="N802" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O802" s="10" t="n">
-        <v>77.52</v>
+        <v>197.6</v>
       </c>
       <c r="P802" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q802" s="10" t="n">
-        <v>3.876</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="R802" s="10" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="S802" s="7" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T802" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" ht="12.75" customHeight="1" s="11">
       <c r="B803" s="10" t="inlineStr">
         <is>
-          <t>714-02-3114</t>
+          <t>696-90-2548</t>
         </is>
       </c>
       <c r="C803" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D803" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E803" s="10" t="inlineStr">
@@ -60438,7 +60439,7 @@
       </c>
       <c r="F803" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G803" s="10" t="inlineStr">
@@ -60447,47 +60448,47 @@
         </is>
       </c>
       <c r="H803" s="10" t="n">
-        <v>98.8</v>
+        <v>25.84</v>
       </c>
       <c r="I803" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J803" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="K803" s="10" t="n">
-        <v>207.48</v>
+        <v>81.396</v>
       </c>
       <c r="L803" s="13" t="n">
         <v>45521</v>
       </c>
       <c r="M803" s="9" t="inlineStr">
         <is>
-          <t>11:39:00</t>
+          <t>18:55:00</t>
         </is>
       </c>
       <c r="N803" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O803" s="10" t="n">
-        <v>197.6</v>
+        <v>77.52</v>
       </c>
       <c r="P803" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q803" s="10" t="n">
-        <v>9.880000000000001</v>
+        <v>3.876</v>
       </c>
       <c r="R803" s="10" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="S803" s="7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T803" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="804" ht="12.75" customHeight="1" s="11">
@@ -63943,12 +63944,12 @@
     <row r="850" ht="12.75" customHeight="1" s="11">
       <c r="B850" s="10" t="inlineStr">
         <is>
-          <t>865-92-6136</t>
+          <t>576-31-4774</t>
         </is>
       </c>
       <c r="C850" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D850" s="7" t="inlineStr">
@@ -63963,32 +63964,32 @@
       </c>
       <c r="F850" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G850" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H850" s="10" t="n">
-        <v>52.75</v>
+        <v>73.41</v>
       </c>
       <c r="I850" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J850" s="10" t="n">
-        <v>7.9125</v>
+        <v>11.0115</v>
       </c>
       <c r="K850" s="10" t="n">
-        <v>166.1625</v>
+        <v>231.2415</v>
       </c>
       <c r="L850" s="13" t="n">
         <v>45586</v>
       </c>
       <c r="M850" s="9" t="inlineStr">
         <is>
-          <t>10:16:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="N850" s="10" t="inlineStr">
@@ -63997,33 +63998,33 @@
         </is>
       </c>
       <c r="O850" s="10" t="n">
-        <v>158.25</v>
+        <v>220.23</v>
       </c>
       <c r="P850" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q850" s="10" t="n">
-        <v>7.9125</v>
+        <v>11.0115</v>
       </c>
       <c r="R850" s="10" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="S850" s="7" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="T850" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="851" ht="12.75" customHeight="1" s="11">
       <c r="B851" s="10" t="inlineStr">
         <is>
-          <t>576-31-4774</t>
+          <t>865-92-6136</t>
         </is>
       </c>
       <c r="C851" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D851" s="7" t="inlineStr">
@@ -64038,32 +64039,32 @@
       </c>
       <c r="F851" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G851" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H851" s="10" t="n">
-        <v>73.41</v>
+        <v>52.75</v>
       </c>
       <c r="I851" s="10" t="n">
         <v>3</v>
       </c>
       <c r="J851" s="10" t="n">
-        <v>11.0115</v>
+        <v>7.9125</v>
       </c>
       <c r="K851" s="10" t="n">
-        <v>231.2415</v>
+        <v>166.1625</v>
       </c>
       <c r="L851" s="13" t="n">
         <v>45586</v>
       </c>
       <c r="M851" s="9" t="inlineStr">
         <is>
-          <t>13:10:00</t>
+          <t>10:16:00</t>
         </is>
       </c>
       <c r="N851" s="10" t="inlineStr">
@@ -64072,22 +64073,22 @@
         </is>
       </c>
       <c r="O851" s="10" t="n">
-        <v>220.23</v>
+        <v>158.25</v>
       </c>
       <c r="P851" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q851" s="10" t="n">
-        <v>11.0115</v>
+        <v>7.9125</v>
       </c>
       <c r="R851" s="10" t="n">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S851" s="7" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="T851" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="852" ht="12.75" customHeight="1" s="11">
@@ -66193,17 +66194,17 @@
     <row r="880" ht="12.75" customHeight="1" s="11">
       <c r="B880" s="10" t="inlineStr">
         <is>
-          <t>135-13-8269</t>
+          <t>807-14-7833</t>
         </is>
       </c>
       <c r="C880" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D880" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E880" s="10" t="inlineStr">
@@ -66218,57 +66219,57 @@
       </c>
       <c r="G880" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H880" s="10" t="n">
-        <v>78.88</v>
+        <v>17.42</v>
       </c>
       <c r="I880" s="10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J880" s="10" t="n">
-        <v>7.888</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K880" s="10" t="n">
-        <v>165.648</v>
+        <v>182.91</v>
       </c>
       <c r="L880" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M880" s="9" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="N880" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O880" s="10" t="n">
-        <v>157.76</v>
+        <v>174.2</v>
       </c>
       <c r="P880" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q880" s="10" t="n">
-        <v>7.888</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="R880" s="10" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="S880" s="7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T880" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="881" ht="12.75" customHeight="1" s="11">
       <c r="B881" s="10" t="inlineStr">
         <is>
-          <t>807-14-7833</t>
+          <t>633-91-1052</t>
         </is>
       </c>
       <c r="C881" s="10" t="inlineStr">
@@ -66278,12 +66279,12 @@
       </c>
       <c r="D881" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E881" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F881" s="10" t="inlineStr">
@@ -66293,72 +66294,72 @@
       </c>
       <c r="G881" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H881" s="10" t="n">
-        <v>17.42</v>
+        <v>12.03</v>
       </c>
       <c r="I881" s="10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J881" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>1.203</v>
       </c>
       <c r="K881" s="10" t="n">
-        <v>182.91</v>
+        <v>25.263</v>
       </c>
       <c r="L881" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M881" s="9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:51:00</t>
         </is>
       </c>
       <c r="N881" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O881" s="10" t="n">
-        <v>174.2</v>
+        <v>24.06</v>
       </c>
       <c r="P881" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q881" s="10" t="n">
-        <v>8.710000000000001</v>
+        <v>1.203</v>
       </c>
       <c r="R881" s="10" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="S881" s="7" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T881" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="882" ht="12.75" customHeight="1" s="11">
       <c r="B882" s="10" t="inlineStr">
         <is>
-          <t>633-91-1052</t>
+          <t>135-13-8269</t>
         </is>
       </c>
       <c r="C882" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D882" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E882" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F882" s="10" t="inlineStr">
@@ -66368,27 +66369,27 @@
       </c>
       <c r="G882" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H882" s="10" t="n">
-        <v>12.03</v>
+        <v>78.88</v>
       </c>
       <c r="I882" s="10" t="n">
         <v>2</v>
       </c>
       <c r="J882" s="10" t="n">
-        <v>1.203</v>
+        <v>7.888</v>
       </c>
       <c r="K882" s="10" t="n">
-        <v>25.263</v>
+        <v>165.648</v>
       </c>
       <c r="L882" s="13" t="n">
         <v>45621</v>
       </c>
       <c r="M882" s="9" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:04:00</t>
         </is>
       </c>
       <c r="N882" s="10" t="inlineStr">
@@ -66397,22 +66398,22 @@
         </is>
       </c>
       <c r="O882" s="10" t="n">
-        <v>24.06</v>
+        <v>157.76</v>
       </c>
       <c r="P882" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q882" s="10" t="n">
-        <v>1.203</v>
+        <v>7.888</v>
       </c>
       <c r="R882" s="10" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="S882" s="7" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T882" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="883" ht="12.75" customHeight="1" s="11">
@@ -69643,52 +69644,52 @@
     <row r="926" ht="12.75" customHeight="1" s="11">
       <c r="B926" s="10" t="inlineStr">
         <is>
-          <t>856-66-2701</t>
+          <t>374-38-5555</t>
         </is>
       </c>
       <c r="C926" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D926" s="7" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="E926" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F926" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G926" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H926" s="10" t="n">
-        <v>53.3</v>
+        <v>63.71</v>
       </c>
       <c r="I926" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J926" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="K926" s="10" t="n">
-        <v>167.895</v>
+        <v>334.4775</v>
       </c>
       <c r="L926" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M926" s="9" t="inlineStr">
         <is>
-          <t>14:19:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="N926" s="10" t="inlineStr">
@@ -69697,73 +69698,73 @@
         </is>
       </c>
       <c r="O926" s="10" t="n">
-        <v>159.9</v>
+        <v>318.55</v>
       </c>
       <c r="P926" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q926" s="10" t="n">
-        <v>7.995</v>
+        <v>15.9275</v>
       </c>
       <c r="R926" s="10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="S926" s="7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T926" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="927" ht="12.75" customHeight="1" s="11">
       <c r="B927" s="10" t="inlineStr">
         <is>
-          <t>374-38-5555</t>
+          <t>856-66-2701</t>
         </is>
       </c>
       <c r="C927" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D927" s="7" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="E927" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F927" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G927" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H927" s="10" t="n">
-        <v>63.71</v>
+        <v>53.3</v>
       </c>
       <c r="I927" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J927" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="K927" s="10" t="n">
-        <v>334.4775</v>
+        <v>167.895</v>
       </c>
       <c r="L927" s="13" t="n">
         <v>45670</v>
       </c>
       <c r="M927" s="9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:19:00</t>
         </is>
       </c>
       <c r="N927" s="10" t="inlineStr">
@@ -69772,22 +69773,22 @@
         </is>
       </c>
       <c r="O927" s="10" t="n">
-        <v>318.55</v>
+        <v>159.9</v>
       </c>
       <c r="P927" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q927" s="10" t="n">
-        <v>15.9275</v>
+        <v>7.995</v>
       </c>
       <c r="R927" s="10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S927" s="7" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T927" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="928" ht="12.75" customHeight="1" s="11">
@@ -72043,52 +72044,52 @@
     <row r="958" ht="12.75" customHeight="1" s="11">
       <c r="B958" s="10" t="inlineStr">
         <is>
-          <t>605-72-4132</t>
+          <t>291-21-5991</t>
         </is>
       </c>
       <c r="C958" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D958" s="7" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E958" s="10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="F958" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G958" s="10" t="inlineStr">
         <is>
-          <t>Food and beverages</t>
+          <t>Health and beauty</t>
         </is>
       </c>
       <c r="H958" s="10" t="n">
-        <v>94.47</v>
+        <v>61.29</v>
       </c>
       <c r="I958" s="10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J958" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="K958" s="10" t="n">
-        <v>793.548</v>
+        <v>321.7725</v>
       </c>
       <c r="L958" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M958" s="9" t="inlineStr">
         <is>
-          <t>15:12:00</t>
+          <t>14:28:00</t>
         </is>
       </c>
       <c r="N958" s="10" t="inlineStr">
@@ -72097,43 +72098,43 @@
         </is>
       </c>
       <c r="O958" s="10" t="n">
-        <v>755.76</v>
+        <v>306.45</v>
       </c>
       <c r="P958" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q958" s="10" t="n">
-        <v>37.788</v>
+        <v>15.3225</v>
       </c>
       <c r="R958" s="10" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="S958" s="7" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="T958" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="959" ht="12.75" customHeight="1" s="11">
       <c r="B959" s="10" t="inlineStr">
         <is>
-          <t>347-72-6115</t>
+          <t>605-72-4132</t>
         </is>
       </c>
       <c r="C959" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D959" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E959" s="10" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F959" s="10" t="inlineStr">
@@ -72143,57 +72144,57 @@
       </c>
       <c r="G959" s="10" t="inlineStr">
         <is>
-          <t>Sports and travel</t>
+          <t>Food and beverages</t>
         </is>
       </c>
       <c r="H959" s="10" t="n">
-        <v>90.73999999999999</v>
+        <v>94.47</v>
       </c>
       <c r="I959" s="10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J959" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="K959" s="10" t="n">
-        <v>666.939</v>
+        <v>793.548</v>
       </c>
       <c r="L959" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M959" s="9" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>15:12:00</t>
         </is>
       </c>
       <c r="N959" s="10" t="inlineStr">
         <is>
-          <t>Credit card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O959" s="10" t="n">
-        <v>635.1799999999999</v>
+        <v>755.76</v>
       </c>
       <c r="P959" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q959" s="10" t="n">
-        <v>31.759</v>
+        <v>37.788</v>
       </c>
       <c r="R959" s="10" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="S959" s="7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T959" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="960" ht="12.75" customHeight="1" s="11">
       <c r="B960" s="10" t="inlineStr">
         <is>
-          <t>291-21-5991</t>
+          <t>347-72-6115</t>
         </is>
       </c>
       <c r="C960" s="10" t="inlineStr">
@@ -72203,7 +72204,7 @@
       </c>
       <c r="D960" s="7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E960" s="10" t="inlineStr">
@@ -72213,56 +72214,56 @@
       </c>
       <c r="F960" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G960" s="10" t="inlineStr">
         <is>
-          <t>Health and beauty</t>
+          <t>Sports and travel</t>
         </is>
       </c>
       <c r="H960" s="10" t="n">
-        <v>61.29</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="I960" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J960" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="K960" s="10" t="n">
-        <v>321.7725</v>
+        <v>666.939</v>
       </c>
       <c r="L960" s="13" t="n">
         <v>45713</v>
       </c>
       <c r="M960" s="9" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>18:03:00</t>
         </is>
       </c>
       <c r="N960" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit card</t>
         </is>
       </c>
       <c r="O960" s="10" t="n">
-        <v>306.45</v>
+        <v>635.1799999999999</v>
       </c>
       <c r="P960" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q960" s="10" t="n">
-        <v>15.3225</v>
+        <v>31.759</v>
       </c>
       <c r="R960" s="10" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="S960" s="7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="T960" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="961" ht="12.75" customHeight="1" s="11">
@@ -72868,17 +72869,17 @@
     <row r="969" ht="12.75" customHeight="1" s="11">
       <c r="B969" s="10" t="inlineStr">
         <is>
-          <t>526-86-8552</t>
+          <t>542-41-0513</t>
         </is>
       </c>
       <c r="C969" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D969" s="7" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E969" s="10" t="inlineStr">
@@ -72893,27 +72894,27 @@
       </c>
       <c r="G969" s="10" t="inlineStr">
         <is>
-          <t>Home and lifestyle</t>
+          <t>Electronic accessories</t>
         </is>
       </c>
       <c r="H969" s="10" t="n">
-        <v>21.82</v>
+        <v>57.49</v>
       </c>
       <c r="I969" s="10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J969" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="K969" s="10" t="n">
-        <v>229.11</v>
+        <v>241.458</v>
       </c>
       <c r="L969" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M969" s="9" t="inlineStr">
         <is>
-          <t>17:36:00</t>
+          <t>11:57:00</t>
         </is>
       </c>
       <c r="N969" s="10" t="inlineStr">
@@ -72922,28 +72923,28 @@
         </is>
       </c>
       <c r="O969" s="10" t="n">
-        <v>218.2</v>
+        <v>229.96</v>
       </c>
       <c r="P969" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q969" s="10" t="n">
-        <v>10.91</v>
+        <v>11.498</v>
       </c>
       <c r="R969" s="10" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="S969" s="7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="T969" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="970" ht="12.75" customHeight="1" s="11">
       <c r="B970" s="10" t="inlineStr">
         <is>
-          <t>735-32-9839</t>
+          <t>526-86-8552</t>
         </is>
       </c>
       <c r="C970" s="10" t="inlineStr">
@@ -72963,72 +72964,72 @@
       </c>
       <c r="F970" s="10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G970" s="10" t="inlineStr">
         <is>
-          <t>Fashion accessories</t>
+          <t>Home and lifestyle</t>
         </is>
       </c>
       <c r="H970" s="10" t="n">
-        <v>98.7</v>
+        <v>21.82</v>
       </c>
       <c r="I970" s="10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J970" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="K970" s="10" t="n">
-        <v>829.08</v>
+        <v>229.11</v>
       </c>
       <c r="L970" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M970" s="9" t="inlineStr">
         <is>
-          <t>10:36:00</t>
+          <t>17:36:00</t>
         </is>
       </c>
       <c r="N970" s="10" t="inlineStr">
         <is>
-          <t>Ewallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="O970" s="10" t="n">
-        <v>789.6</v>
+        <v>218.2</v>
       </c>
       <c r="P970" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q970" s="10" t="n">
-        <v>39.48</v>
+        <v>10.91</v>
       </c>
       <c r="R970" s="10" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="S970" s="7" t="n">
         <v>35</v>
       </c>
       <c r="T970" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="971" ht="12.75" customHeight="1" s="11">
       <c r="B971" s="10" t="inlineStr">
         <is>
-          <t>542-41-0513</t>
+          <t>735-32-9839</t>
         </is>
       </c>
       <c r="C971" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D971" s="7" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="E971" s="10" t="inlineStr">
@@ -73038,56 +73039,56 @@
       </c>
       <c r="F971" s="10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G971" s="10" t="inlineStr">
         <is>
-          <t>Electronic accessories</t>
+          <t>Fashion accessories</t>
         </is>
       </c>
       <c r="H971" s="10" t="n">
-        <v>57.49</v>
+        <v>98.7</v>
       </c>
       <c r="I971" s="10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J971" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="K971" s="10" t="n">
-        <v>241.458</v>
+        <v>829.08</v>
       </c>
       <c r="L971" s="13" t="n">
         <v>45726</v>
       </c>
       <c r="M971" s="9" t="inlineStr">
         <is>
-          <t>11:57:00</t>
+          <t>10:36:00</t>
         </is>
       </c>
       <c r="N971" s="10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Ewallet</t>
         </is>
       </c>
       <c r="O971" s="10" t="n">
-        <v>229.96</v>
+        <v>789.6</v>
       </c>
       <c r="P971" s="10" t="n">
         <v>4.761904762</v>
       </c>
       <c r="Q971" s="10" t="n">
-        <v>11.498</v>
+        <v>39.48</v>
       </c>
       <c r="R971" s="10" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="S971" s="7" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="T971" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="972" ht="12.75" customHeight="1" s="11">
@@ -75568,17 +75569,17 @@
     <row r="1005">
       <c r="B1005" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>333-33-33</t>
         </is>
       </c>
       <c r="C1005" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1005" s="0" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E1005" s="0" t="inlineStr">
@@ -75597,23 +75598,23 @@
         </is>
       </c>
       <c r="H1005" s="0" t="n">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="I1005" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J1005" s="0" t="n">
-        <v>8.25</v>
+        <v>176.25</v>
       </c>
       <c r="K1005" s="0" t="n">
-        <v>173.25</v>
+        <v>3701.25</v>
       </c>
       <c r="L1005" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1005" s="0" t="inlineStr">
         <is>
-          <t>15:04:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="N1005" s="0" t="inlineStr">
@@ -75622,38 +75623,38 @@
         </is>
       </c>
       <c r="O1005" s="0" t="n">
-        <v>165</v>
+        <v>3525</v>
       </c>
       <c r="P1005" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1005" s="0" t="n">
-        <v>8.25</v>
+        <v>176.25</v>
       </c>
       <c r="R1005" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S1005" s="0" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="T1005" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1006">
       <c r="B1006" s="0" t="inlineStr">
         <is>
-          <t>333-33-33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1006" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D1006" s="0" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="E1006" s="0" t="inlineStr">
@@ -75672,23 +75673,23 @@
         </is>
       </c>
       <c r="H1006" s="0" t="n">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="I1006" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J1006" s="0" t="n">
-        <v>176.25</v>
+        <v>28</v>
       </c>
       <c r="K1006" s="0" t="n">
-        <v>3701.25</v>
+        <v>588</v>
       </c>
       <c r="L1006" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1006" s="0" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:05:00</t>
         </is>
       </c>
       <c r="N1006" s="0" t="inlineStr">
@@ -75697,28 +75698,28 @@
         </is>
       </c>
       <c r="O1006" s="0" t="n">
-        <v>3525</v>
+        <v>560</v>
       </c>
       <c r="P1006" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1006" s="0" t="n">
-        <v>176.25</v>
+        <v>28</v>
       </c>
       <c r="R1006" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S1006" s="0" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T1006" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1007">
       <c r="B1007" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C1007" s="0" t="inlineStr">
@@ -75733,7 +75734,7 @@
       </c>
       <c r="E1007" s="0" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1007" s="0" t="inlineStr">
@@ -75747,23 +75748,23 @@
         </is>
       </c>
       <c r="H1007" s="0" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I1007" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J1007" s="0" t="n">
-        <v>28</v>
+        <v>8.25</v>
       </c>
       <c r="K1007" s="0" t="n">
-        <v>588</v>
+        <v>173.25</v>
       </c>
       <c r="L1007" s="14" t="n">
         <v>45801</v>
       </c>
       <c r="M1007" s="0" t="inlineStr">
         <is>
-          <t>19:05:00</t>
+          <t>15:04:00</t>
         </is>
       </c>
       <c r="N1007" s="0" t="inlineStr">
@@ -75772,22 +75773,22 @@
         </is>
       </c>
       <c r="O1007" s="0" t="n">
-        <v>560</v>
+        <v>165</v>
       </c>
       <c r="P1007" s="0" t="n">
         <v>4.7619</v>
       </c>
       <c r="Q1007" s="0" t="n">
-        <v>28</v>
+        <v>8.25</v>
       </c>
       <c r="R1007" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S1007" s="0" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="T1007" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008">
@@ -75861,8 +75862,80 @@
       <c r="S1008" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="T1008" t="n">
+      <c r="T1008" s="0" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>Health and beauty</t>
+        </is>
+      </c>
+      <c r="H1009" t="n">
+        <v>332</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>2788.8</v>
+      </c>
+      <c r="L1009" s="14" t="n">
+        <v>45802</v>
+      </c>
+      <c r="M1009" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="O1009" t="n">
+        <v>2656</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>132.8000000000002</v>
+      </c>
+      <c r="R1009" t="n">
+        <v>7</v>
+      </c>
+      <c r="S1009" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
